--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="28740" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28740" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="102">
   <si>
     <t>date</t>
   </si>
@@ -24,12 +24,6 @@
     <t>site</t>
   </si>
   <si>
-    <t>chapter</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>reviewer1SpeciesCm</t>
   </si>
   <si>
@@ -45,9 +39,6 @@
     <t>reviewer1Size</t>
   </si>
   <si>
-    <t>reviewer1Notes</t>
-  </si>
-  <si>
     <t>reviewer2SpeciesCm</t>
   </si>
   <si>
@@ -79,6 +70,258 @@
   </si>
   <si>
     <t>transect</t>
+  </si>
+  <si>
+    <t>IC-C1</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>Bluestriped Grunt</t>
+  </si>
+  <si>
+    <t>Haemulon</t>
+  </si>
+  <si>
+    <t>reviewer1FullSciName</t>
+  </si>
+  <si>
+    <t>Haemulon sciurus</t>
+  </si>
+  <si>
+    <t>sciurus</t>
+  </si>
+  <si>
+    <t>French Grunt</t>
+  </si>
+  <si>
+    <t>flavolineatum</t>
+  </si>
+  <si>
+    <t>Haemulon flavolineatum</t>
+  </si>
+  <si>
+    <t>saxatilis</t>
+  </si>
+  <si>
+    <t>Sergeant Major</t>
+  </si>
+  <si>
+    <t>Abudefduf saxatilis</t>
+  </si>
+  <si>
+    <t>Abudefduf</t>
+  </si>
+  <si>
+    <t>Banded Butterflyfish</t>
+  </si>
+  <si>
+    <t>Chaetodon</t>
+  </si>
+  <si>
+    <t>striatus</t>
+  </si>
+  <si>
+    <t>Chaetodon striatus</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4005.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4006.png</t>
+  </si>
+  <si>
+    <t>Bluehead</t>
+  </si>
+  <si>
+    <t>Thalassoma bifasciatum</t>
+  </si>
+  <si>
+    <t>bifasciatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassoma </t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>yellow morph</t>
+  </si>
+  <si>
+    <t>White Grunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemulon </t>
+  </si>
+  <si>
+    <t>plumierii</t>
+  </si>
+  <si>
+    <t>Haemulon plumierii</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4007.png</t>
+  </si>
+  <si>
+    <t>Caesar Grunt</t>
+  </si>
+  <si>
+    <t>carbonarium</t>
+  </si>
+  <si>
+    <t>Haemulon carbonarium</t>
+  </si>
+  <si>
+    <t>Bar Jack</t>
+  </si>
+  <si>
+    <t>Caranx</t>
+  </si>
+  <si>
+    <t>ruber</t>
+  </si>
+  <si>
+    <t>Caranx ruber</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4008.png</t>
+  </si>
+  <si>
+    <t>Cheatodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abudefduf </t>
+  </si>
+  <si>
+    <t>Yellowfin Mojarra</t>
+  </si>
+  <si>
+    <t>Gerres</t>
+  </si>
+  <si>
+    <t>Gerres cinereus</t>
+  </si>
+  <si>
+    <t>cinereus</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4009.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheatondon striatus </t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4010.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4011.png</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>no fish</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4012.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4013.png</t>
+  </si>
+  <si>
+    <t>juvenile</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4014.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4015.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4016.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4017.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4018.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4019.png</t>
+  </si>
+  <si>
+    <t>Striped Parrotfisfh</t>
+  </si>
+  <si>
+    <t>Scarus</t>
+  </si>
+  <si>
+    <t>iserti</t>
+  </si>
+  <si>
+    <t>Scarus iserti</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4020.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4021.png</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4022.png</t>
+  </si>
+  <si>
+    <t>Bicolor Damselfish</t>
+  </si>
+  <si>
+    <t>Stegastes</t>
+  </si>
+  <si>
+    <t>partitus</t>
+  </si>
+  <si>
+    <t>Stegastes partitus</t>
+  </si>
+  <si>
+    <t>GOPR0196.MP4023.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4005.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4006.png</t>
+  </si>
+  <si>
+    <t>Squirrelfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holocentrus </t>
+  </si>
+  <si>
+    <t>adscensionis</t>
+  </si>
+  <si>
+    <t>Holocentrus adscensionis</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4007.png</t>
+  </si>
+  <si>
+    <t>Dusky Damselfish</t>
+  </si>
+  <si>
+    <t>adustus</t>
+  </si>
+  <si>
+    <t>Stegastes adustus</t>
   </si>
 </sst>
 </file>
@@ -114,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -122,6 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,33 +667,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="13" width="26.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,61 +703,1496 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +2206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -537,7 +2218,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="143">
   <si>
     <t>date</t>
   </si>
@@ -322,6 +322,129 @@
   </si>
   <si>
     <t>Stegastes adustus</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4008.png</t>
+  </si>
+  <si>
+    <t>Thalassoma</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4009.png</t>
+  </si>
+  <si>
+    <t>Haelumon carbonarium</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4010.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4011.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stegastes </t>
+  </si>
+  <si>
+    <t>Spanish Hogfish</t>
+  </si>
+  <si>
+    <t>Bodianus</t>
+  </si>
+  <si>
+    <t>rufus</t>
+  </si>
+  <si>
+    <t>Bodianus rufus</t>
+  </si>
+  <si>
+    <t>Foureye Butterflyfish</t>
+  </si>
+  <si>
+    <t>capistratus</t>
+  </si>
+  <si>
+    <t>Chaetodon capistratus</t>
+  </si>
+  <si>
+    <t>Painted Wrasse</t>
+  </si>
+  <si>
+    <t>Halichoeres</t>
+  </si>
+  <si>
+    <t>caudalis</t>
+  </si>
+  <si>
+    <t>Halichoeres caudalis</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4012.png</t>
+  </si>
+  <si>
+    <t>Foureye butterflyfish</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4013.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4014.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4015.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4016.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4017.png</t>
+  </si>
+  <si>
+    <t>Segastes partitus</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4018.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slippery Dick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halichoeres </t>
+  </si>
+  <si>
+    <t>bivittatus</t>
+  </si>
+  <si>
+    <t>Halichoeres bivittatus</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4019.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4020.png</t>
+  </si>
+  <si>
+    <t>Haemulon pulmierii</t>
+  </si>
+  <si>
+    <t>Parrotfish</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both individuals unidentifiable </t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4021.png</t>
+  </si>
+  <si>
+    <t>GOPR0195.MP4022.png</t>
+  </si>
+  <si>
+    <t>individual unidentifiable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individual unidentifiable </t>
   </si>
 </sst>
 </file>
@@ -667,11 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,6 +2262,15 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
       <c r="D43">
         <v>3</v>
       </c>
@@ -2162,6 +2294,21 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
@@ -2179,6 +2326,21 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
       <c r="F45" t="s">
         <v>99</v>
       </c>
@@ -2193,6 +2355,1270 @@
       </c>
       <c r="J45">
         <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>73</v>
+      </c>
+      <c r="M49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" t="s">
+        <v>112</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" t="s">
+        <v>115</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I57" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" t="s">
+        <v>118</v>
+      </c>
+      <c r="I58" t="s">
+        <v>119</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>73</v>
+      </c>
+      <c r="M61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="L62" t="s">
+        <v>73</v>
+      </c>
+      <c r="M62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" t="s">
+        <v>117</v>
+      </c>
+      <c r="H63" t="s">
+        <v>118</v>
+      </c>
+      <c r="I63" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" t="s">
+        <v>69</v>
+      </c>
+      <c r="J64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" t="s">
+        <v>117</v>
+      </c>
+      <c r="H66" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69">
+        <v>9</v>
+      </c>
+      <c r="L69" t="s">
+        <v>73</v>
+      </c>
+      <c r="M69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70">
+        <v>12</v>
+      </c>
+      <c r="L70" t="s">
+        <v>73</v>
+      </c>
+      <c r="M70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" t="s">
+        <v>87</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" t="s">
+        <v>89</v>
+      </c>
+      <c r="I72" t="s">
+        <v>127</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" t="s">
+        <v>130</v>
+      </c>
+      <c r="H75" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="L75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" t="s">
+        <v>90</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" t="s">
+        <v>135</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" t="s">
+        <v>137</v>
+      </c>
+      <c r="H79" t="s">
+        <v>137</v>
+      </c>
+      <c r="I79" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="M79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" t="s">
+        <v>135</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" t="s">
+        <v>137</v>
+      </c>
+      <c r="I81" t="s">
+        <v>137</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="M81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" t="s">
+        <v>135</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" t="s">
+        <v>137</v>
+      </c>
+      <c r="H83" t="s">
+        <v>137</v>
+      </c>
+      <c r="I83" t="s">
+        <v>137</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28740" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9465" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="233">
   <si>
     <t>date</t>
   </si>
@@ -445,6 +445,276 @@
   </si>
   <si>
     <t xml:space="preserve">individual unidentifiable </t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4006.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Grunt </t>
+  </si>
+  <si>
+    <t>Blue Striped Grunt</t>
+  </si>
+  <si>
+    <t>Latin Grunt</t>
+  </si>
+  <si>
+    <t>steindachneri</t>
+  </si>
+  <si>
+    <t>Haemulon steindachneri</t>
+  </si>
+  <si>
+    <t>Mutton Snapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutjanus </t>
+  </si>
+  <si>
+    <t>analis</t>
+  </si>
+  <si>
+    <t>Lutjanus analis</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4007.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemulon flavolineatum </t>
+  </si>
+  <si>
+    <t>Porkfish</t>
+  </si>
+  <si>
+    <t>virginicus</t>
+  </si>
+  <si>
+    <t>Anisotremus virginicus</t>
+  </si>
+  <si>
+    <t>Anisotremus</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4008.png</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4009.png</t>
+  </si>
+  <si>
+    <t>Hameulon flavolineatum</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4010.png</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4011.png</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4012.png</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4013.png</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4014.png</t>
+  </si>
+  <si>
+    <t>Redband Parrotfish</t>
+  </si>
+  <si>
+    <t>Sparisoma</t>
+  </si>
+  <si>
+    <t>aurofrenatum</t>
+  </si>
+  <si>
+    <t>Sparisoma aurofrenatum</t>
+  </si>
+  <si>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4015.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial </t>
+  </si>
+  <si>
+    <t>Ocean Surgeonfish</t>
+  </si>
+  <si>
+    <t>Acanthurus</t>
+  </si>
+  <si>
+    <t>bahianus</t>
+  </si>
+  <si>
+    <t>Acanthurus bahianus</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4016.png</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4017.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparisoma </t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4018.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acanthurus bahianus </t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4019.png</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4020.png</t>
+  </si>
+  <si>
+    <t>Haliochoeres bivittatus</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4021.png</t>
+  </si>
+  <si>
+    <t>GOPR0194.MP4022.png</t>
+  </si>
+  <si>
+    <t>IC-C2</t>
+  </si>
+  <si>
+    <t>Schoolmaster Snapper</t>
+  </si>
+  <si>
+    <t>Lutjanus apodus</t>
+  </si>
+  <si>
+    <t>apodus</t>
+  </si>
+  <si>
+    <t>Yellowtail Damselfish</t>
+  </si>
+  <si>
+    <t>Microspathodon</t>
+  </si>
+  <si>
+    <t>chrysurus</t>
+  </si>
+  <si>
+    <t>Microspathodon chrysurus</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_009.png</t>
+  </si>
+  <si>
+    <t>Blue Chromis</t>
+  </si>
+  <si>
+    <t>Chromis</t>
+  </si>
+  <si>
+    <t>cyanea</t>
+  </si>
+  <si>
+    <t>Chromis cyanea</t>
+  </si>
+  <si>
+    <t>Damselfish</t>
+  </si>
+  <si>
+    <t>Stegastes sp.</t>
+  </si>
+  <si>
+    <t>sp.</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_010.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp. </t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_015.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stegastes sp. </t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_018.png</t>
+  </si>
+  <si>
+    <t>Princess parrotfish</t>
+  </si>
+  <si>
+    <t>taeniopterus</t>
+  </si>
+  <si>
+    <t>Scarus taniopterus</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_019.png</t>
+  </si>
+  <si>
+    <t>Clown Wrasse</t>
+  </si>
+  <si>
+    <t>maculipinna</t>
+  </si>
+  <si>
+    <t>Haliochoeres maculipinna</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_020.png</t>
+  </si>
+  <si>
+    <t>Stegastest partitus</t>
+  </si>
+  <si>
+    <t>Halichoeres maculipinna</t>
+  </si>
+  <si>
+    <t>Wrasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haliocheres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haliocheres sp. </t>
   </si>
 </sst>
 </file>
@@ -480,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -489,6 +759,11 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,17 +1065,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="9" width="26.85546875" customWidth="1"/>
@@ -3621,8 +3896,3233 @@
         <v>142</v>
       </c>
     </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" t="s">
+        <v>144</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>147</v>
+      </c>
+      <c r="I86" t="s">
+        <v>148</v>
+      </c>
+      <c r="J86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" t="s">
+        <v>149</v>
+      </c>
+      <c r="G87" t="s">
+        <v>150</v>
+      </c>
+      <c r="H87" t="s">
+        <v>151</v>
+      </c>
+      <c r="I87" t="s">
+        <v>152</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" t="s">
+        <v>149</v>
+      </c>
+      <c r="G88" t="s">
+        <v>150</v>
+      </c>
+      <c r="H88" t="s">
+        <v>151</v>
+      </c>
+      <c r="I88" t="s">
+        <v>152</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s">
+        <v>147</v>
+      </c>
+      <c r="I89" t="s">
+        <v>148</v>
+      </c>
+      <c r="J89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" t="s">
+        <v>154</v>
+      </c>
+      <c r="J90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G91" t="s">
+        <v>158</v>
+      </c>
+      <c r="H91" t="s">
+        <v>156</v>
+      </c>
+      <c r="I91" t="s">
+        <v>157</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>159</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>159</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>160</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="4">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="4">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" t="s">
+        <v>69</v>
+      </c>
+      <c r="H99" t="s">
+        <v>69</v>
+      </c>
+      <c r="I99" t="s">
+        <v>69</v>
+      </c>
+      <c r="J99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="4">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" t="s">
+        <v>87</v>
+      </c>
+      <c r="G100" t="s">
+        <v>108</v>
+      </c>
+      <c r="H100" t="s">
+        <v>89</v>
+      </c>
+      <c r="I100" t="s">
+        <v>90</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="4">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>165</v>
+      </c>
+      <c r="F101" t="s">
+        <v>129</v>
+      </c>
+      <c r="G101" t="s">
+        <v>117</v>
+      </c>
+      <c r="H101" t="s">
+        <v>131</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="4">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" t="s">
+        <v>87</v>
+      </c>
+      <c r="G102" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" t="s">
+        <v>89</v>
+      </c>
+      <c r="I102" t="s">
+        <v>90</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="4">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" t="s">
+        <v>103</v>
+      </c>
+      <c r="H103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s">
+        <v>40</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="4">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>166</v>
+      </c>
+      <c r="F104" t="s">
+        <v>87</v>
+      </c>
+      <c r="G104" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" t="s">
+        <v>89</v>
+      </c>
+      <c r="I104" t="s">
+        <v>90</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="4">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>166</v>
+      </c>
+      <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s">
+        <v>40</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="4">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>166</v>
+      </c>
+      <c r="F106" t="s">
+        <v>167</v>
+      </c>
+      <c r="G106" t="s">
+        <v>168</v>
+      </c>
+      <c r="H106" t="s">
+        <v>169</v>
+      </c>
+      <c r="I106" t="s">
+        <v>170</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="4">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>172</v>
+      </c>
+      <c r="F107" t="s">
+        <v>87</v>
+      </c>
+      <c r="G107" t="s">
+        <v>88</v>
+      </c>
+      <c r="H107" t="s">
+        <v>89</v>
+      </c>
+      <c r="I107" t="s">
+        <v>90</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="4">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>172</v>
+      </c>
+      <c r="F108" t="s">
+        <v>167</v>
+      </c>
+      <c r="G108" t="s">
+        <v>168</v>
+      </c>
+      <c r="H108" t="s">
+        <v>169</v>
+      </c>
+      <c r="I108" t="s">
+        <v>170</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="4">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" t="s">
+        <v>167</v>
+      </c>
+      <c r="G109" t="s">
+        <v>168</v>
+      </c>
+      <c r="H109" t="s">
+        <v>169</v>
+      </c>
+      <c r="I109" t="s">
+        <v>170</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="4">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110" t="s">
+        <v>174</v>
+      </c>
+      <c r="G110" t="s">
+        <v>175</v>
+      </c>
+      <c r="H110" t="s">
+        <v>176</v>
+      </c>
+      <c r="I110" t="s">
+        <v>177</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="4">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" t="s">
+        <v>167</v>
+      </c>
+      <c r="G111" t="s">
+        <v>168</v>
+      </c>
+      <c r="H111" t="s">
+        <v>169</v>
+      </c>
+      <c r="I111" t="s">
+        <v>170</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="L111" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="4">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" t="s">
+        <v>174</v>
+      </c>
+      <c r="G112" t="s">
+        <v>175</v>
+      </c>
+      <c r="H112" t="s">
+        <v>176</v>
+      </c>
+      <c r="I112" t="s">
+        <v>177</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="4">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>178</v>
+      </c>
+      <c r="F113" t="s">
+        <v>87</v>
+      </c>
+      <c r="G113" t="s">
+        <v>88</v>
+      </c>
+      <c r="H113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I113" t="s">
+        <v>90</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="4">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>180</v>
+      </c>
+      <c r="F114" t="s">
+        <v>167</v>
+      </c>
+      <c r="G114" t="s">
+        <v>181</v>
+      </c>
+      <c r="H114" t="s">
+        <v>169</v>
+      </c>
+      <c r="I114" t="s">
+        <v>170</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="L114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="4">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>180</v>
+      </c>
+      <c r="F115" t="s">
+        <v>174</v>
+      </c>
+      <c r="G115" t="s">
+        <v>175</v>
+      </c>
+      <c r="H115" t="s">
+        <v>176</v>
+      </c>
+      <c r="I115" t="s">
+        <v>177</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="4">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>180</v>
+      </c>
+      <c r="F116" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s">
+        <v>40</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="4">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>180</v>
+      </c>
+      <c r="F117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G117" t="s">
+        <v>88</v>
+      </c>
+      <c r="H117" t="s">
+        <v>89</v>
+      </c>
+      <c r="I117" t="s">
+        <v>90</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="4">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>182</v>
+      </c>
+      <c r="F118" t="s">
+        <v>174</v>
+      </c>
+      <c r="G118" t="s">
+        <v>175</v>
+      </c>
+      <c r="H118" t="s">
+        <v>176</v>
+      </c>
+      <c r="I118" t="s">
+        <v>183</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="4">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>182</v>
+      </c>
+      <c r="F119" t="s">
+        <v>167</v>
+      </c>
+      <c r="G119" t="s">
+        <v>168</v>
+      </c>
+      <c r="H119" t="s">
+        <v>169</v>
+      </c>
+      <c r="I119" t="s">
+        <v>170</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="4">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>182</v>
+      </c>
+      <c r="F120" t="s">
+        <v>87</v>
+      </c>
+      <c r="G120" t="s">
+        <v>88</v>
+      </c>
+      <c r="H120" t="s">
+        <v>89</v>
+      </c>
+      <c r="I120" t="s">
+        <v>90</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="4">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>184</v>
+      </c>
+      <c r="F121" t="s">
+        <v>87</v>
+      </c>
+      <c r="G121" t="s">
+        <v>108</v>
+      </c>
+      <c r="H121" t="s">
+        <v>89</v>
+      </c>
+      <c r="I121" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="4">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>184</v>
+      </c>
+      <c r="F122" t="s">
+        <v>174</v>
+      </c>
+      <c r="G122" t="s">
+        <v>175</v>
+      </c>
+      <c r="H122" t="s">
+        <v>176</v>
+      </c>
+      <c r="I122" t="s">
+        <v>177</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="4">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>184</v>
+      </c>
+      <c r="F123" t="s">
+        <v>167</v>
+      </c>
+      <c r="G123" t="s">
+        <v>168</v>
+      </c>
+      <c r="H123" t="s">
+        <v>169</v>
+      </c>
+      <c r="I123" t="s">
+        <v>170</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="4">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>185</v>
+      </c>
+      <c r="F124" t="s">
+        <v>129</v>
+      </c>
+      <c r="G124" t="s">
+        <v>117</v>
+      </c>
+      <c r="H124" t="s">
+        <v>131</v>
+      </c>
+      <c r="I124" t="s">
+        <v>186</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="4">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>185</v>
+      </c>
+      <c r="F125" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" t="s">
+        <v>103</v>
+      </c>
+      <c r="H125" t="s">
+        <v>41</v>
+      </c>
+      <c r="I125" t="s">
+        <v>40</v>
+      </c>
+      <c r="J125">
+        <v>7</v>
+      </c>
+      <c r="L125" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="4">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F126" t="s">
+        <v>129</v>
+      </c>
+      <c r="G126" t="s">
+        <v>130</v>
+      </c>
+      <c r="H126" t="s">
+        <v>131</v>
+      </c>
+      <c r="I126" t="s">
+        <v>132</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="4">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>16</v>
+      </c>
+      <c r="E127" t="s">
+        <v>187</v>
+      </c>
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" t="s">
+        <v>103</v>
+      </c>
+      <c r="H127" t="s">
+        <v>41</v>
+      </c>
+      <c r="I127" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127">
+        <v>10</v>
+      </c>
+      <c r="L127" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="4">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>16</v>
+      </c>
+      <c r="E128" t="s">
+        <v>187</v>
+      </c>
+      <c r="F128" t="s">
+        <v>174</v>
+      </c>
+      <c r="G128" t="s">
+        <v>175</v>
+      </c>
+      <c r="H128" t="s">
+        <v>176</v>
+      </c>
+      <c r="I128" t="s">
+        <v>177</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="4">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>16</v>
+      </c>
+      <c r="E129" t="s">
+        <v>187</v>
+      </c>
+      <c r="F129" t="s">
+        <v>87</v>
+      </c>
+      <c r="G129" t="s">
+        <v>88</v>
+      </c>
+      <c r="H129" t="s">
+        <v>89</v>
+      </c>
+      <c r="I129" t="s">
+        <v>90</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="4">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>17</v>
+      </c>
+      <c r="E130" t="s">
+        <v>188</v>
+      </c>
+      <c r="F130" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" t="s">
+        <v>103</v>
+      </c>
+      <c r="H130" t="s">
+        <v>41</v>
+      </c>
+      <c r="I130" t="s">
+        <v>40</v>
+      </c>
+      <c r="J130">
+        <v>11</v>
+      </c>
+      <c r="L130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="4">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>17</v>
+      </c>
+      <c r="E131" t="s">
+        <v>188</v>
+      </c>
+      <c r="F131" t="s">
+        <v>129</v>
+      </c>
+      <c r="G131" t="s">
+        <v>117</v>
+      </c>
+      <c r="H131" t="s">
+        <v>131</v>
+      </c>
+      <c r="I131" t="s">
+        <v>132</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>44179</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="4">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>17</v>
+      </c>
+      <c r="E132" t="s">
+        <v>188</v>
+      </c>
+      <c r="F132" t="s">
+        <v>87</v>
+      </c>
+      <c r="G132" t="s">
+        <v>88</v>
+      </c>
+      <c r="H132" t="s">
+        <v>89</v>
+      </c>
+      <c r="I132" t="s">
+        <v>90</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C133" s="4">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>198</v>
+      </c>
+      <c r="F133" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" t="s">
+        <v>28</v>
+      </c>
+      <c r="I133" t="s">
+        <v>30</v>
+      </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>198</v>
+      </c>
+      <c r="F134" t="s">
+        <v>190</v>
+      </c>
+      <c r="G134" t="s">
+        <v>150</v>
+      </c>
+      <c r="H134" t="s">
+        <v>192</v>
+      </c>
+      <c r="I134" t="s">
+        <v>191</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>198</v>
+      </c>
+      <c r="F135" t="s">
+        <v>193</v>
+      </c>
+      <c r="G135" t="s">
+        <v>194</v>
+      </c>
+      <c r="H135" t="s">
+        <v>195</v>
+      </c>
+      <c r="I135" t="s">
+        <v>196</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>198</v>
+      </c>
+      <c r="F136" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" t="s">
+        <v>27</v>
+      </c>
+      <c r="J136">
+        <v>5</v>
+      </c>
+      <c r="L136" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>199</v>
+      </c>
+      <c r="F137" t="s">
+        <v>51</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" t="s">
+        <v>52</v>
+      </c>
+      <c r="I137" t="s">
+        <v>53</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>199</v>
+      </c>
+      <c r="F138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" t="s">
+        <v>27</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>199</v>
+      </c>
+      <c r="F139" t="s">
+        <v>193</v>
+      </c>
+      <c r="G139" t="s">
+        <v>194</v>
+      </c>
+      <c r="H139" t="s">
+        <v>195</v>
+      </c>
+      <c r="I139" t="s">
+        <v>196</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140" s="4">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>199</v>
+      </c>
+      <c r="F140" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" t="s">
+        <v>103</v>
+      </c>
+      <c r="H140" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" t="s">
+        <v>40</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>199</v>
+      </c>
+      <c r="F141" t="s">
+        <v>146</v>
+      </c>
+      <c r="G141" t="s">
+        <v>21</v>
+      </c>
+      <c r="H141" t="s">
+        <v>147</v>
+      </c>
+      <c r="I141" t="s">
+        <v>148</v>
+      </c>
+      <c r="J141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>200</v>
+      </c>
+      <c r="F142" t="s">
+        <v>25</v>
+      </c>
+      <c r="G142" t="s">
+        <v>47</v>
+      </c>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s">
+        <v>27</v>
+      </c>
+      <c r="J142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>200</v>
+      </c>
+      <c r="F143" t="s">
+        <v>193</v>
+      </c>
+      <c r="G143" t="s">
+        <v>194</v>
+      </c>
+      <c r="H143" t="s">
+        <v>195</v>
+      </c>
+      <c r="I143" t="s">
+        <v>196</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>200</v>
+      </c>
+      <c r="F144" t="s">
+        <v>202</v>
+      </c>
+      <c r="G144" t="s">
+        <v>203</v>
+      </c>
+      <c r="H144" t="s">
+        <v>204</v>
+      </c>
+      <c r="I144" t="s">
+        <v>205</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>200</v>
+      </c>
+      <c r="F145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G145" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" t="s">
+        <v>147</v>
+      </c>
+      <c r="I145" t="s">
+        <v>148</v>
+      </c>
+      <c r="J145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146" t="s">
+        <v>201</v>
+      </c>
+      <c r="F146" t="s">
+        <v>193</v>
+      </c>
+      <c r="G146" t="s">
+        <v>194</v>
+      </c>
+      <c r="H146" t="s">
+        <v>195</v>
+      </c>
+      <c r="I146" t="s">
+        <v>196</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" s="4">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>201</v>
+      </c>
+      <c r="F147" t="s">
+        <v>146</v>
+      </c>
+      <c r="G147" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" t="s">
+        <v>147</v>
+      </c>
+      <c r="I147" t="s">
+        <v>148</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>201</v>
+      </c>
+      <c r="F148" t="s">
+        <v>206</v>
+      </c>
+      <c r="G148" t="s">
+        <v>88</v>
+      </c>
+      <c r="H148" t="s">
+        <v>208</v>
+      </c>
+      <c r="I148" t="s">
+        <v>207</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>209</v>
+      </c>
+      <c r="F149" t="s">
+        <v>206</v>
+      </c>
+      <c r="G149" t="s">
+        <v>88</v>
+      </c>
+      <c r="H149" t="s">
+        <v>208</v>
+      </c>
+      <c r="I149" t="s">
+        <v>207</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>209</v>
+      </c>
+      <c r="F150" t="s">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s">
+        <v>21</v>
+      </c>
+      <c r="H150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" t="s">
+        <v>27</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>211</v>
+      </c>
+      <c r="F151" t="s">
+        <v>206</v>
+      </c>
+      <c r="G151" t="s">
+        <v>108</v>
+      </c>
+      <c r="H151" t="s">
+        <v>210</v>
+      </c>
+      <c r="I151" t="s">
+        <v>207</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C152" s="4">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>211</v>
+      </c>
+      <c r="F152" t="s">
+        <v>25</v>
+      </c>
+      <c r="G152" t="s">
+        <v>21</v>
+      </c>
+      <c r="H152" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" t="s">
+        <v>27</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>212</v>
+      </c>
+      <c r="F153" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" t="s">
+        <v>103</v>
+      </c>
+      <c r="H153" t="s">
+        <v>41</v>
+      </c>
+      <c r="I153" t="s">
+        <v>40</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>212</v>
+      </c>
+      <c r="F154" t="s">
+        <v>25</v>
+      </c>
+      <c r="G154" t="s">
+        <v>21</v>
+      </c>
+      <c r="H154" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" t="s">
+        <v>27</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C155" s="4">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>213</v>
+      </c>
+      <c r="F155" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" t="s">
+        <v>103</v>
+      </c>
+      <c r="H155" t="s">
+        <v>41</v>
+      </c>
+      <c r="I155" t="s">
+        <v>40</v>
+      </c>
+      <c r="J155">
+        <v>3</v>
+      </c>
+      <c r="L155" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C156" s="4">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>214</v>
+      </c>
+      <c r="F156" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" t="s">
+        <v>103</v>
+      </c>
+      <c r="H156" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156" t="s">
+        <v>40</v>
+      </c>
+      <c r="J156">
+        <v>25</v>
+      </c>
+      <c r="L156" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>214</v>
+      </c>
+      <c r="F157" t="s">
+        <v>39</v>
+      </c>
+      <c r="G157" t="s">
+        <v>103</v>
+      </c>
+      <c r="H157" t="s">
+        <v>41</v>
+      </c>
+      <c r="I157" t="s">
+        <v>40</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="L157" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>214</v>
+      </c>
+      <c r="F158" t="s">
+        <v>87</v>
+      </c>
+      <c r="G158" t="s">
+        <v>88</v>
+      </c>
+      <c r="H158" t="s">
+        <v>89</v>
+      </c>
+      <c r="I158" t="s">
+        <v>90</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>10</v>
+      </c>
+      <c r="E159" t="s">
+        <v>215</v>
+      </c>
+      <c r="F159" t="s">
+        <v>206</v>
+      </c>
+      <c r="G159" t="s">
+        <v>88</v>
+      </c>
+      <c r="H159" t="s">
+        <v>208</v>
+      </c>
+      <c r="I159" t="s">
+        <v>216</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>215</v>
+      </c>
+      <c r="F160" t="s">
+        <v>39</v>
+      </c>
+      <c r="G160" t="s">
+        <v>103</v>
+      </c>
+      <c r="H160" t="s">
+        <v>41</v>
+      </c>
+      <c r="I160" t="s">
+        <v>40</v>
+      </c>
+      <c r="J160">
+        <v>10</v>
+      </c>
+      <c r="L160" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>215</v>
+      </c>
+      <c r="F161" t="s">
+        <v>129</v>
+      </c>
+      <c r="G161" t="s">
+        <v>130</v>
+      </c>
+      <c r="H161" t="s">
+        <v>131</v>
+      </c>
+      <c r="I161" t="s">
+        <v>132</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="L161" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>215</v>
+      </c>
+      <c r="F162" t="s">
+        <v>87</v>
+      </c>
+      <c r="G162" t="s">
+        <v>88</v>
+      </c>
+      <c r="H162" t="s">
+        <v>89</v>
+      </c>
+      <c r="I162" t="s">
+        <v>90</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C163" s="4">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>11</v>
+      </c>
+      <c r="E163" t="s">
+        <v>217</v>
+      </c>
+      <c r="F163" t="s">
+        <v>206</v>
+      </c>
+      <c r="G163" t="s">
+        <v>108</v>
+      </c>
+      <c r="H163" t="s">
+        <v>208</v>
+      </c>
+      <c r="I163" t="s">
+        <v>216</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>11</v>
+      </c>
+      <c r="E164" t="s">
+        <v>217</v>
+      </c>
+      <c r="F164" t="s">
+        <v>39</v>
+      </c>
+      <c r="G164" t="s">
+        <v>103</v>
+      </c>
+      <c r="H164" t="s">
+        <v>41</v>
+      </c>
+      <c r="I164" t="s">
+        <v>40</v>
+      </c>
+      <c r="J164">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C165" s="4">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>11</v>
+      </c>
+      <c r="E165" t="s">
+        <v>217</v>
+      </c>
+      <c r="F165" t="s">
+        <v>129</v>
+      </c>
+      <c r="G165" t="s">
+        <v>117</v>
+      </c>
+      <c r="H165" t="s">
+        <v>131</v>
+      </c>
+      <c r="I165" t="s">
+        <v>132</v>
+      </c>
+      <c r="J165">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>217</v>
+      </c>
+      <c r="F166" t="s">
+        <v>87</v>
+      </c>
+      <c r="G166" t="s">
+        <v>88</v>
+      </c>
+      <c r="H166" t="s">
+        <v>89</v>
+      </c>
+      <c r="I166" t="s">
+        <v>90</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C167" s="4">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>218</v>
+      </c>
+      <c r="F167" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" t="s">
+        <v>42</v>
+      </c>
+      <c r="H167" t="s">
+        <v>41</v>
+      </c>
+      <c r="I167" t="s">
+        <v>40</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C168" s="4">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>218</v>
+      </c>
+      <c r="F168" t="s">
+        <v>39</v>
+      </c>
+      <c r="G168" t="s">
+        <v>103</v>
+      </c>
+      <c r="H168" t="s">
+        <v>41</v>
+      </c>
+      <c r="I168" t="s">
+        <v>40</v>
+      </c>
+      <c r="J168">
+        <v>10</v>
+      </c>
+      <c r="L168" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>218</v>
+      </c>
+      <c r="F169" t="s">
+        <v>87</v>
+      </c>
+      <c r="G169" t="s">
+        <v>108</v>
+      </c>
+      <c r="H169" t="s">
+        <v>89</v>
+      </c>
+      <c r="I169" t="s">
+        <v>90</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>219</v>
+      </c>
+      <c r="F170" t="s">
+        <v>220</v>
+      </c>
+      <c r="G170" t="s">
+        <v>81</v>
+      </c>
+      <c r="H170" t="s">
+        <v>221</v>
+      </c>
+      <c r="I170" t="s">
+        <v>222</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="L170" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>219</v>
+      </c>
+      <c r="F171" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" t="s">
+        <v>42</v>
+      </c>
+      <c r="H171" t="s">
+        <v>41</v>
+      </c>
+      <c r="I171" t="s">
+        <v>40</v>
+      </c>
+      <c r="J171">
+        <v>9</v>
+      </c>
+      <c r="L171" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>219</v>
+      </c>
+      <c r="F172" t="s">
+        <v>87</v>
+      </c>
+      <c r="G172" t="s">
+        <v>88</v>
+      </c>
+      <c r="H172" t="s">
+        <v>89</v>
+      </c>
+      <c r="I172" t="s">
+        <v>90</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>44179</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C173" s="7">
+        <v>1</v>
+      </c>
+      <c r="D173" s="8">
+        <v>13</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J173" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>223</v>
+      </c>
+      <c r="F174" t="s">
+        <v>224</v>
+      </c>
+      <c r="G174" t="s">
+        <v>117</v>
+      </c>
+      <c r="H174" t="s">
+        <v>225</v>
+      </c>
+      <c r="I174" t="s">
+        <v>226</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+      <c r="L174" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C175" s="4">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
+        <v>223</v>
+      </c>
+      <c r="F175" t="s">
+        <v>220</v>
+      </c>
+      <c r="G175" t="s">
+        <v>81</v>
+      </c>
+      <c r="H175" t="s">
+        <v>221</v>
+      </c>
+      <c r="I175" t="s">
+        <v>222</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" s="4">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>223</v>
+      </c>
+      <c r="F176" t="s">
+        <v>87</v>
+      </c>
+      <c r="G176" t="s">
+        <v>88</v>
+      </c>
+      <c r="H176" t="s">
+        <v>89</v>
+      </c>
+      <c r="I176" t="s">
+        <v>90</v>
+      </c>
+      <c r="J176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177" s="4">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s">
+        <v>223</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C178" s="4">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s">
+        <v>223</v>
+      </c>
+      <c r="F178" t="s">
+        <v>39</v>
+      </c>
+      <c r="G178" t="s">
+        <v>103</v>
+      </c>
+      <c r="H178" t="s">
+        <v>41</v>
+      </c>
+      <c r="I178" t="s">
+        <v>40</v>
+      </c>
+      <c r="J178">
+        <v>20</v>
+      </c>
+      <c r="L178" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179" s="4">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>15</v>
+      </c>
+      <c r="E179" t="s">
+        <v>227</v>
+      </c>
+      <c r="F179" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" t="s">
+        <v>103</v>
+      </c>
+      <c r="H179" t="s">
+        <v>41</v>
+      </c>
+      <c r="I179" t="s">
+        <v>40</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>87</v>
+      </c>
+      <c r="G180" t="s">
+        <v>88</v>
+      </c>
+      <c r="H180" t="s">
+        <v>89</v>
+      </c>
+      <c r="I180" t="s">
+        <v>228</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>224</v>
+      </c>
+      <c r="G181" t="s">
+        <v>117</v>
+      </c>
+      <c r="H181" t="s">
+        <v>225</v>
+      </c>
+      <c r="I181" t="s">
+        <v>229</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>220</v>
+      </c>
+      <c r="G182" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" t="s">
+        <v>221</v>
+      </c>
+      <c r="I182" t="s">
+        <v>222</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K193" s="8"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="O193" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="267">
   <si>
     <t>date</t>
   </si>
@@ -715,6 +715,108 @@
   </si>
   <si>
     <t xml:space="preserve">Haliocheres sp. </t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_021.png</t>
+  </si>
+  <si>
+    <t>Haliocheres bivittatus</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR0199.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_006.png</t>
+  </si>
+  <si>
+    <t>Haemulon charbonarium</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_007.png</t>
+  </si>
+  <si>
+    <t>Lujanus apodus</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_018.png</t>
+  </si>
+  <si>
+    <t>Scarus taeniopterus</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_019.png</t>
+  </si>
+  <si>
+    <t>Doctorfish</t>
+  </si>
+  <si>
+    <t>chirurgus</t>
+  </si>
+  <si>
+    <t>Acanthurus chirurgus</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_021.png</t>
+  </si>
+  <si>
+    <t>Princess Parrotfish</t>
+  </si>
+  <si>
+    <t>Striped Parrotfish</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_022.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarus </t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR0198.MP4_026.png</t>
   </si>
 </sst>
 </file>
@@ -1065,11 +1167,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W193"/>
+  <dimension ref="A1:W267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L196" sqref="L196"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A264" sqref="A264:E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7049,13 +7151,28 @@
         <v>40</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L179" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C180" s="4">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>15</v>
+      </c>
+      <c r="E180" t="s">
+        <v>227</v>
+      </c>
       <c r="F180" t="s">
         <v>87</v>
       </c>
@@ -7073,6 +7190,21 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C181" s="4">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>227</v>
+      </c>
       <c r="F181" t="s">
         <v>224</v>
       </c>
@@ -7093,6 +7225,21 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>15</v>
+      </c>
+      <c r="E182" t="s">
+        <v>227</v>
+      </c>
       <c r="F182" t="s">
         <v>220</v>
       </c>
@@ -7109,7 +7256,375 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C183" s="4">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>15</v>
+      </c>
+      <c r="E183" t="s">
+        <v>227</v>
+      </c>
+      <c r="F183" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" t="s">
+        <v>103</v>
+      </c>
+      <c r="H183" t="s">
+        <v>41</v>
+      </c>
+      <c r="I183" t="s">
+        <v>40</v>
+      </c>
+      <c r="J183">
+        <v>7</v>
+      </c>
+      <c r="L183" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="4">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>233</v>
+      </c>
+      <c r="F184" t="s">
+        <v>39</v>
+      </c>
+      <c r="G184" t="s">
+        <v>103</v>
+      </c>
+      <c r="H184" t="s">
+        <v>41</v>
+      </c>
+      <c r="I184" t="s">
+        <v>40</v>
+      </c>
+      <c r="J184">
+        <v>5</v>
+      </c>
+      <c r="L184" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185" s="4">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>16</v>
+      </c>
+      <c r="E185" t="s">
+        <v>233</v>
+      </c>
+      <c r="F185" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" t="s">
+        <v>103</v>
+      </c>
+      <c r="H185" t="s">
+        <v>41</v>
+      </c>
+      <c r="I185" t="s">
+        <v>40</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186" s="4">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>16</v>
+      </c>
+      <c r="E186" t="s">
+        <v>233</v>
+      </c>
+      <c r="F186" t="s">
+        <v>220</v>
+      </c>
+      <c r="G186" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s">
+        <v>221</v>
+      </c>
+      <c r="I186" t="s">
+        <v>222</v>
+      </c>
+      <c r="J186">
+        <v>3</v>
+      </c>
+      <c r="L186" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>16</v>
+      </c>
+      <c r="E187" t="s">
+        <v>233</v>
+      </c>
+      <c r="F187" t="s">
+        <v>230</v>
+      </c>
+      <c r="G187" t="s">
+        <v>231</v>
+      </c>
+      <c r="H187" t="s">
+        <v>210</v>
+      </c>
+      <c r="I187" t="s">
+        <v>232</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" s="4">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>16</v>
+      </c>
+      <c r="E188" t="s">
+        <v>233</v>
+      </c>
+      <c r="F188" t="s">
+        <v>129</v>
+      </c>
+      <c r="G188" t="s">
+        <v>231</v>
+      </c>
+      <c r="H188" t="s">
+        <v>131</v>
+      </c>
+      <c r="I188" t="s">
+        <v>234</v>
+      </c>
+      <c r="J188">
+        <v>3</v>
+      </c>
+      <c r="L188" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>16</v>
+      </c>
+      <c r="E189" t="s">
+        <v>233</v>
+      </c>
+      <c r="F189" t="s">
+        <v>174</v>
+      </c>
+      <c r="G189" t="s">
+        <v>175</v>
+      </c>
+      <c r="H189" t="s">
+        <v>176</v>
+      </c>
+      <c r="I189" t="s">
+        <v>177</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>17</v>
+      </c>
+      <c r="E190" t="s">
+        <v>235</v>
+      </c>
+      <c r="F190" t="s">
+        <v>174</v>
+      </c>
+      <c r="G190" t="s">
+        <v>175</v>
+      </c>
+      <c r="H190" t="s">
+        <v>176</v>
+      </c>
+      <c r="I190" t="s">
+        <v>177</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" s="4">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>18</v>
+      </c>
+      <c r="E191" t="s">
+        <v>236</v>
+      </c>
+      <c r="F191" t="s">
+        <v>174</v>
+      </c>
+      <c r="G191" t="s">
+        <v>175</v>
+      </c>
+      <c r="H191" t="s">
+        <v>176</v>
+      </c>
+      <c r="I191" t="s">
+        <v>177</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192" s="4">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>237</v>
+      </c>
+      <c r="F192" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" t="s">
+        <v>103</v>
+      </c>
+      <c r="H192" t="s">
+        <v>41</v>
+      </c>
+      <c r="I192" t="s">
+        <v>40</v>
+      </c>
+      <c r="J192">
+        <v>2</v>
+      </c>
+      <c r="L192" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C193" s="4">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>237</v>
+      </c>
+      <c r="F193" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193" t="s">
+        <v>47</v>
+      </c>
+      <c r="H193" t="s">
+        <v>26</v>
+      </c>
+      <c r="I193" t="s">
+        <v>27</v>
+      </c>
+      <c r="J193">
+        <v>4</v>
+      </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -7117,6 +7632,2491 @@
         <v>232</v>
       </c>
       <c r="O193" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C194" s="4">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>237</v>
+      </c>
+      <c r="F194" t="s">
+        <v>190</v>
+      </c>
+      <c r="G194" t="s">
+        <v>150</v>
+      </c>
+      <c r="H194" t="s">
+        <v>192</v>
+      </c>
+      <c r="I194" t="s">
+        <v>191</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C195" s="4">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>237</v>
+      </c>
+      <c r="F195" t="s">
+        <v>146</v>
+      </c>
+      <c r="G195" t="s">
+        <v>21</v>
+      </c>
+      <c r="H195" t="s">
+        <v>147</v>
+      </c>
+      <c r="I195" t="s">
+        <v>148</v>
+      </c>
+      <c r="J195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" s="4">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>237</v>
+      </c>
+      <c r="F196" t="s">
+        <v>51</v>
+      </c>
+      <c r="G196" t="s">
+        <v>21</v>
+      </c>
+      <c r="H196" t="s">
+        <v>52</v>
+      </c>
+      <c r="I196" t="s">
+        <v>238</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" s="4">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>237</v>
+      </c>
+      <c r="F197" t="s">
+        <v>29</v>
+      </c>
+      <c r="G197" t="s">
+        <v>31</v>
+      </c>
+      <c r="H197" t="s">
+        <v>28</v>
+      </c>
+      <c r="I197" t="s">
+        <v>30</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="4">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198" t="s">
+        <v>239</v>
+      </c>
+      <c r="F198" t="s">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>21</v>
+      </c>
+      <c r="H198" t="s">
+        <v>26</v>
+      </c>
+      <c r="I198" t="s">
+        <v>27</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C199" s="4">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
+        <v>239</v>
+      </c>
+      <c r="F199" t="s">
+        <v>146</v>
+      </c>
+      <c r="G199" t="s">
+        <v>21</v>
+      </c>
+      <c r="H199" t="s">
+        <v>147</v>
+      </c>
+      <c r="I199" t="s">
+        <v>148</v>
+      </c>
+      <c r="J199">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C200" s="4">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200" t="s">
+        <v>239</v>
+      </c>
+      <c r="F200" t="s">
+        <v>190</v>
+      </c>
+      <c r="G200" t="s">
+        <v>150</v>
+      </c>
+      <c r="H200" t="s">
+        <v>192</v>
+      </c>
+      <c r="I200" t="s">
+        <v>240</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C201" s="4">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>239</v>
+      </c>
+      <c r="F201" t="s">
+        <v>51</v>
+      </c>
+      <c r="G201" t="s">
+        <v>21</v>
+      </c>
+      <c r="H201" t="s">
+        <v>52</v>
+      </c>
+      <c r="I201" t="s">
+        <v>53</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C202" s="4">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202" t="s">
+        <v>241</v>
+      </c>
+      <c r="F202" t="s">
+        <v>25</v>
+      </c>
+      <c r="G202" t="s">
+        <v>21</v>
+      </c>
+      <c r="H202" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" t="s">
+        <v>27</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C203" s="4">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>241</v>
+      </c>
+      <c r="F203" t="s">
+        <v>146</v>
+      </c>
+      <c r="G203" t="s">
+        <v>21</v>
+      </c>
+      <c r="H203" t="s">
+        <v>147</v>
+      </c>
+      <c r="I203" t="s">
+        <v>148</v>
+      </c>
+      <c r="J203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C204" s="4">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+      <c r="E204" t="s">
+        <v>241</v>
+      </c>
+      <c r="F204" t="s">
+        <v>51</v>
+      </c>
+      <c r="G204" t="s">
+        <v>21</v>
+      </c>
+      <c r="H204" t="s">
+        <v>52</v>
+      </c>
+      <c r="I204" t="s">
+        <v>53</v>
+      </c>
+      <c r="J204">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" s="4">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+      <c r="E205" t="s">
+        <v>241</v>
+      </c>
+      <c r="F205" t="s">
+        <v>190</v>
+      </c>
+      <c r="G205" t="s">
+        <v>150</v>
+      </c>
+      <c r="H205" t="s">
+        <v>192</v>
+      </c>
+      <c r="I205" t="s">
+        <v>191</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C206" s="4">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>241</v>
+      </c>
+      <c r="F206" t="s">
+        <v>87</v>
+      </c>
+      <c r="G206" t="s">
+        <v>88</v>
+      </c>
+      <c r="H206" t="s">
+        <v>89</v>
+      </c>
+      <c r="I206" t="s">
+        <v>90</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C207" s="4">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207" t="s">
+        <v>242</v>
+      </c>
+      <c r="F207" t="s">
+        <v>25</v>
+      </c>
+      <c r="G207" t="s">
+        <v>21</v>
+      </c>
+      <c r="H207" t="s">
+        <v>26</v>
+      </c>
+      <c r="I207" t="s">
+        <v>27</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C208" s="4">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>4</v>
+      </c>
+      <c r="E208" t="s">
+        <v>242</v>
+      </c>
+      <c r="F208" t="s">
+        <v>51</v>
+      </c>
+      <c r="G208" t="s">
+        <v>21</v>
+      </c>
+      <c r="H208" t="s">
+        <v>52</v>
+      </c>
+      <c r="I208" t="s">
+        <v>53</v>
+      </c>
+      <c r="J208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C209" s="4">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>4</v>
+      </c>
+      <c r="E209" t="s">
+        <v>242</v>
+      </c>
+      <c r="F209" t="s">
+        <v>146</v>
+      </c>
+      <c r="G209" t="s">
+        <v>21</v>
+      </c>
+      <c r="H209" t="s">
+        <v>147</v>
+      </c>
+      <c r="I209" t="s">
+        <v>148</v>
+      </c>
+      <c r="J209">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C210" s="4">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>243</v>
+      </c>
+      <c r="F210" t="s">
+        <v>51</v>
+      </c>
+      <c r="G210" t="s">
+        <v>21</v>
+      </c>
+      <c r="H210" t="s">
+        <v>52</v>
+      </c>
+      <c r="I210" t="s">
+        <v>53</v>
+      </c>
+      <c r="J210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C211" s="4">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>243</v>
+      </c>
+      <c r="F211" t="s">
+        <v>39</v>
+      </c>
+      <c r="G211" t="s">
+        <v>103</v>
+      </c>
+      <c r="H211" t="s">
+        <v>41</v>
+      </c>
+      <c r="I211" t="s">
+        <v>40</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C212" s="4">
+        <v>2</v>
+      </c>
+      <c r="D212">
+        <v>6</v>
+      </c>
+      <c r="E212" t="s">
+        <v>244</v>
+      </c>
+      <c r="F212" t="s">
+        <v>39</v>
+      </c>
+      <c r="G212" t="s">
+        <v>103</v>
+      </c>
+      <c r="H212" t="s">
+        <v>41</v>
+      </c>
+      <c r="I212" t="s">
+        <v>40</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C213" s="4">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213" t="s">
+        <v>244</v>
+      </c>
+      <c r="F213" t="s">
+        <v>87</v>
+      </c>
+      <c r="G213" t="s">
+        <v>88</v>
+      </c>
+      <c r="H213" t="s">
+        <v>89</v>
+      </c>
+      <c r="I213" t="s">
+        <v>90</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C214" s="4">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>6</v>
+      </c>
+      <c r="E214" t="s">
+        <v>244</v>
+      </c>
+      <c r="F214" t="s">
+        <v>51</v>
+      </c>
+      <c r="G214" t="s">
+        <v>21</v>
+      </c>
+      <c r="H214" t="s">
+        <v>52</v>
+      </c>
+      <c r="I214" t="s">
+        <v>53</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C215" s="4">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>7</v>
+      </c>
+      <c r="E215" t="s">
+        <v>245</v>
+      </c>
+      <c r="F215" t="s">
+        <v>39</v>
+      </c>
+      <c r="G215" t="s">
+        <v>103</v>
+      </c>
+      <c r="H215" t="s">
+        <v>41</v>
+      </c>
+      <c r="I215" t="s">
+        <v>40</v>
+      </c>
+      <c r="J215">
+        <v>17</v>
+      </c>
+      <c r="K215" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C216" s="4">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>7</v>
+      </c>
+      <c r="E216" t="s">
+        <v>245</v>
+      </c>
+      <c r="F216" t="s">
+        <v>113</v>
+      </c>
+      <c r="G216" t="s">
+        <v>33</v>
+      </c>
+      <c r="H216" t="s">
+        <v>114</v>
+      </c>
+      <c r="I216" t="s">
+        <v>115</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C217" s="4">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>7</v>
+      </c>
+      <c r="E217" t="s">
+        <v>245</v>
+      </c>
+      <c r="F217" t="s">
+        <v>87</v>
+      </c>
+      <c r="G217" t="s">
+        <v>88</v>
+      </c>
+      <c r="H217" t="s">
+        <v>89</v>
+      </c>
+      <c r="I217" t="s">
+        <v>90</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C218" s="4">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>8</v>
+      </c>
+      <c r="E218" t="s">
+        <v>246</v>
+      </c>
+      <c r="F218" t="s">
+        <v>39</v>
+      </c>
+      <c r="G218" t="s">
+        <v>103</v>
+      </c>
+      <c r="H218" t="s">
+        <v>41</v>
+      </c>
+      <c r="I218" t="s">
+        <v>40</v>
+      </c>
+      <c r="J218">
+        <v>11</v>
+      </c>
+      <c r="K218" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C219" s="4">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>247</v>
+      </c>
+      <c r="F219" t="s">
+        <v>39</v>
+      </c>
+      <c r="G219" t="s">
+        <v>42</v>
+      </c>
+      <c r="H219" t="s">
+        <v>41</v>
+      </c>
+      <c r="I219" t="s">
+        <v>40</v>
+      </c>
+      <c r="J219">
+        <v>16</v>
+      </c>
+      <c r="K219" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C220" s="4">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>247</v>
+      </c>
+      <c r="F220" t="s">
+        <v>87</v>
+      </c>
+      <c r="G220" t="s">
+        <v>88</v>
+      </c>
+      <c r="H220" t="s">
+        <v>89</v>
+      </c>
+      <c r="I220" t="s">
+        <v>90</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C221" s="4">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>10</v>
+      </c>
+      <c r="E221" t="s">
+        <v>248</v>
+      </c>
+      <c r="F221" t="s">
+        <v>87</v>
+      </c>
+      <c r="G221" t="s">
+        <v>108</v>
+      </c>
+      <c r="H221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I221" t="s">
+        <v>90</v>
+      </c>
+      <c r="J221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C222" s="4">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
+        <v>248</v>
+      </c>
+      <c r="F222" t="s">
+        <v>39</v>
+      </c>
+      <c r="G222" t="s">
+        <v>103</v>
+      </c>
+      <c r="H222" t="s">
+        <v>41</v>
+      </c>
+      <c r="I222" t="s">
+        <v>40</v>
+      </c>
+      <c r="J222">
+        <v>3</v>
+      </c>
+      <c r="K222" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C223" s="4">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>11</v>
+      </c>
+      <c r="E223" t="s">
+        <v>249</v>
+      </c>
+      <c r="F223" t="s">
+        <v>39</v>
+      </c>
+      <c r="G223" t="s">
+        <v>103</v>
+      </c>
+      <c r="H223" t="s">
+        <v>41</v>
+      </c>
+      <c r="I223" t="s">
+        <v>40</v>
+      </c>
+      <c r="J223">
+        <v>3</v>
+      </c>
+      <c r="K223" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C224" s="4">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>250</v>
+      </c>
+      <c r="F224" t="s">
+        <v>39</v>
+      </c>
+      <c r="G224" t="s">
+        <v>103</v>
+      </c>
+      <c r="H224" t="s">
+        <v>41</v>
+      </c>
+      <c r="I224" t="s">
+        <v>40</v>
+      </c>
+      <c r="J224">
+        <v>5</v>
+      </c>
+      <c r="K224" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C225" s="4">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>250</v>
+      </c>
+      <c r="F225" t="s">
+        <v>87</v>
+      </c>
+      <c r="G225" t="s">
+        <v>88</v>
+      </c>
+      <c r="H225" t="s">
+        <v>89</v>
+      </c>
+      <c r="I225" t="s">
+        <v>90</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C226" s="4">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>251</v>
+      </c>
+      <c r="F226" t="s">
+        <v>39</v>
+      </c>
+      <c r="G226" t="s">
+        <v>103</v>
+      </c>
+      <c r="H226" t="s">
+        <v>41</v>
+      </c>
+      <c r="I226" t="s">
+        <v>40</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="K226" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C227" s="4">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>251</v>
+      </c>
+      <c r="F227" t="s">
+        <v>259</v>
+      </c>
+      <c r="G227" t="s">
+        <v>81</v>
+      </c>
+      <c r="H227" t="s">
+        <v>221</v>
+      </c>
+      <c r="I227" t="s">
+        <v>252</v>
+      </c>
+      <c r="J227">
+        <v>2</v>
+      </c>
+      <c r="K227" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C228" s="4">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>14</v>
+      </c>
+      <c r="E228" t="s">
+        <v>253</v>
+      </c>
+      <c r="F228" t="s">
+        <v>39</v>
+      </c>
+      <c r="G228" t="s">
+        <v>103</v>
+      </c>
+      <c r="H228" t="s">
+        <v>41</v>
+      </c>
+      <c r="I228" t="s">
+        <v>40</v>
+      </c>
+      <c r="J228">
+        <v>9</v>
+      </c>
+      <c r="K228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C229" s="4">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>14</v>
+      </c>
+      <c r="E229" t="s">
+        <v>253</v>
+      </c>
+      <c r="F229" t="s">
+        <v>259</v>
+      </c>
+      <c r="G229" t="s">
+        <v>81</v>
+      </c>
+      <c r="H229" t="s">
+        <v>221</v>
+      </c>
+      <c r="I229" t="s">
+        <v>252</v>
+      </c>
+      <c r="J229">
+        <v>2</v>
+      </c>
+      <c r="K229" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C230" s="4">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>14</v>
+      </c>
+      <c r="E230" t="s">
+        <v>253</v>
+      </c>
+      <c r="F230" t="s">
+        <v>254</v>
+      </c>
+      <c r="G230" t="s">
+        <v>175</v>
+      </c>
+      <c r="H230" t="s">
+        <v>255</v>
+      </c>
+      <c r="I230" t="s">
+        <v>256</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C231" s="4">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>15</v>
+      </c>
+      <c r="E231" t="s">
+        <v>257</v>
+      </c>
+      <c r="F231" t="s">
+        <v>259</v>
+      </c>
+      <c r="G231" t="s">
+        <v>81</v>
+      </c>
+      <c r="H231" t="s">
+        <v>221</v>
+      </c>
+      <c r="I231" t="s">
+        <v>252</v>
+      </c>
+      <c r="J231">
+        <v>2</v>
+      </c>
+      <c r="K231" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C232" s="4">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>15</v>
+      </c>
+      <c r="E232" t="s">
+        <v>257</v>
+      </c>
+      <c r="F232" t="s">
+        <v>39</v>
+      </c>
+      <c r="G232" t="s">
+        <v>103</v>
+      </c>
+      <c r="H232" t="s">
+        <v>41</v>
+      </c>
+      <c r="I232" t="s">
+        <v>40</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C233" s="4">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>15</v>
+      </c>
+      <c r="E233" t="s">
+        <v>257</v>
+      </c>
+      <c r="F233" t="s">
+        <v>39</v>
+      </c>
+      <c r="G233" t="s">
+        <v>103</v>
+      </c>
+      <c r="H233" t="s">
+        <v>41</v>
+      </c>
+      <c r="I233" t="s">
+        <v>40</v>
+      </c>
+      <c r="J233">
+        <v>12</v>
+      </c>
+      <c r="K233" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C234" s="4">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>15</v>
+      </c>
+      <c r="E234" t="s">
+        <v>257</v>
+      </c>
+      <c r="F234" t="s">
+        <v>51</v>
+      </c>
+      <c r="G234" t="s">
+        <v>21</v>
+      </c>
+      <c r="H234" t="s">
+        <v>52</v>
+      </c>
+      <c r="I234" t="s">
+        <v>53</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C235" s="4">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>15</v>
+      </c>
+      <c r="E235" t="s">
+        <v>257</v>
+      </c>
+      <c r="F235" t="s">
+        <v>87</v>
+      </c>
+      <c r="G235" t="s">
+        <v>88</v>
+      </c>
+      <c r="H235" t="s">
+        <v>89</v>
+      </c>
+      <c r="I235" t="s">
+        <v>90</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C236" s="4">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>15</v>
+      </c>
+      <c r="E236" t="s">
+        <v>257</v>
+      </c>
+      <c r="F236" t="s">
+        <v>129</v>
+      </c>
+      <c r="G236" t="s">
+        <v>231</v>
+      </c>
+      <c r="H236" t="s">
+        <v>131</v>
+      </c>
+      <c r="I236" t="s">
+        <v>234</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C237" s="4">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>15</v>
+      </c>
+      <c r="E237" t="s">
+        <v>257</v>
+      </c>
+      <c r="F237" t="s">
+        <v>254</v>
+      </c>
+      <c r="G237" t="s">
+        <v>175</v>
+      </c>
+      <c r="H237" t="s">
+        <v>255</v>
+      </c>
+      <c r="I237" t="s">
+        <v>256</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C238" s="4">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>16</v>
+      </c>
+      <c r="E238" t="s">
+        <v>258</v>
+      </c>
+      <c r="F238" t="s">
+        <v>39</v>
+      </c>
+      <c r="G238" t="s">
+        <v>103</v>
+      </c>
+      <c r="H238" t="s">
+        <v>41</v>
+      </c>
+      <c r="I238" t="s">
+        <v>40</v>
+      </c>
+      <c r="J238">
+        <v>10</v>
+      </c>
+      <c r="K238" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C239" s="4">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>16</v>
+      </c>
+      <c r="E239" t="s">
+        <v>258</v>
+      </c>
+      <c r="F239" t="s">
+        <v>259</v>
+      </c>
+      <c r="G239" t="s">
+        <v>81</v>
+      </c>
+      <c r="H239" t="s">
+        <v>221</v>
+      </c>
+      <c r="I239" t="s">
+        <v>252</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="K239" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C240" s="4">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>16</v>
+      </c>
+      <c r="E240" t="s">
+        <v>258</v>
+      </c>
+      <c r="F240" t="s">
+        <v>260</v>
+      </c>
+      <c r="G240" t="s">
+        <v>81</v>
+      </c>
+      <c r="H240" t="s">
+        <v>82</v>
+      </c>
+      <c r="I240" t="s">
+        <v>83</v>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="K240" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C241" s="4">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>17</v>
+      </c>
+      <c r="E241" t="s">
+        <v>261</v>
+      </c>
+      <c r="F241" t="s">
+        <v>259</v>
+      </c>
+      <c r="G241" t="s">
+        <v>262</v>
+      </c>
+      <c r="H241" t="s">
+        <v>221</v>
+      </c>
+      <c r="I241" t="s">
+        <v>252</v>
+      </c>
+      <c r="J241">
+        <v>3</v>
+      </c>
+      <c r="K241" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C242" s="4">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>17</v>
+      </c>
+      <c r="E242" t="s">
+        <v>261</v>
+      </c>
+      <c r="F242" t="s">
+        <v>260</v>
+      </c>
+      <c r="G242" t="s">
+        <v>81</v>
+      </c>
+      <c r="H242" t="s">
+        <v>82</v>
+      </c>
+      <c r="I242" t="s">
+        <v>83</v>
+      </c>
+      <c r="J242">
+        <v>2</v>
+      </c>
+      <c r="K242" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C243" s="4">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>17</v>
+      </c>
+      <c r="E243" t="s">
+        <v>261</v>
+      </c>
+      <c r="F243" t="s">
+        <v>39</v>
+      </c>
+      <c r="G243" t="s">
+        <v>42</v>
+      </c>
+      <c r="H243" t="s">
+        <v>41</v>
+      </c>
+      <c r="I243" t="s">
+        <v>40</v>
+      </c>
+      <c r="J243">
+        <v>8</v>
+      </c>
+      <c r="K243" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C244" s="4">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>17</v>
+      </c>
+      <c r="E244" t="s">
+        <v>261</v>
+      </c>
+      <c r="F244" t="s">
+        <v>129</v>
+      </c>
+      <c r="G244" t="s">
+        <v>231</v>
+      </c>
+      <c r="H244" t="s">
+        <v>131</v>
+      </c>
+      <c r="I244" t="s">
+        <v>234</v>
+      </c>
+      <c r="J244">
+        <v>4</v>
+      </c>
+      <c r="K244" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245" s="4">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>18</v>
+      </c>
+      <c r="E245" t="s">
+        <v>263</v>
+      </c>
+      <c r="F245" t="s">
+        <v>259</v>
+      </c>
+      <c r="G245" t="s">
+        <v>81</v>
+      </c>
+      <c r="H245" t="s">
+        <v>221</v>
+      </c>
+      <c r="I245" t="s">
+        <v>252</v>
+      </c>
+      <c r="J245">
+        <v>2</v>
+      </c>
+      <c r="K245" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C246" s="4">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>18</v>
+      </c>
+      <c r="E246" t="s">
+        <v>263</v>
+      </c>
+      <c r="F246" t="s">
+        <v>260</v>
+      </c>
+      <c r="G246" t="s">
+        <v>81</v>
+      </c>
+      <c r="H246" t="s">
+        <v>82</v>
+      </c>
+      <c r="I246" t="s">
+        <v>83</v>
+      </c>
+      <c r="J246">
+        <v>2</v>
+      </c>
+      <c r="K246" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C247" s="4">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>18</v>
+      </c>
+      <c r="E247" t="s">
+        <v>263</v>
+      </c>
+      <c r="F247" t="s">
+        <v>129</v>
+      </c>
+      <c r="G247" t="s">
+        <v>231</v>
+      </c>
+      <c r="H247" t="s">
+        <v>131</v>
+      </c>
+      <c r="I247" t="s">
+        <v>234</v>
+      </c>
+      <c r="J247">
+        <v>3</v>
+      </c>
+      <c r="K247" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C248" s="4">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>263</v>
+      </c>
+      <c r="F248" t="s">
+        <v>39</v>
+      </c>
+      <c r="G248" t="s">
+        <v>103</v>
+      </c>
+      <c r="H248" t="s">
+        <v>41</v>
+      </c>
+      <c r="I248" t="s">
+        <v>40</v>
+      </c>
+      <c r="J248">
+        <v>4</v>
+      </c>
+      <c r="K248" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C249" s="4">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>18</v>
+      </c>
+      <c r="E249" t="s">
+        <v>263</v>
+      </c>
+      <c r="F249" t="s">
+        <v>46</v>
+      </c>
+      <c r="G249" t="s">
+        <v>21</v>
+      </c>
+      <c r="H249" t="s">
+        <v>48</v>
+      </c>
+      <c r="I249" t="s">
+        <v>49</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C250" s="4">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>19</v>
+      </c>
+      <c r="E250" t="s">
+        <v>264</v>
+      </c>
+      <c r="F250" t="s">
+        <v>260</v>
+      </c>
+      <c r="G250" t="s">
+        <v>81</v>
+      </c>
+      <c r="H250" t="s">
+        <v>82</v>
+      </c>
+      <c r="I250" t="s">
+        <v>83</v>
+      </c>
+      <c r="J250">
+        <v>2</v>
+      </c>
+      <c r="K250" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C251" s="4">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>19</v>
+      </c>
+      <c r="E251" t="s">
+        <v>264</v>
+      </c>
+      <c r="F251" t="s">
+        <v>259</v>
+      </c>
+      <c r="G251" t="s">
+        <v>81</v>
+      </c>
+      <c r="H251" t="s">
+        <v>221</v>
+      </c>
+      <c r="I251" t="s">
+        <v>252</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C252" s="4">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>19</v>
+      </c>
+      <c r="E252" t="s">
+        <v>264</v>
+      </c>
+      <c r="F252" t="s">
+        <v>113</v>
+      </c>
+      <c r="G252" t="s">
+        <v>33</v>
+      </c>
+      <c r="H252" t="s">
+        <v>114</v>
+      </c>
+      <c r="I252" t="s">
+        <v>115</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C253" s="4">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>19</v>
+      </c>
+      <c r="E253" t="s">
+        <v>264</v>
+      </c>
+      <c r="F253" t="s">
+        <v>46</v>
+      </c>
+      <c r="G253" t="s">
+        <v>21</v>
+      </c>
+      <c r="H253" t="s">
+        <v>48</v>
+      </c>
+      <c r="I253" t="s">
+        <v>49</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C254" s="4">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>19</v>
+      </c>
+      <c r="E254" t="s">
+        <v>264</v>
+      </c>
+      <c r="F254" t="s">
+        <v>39</v>
+      </c>
+      <c r="G254" t="s">
+        <v>103</v>
+      </c>
+      <c r="H254" t="s">
+        <v>41</v>
+      </c>
+      <c r="I254" t="s">
+        <v>40</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C255" s="4">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>19</v>
+      </c>
+      <c r="E255" t="s">
+        <v>264</v>
+      </c>
+      <c r="F255" t="s">
+        <v>39</v>
+      </c>
+      <c r="G255" t="s">
+        <v>42</v>
+      </c>
+      <c r="H255" t="s">
+        <v>41</v>
+      </c>
+      <c r="I255" t="s">
+        <v>40</v>
+      </c>
+      <c r="J255">
+        <v>4</v>
+      </c>
+      <c r="K255" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C256" s="4">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>19</v>
+      </c>
+      <c r="E256" t="s">
+        <v>264</v>
+      </c>
+      <c r="F256" t="s">
+        <v>87</v>
+      </c>
+      <c r="G256" t="s">
+        <v>88</v>
+      </c>
+      <c r="H256" t="s">
+        <v>89</v>
+      </c>
+      <c r="I256" t="s">
+        <v>90</v>
+      </c>
+      <c r="J256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C257" s="4">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>20</v>
+      </c>
+      <c r="E257" t="s">
+        <v>265</v>
+      </c>
+      <c r="F257" t="s">
+        <v>259</v>
+      </c>
+      <c r="G257" t="s">
+        <v>81</v>
+      </c>
+      <c r="H257" t="s">
+        <v>221</v>
+      </c>
+      <c r="I257" t="s">
+        <v>252</v>
+      </c>
+      <c r="J257">
+        <v>7</v>
+      </c>
+      <c r="K257" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C258" s="4">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>20</v>
+      </c>
+      <c r="E258" t="s">
+        <v>265</v>
+      </c>
+      <c r="F258" t="s">
+        <v>39</v>
+      </c>
+      <c r="G258" t="s">
+        <v>103</v>
+      </c>
+      <c r="H258" t="s">
+        <v>41</v>
+      </c>
+      <c r="I258" t="s">
+        <v>40</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C259" s="4">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>20</v>
+      </c>
+      <c r="E259" t="s">
+        <v>265</v>
+      </c>
+      <c r="F259" t="s">
+        <v>39</v>
+      </c>
+      <c r="G259" t="s">
+        <v>42</v>
+      </c>
+      <c r="H259" t="s">
+        <v>41</v>
+      </c>
+      <c r="I259" t="s">
+        <v>40</v>
+      </c>
+      <c r="J259">
+        <v>5</v>
+      </c>
+      <c r="K259" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C260" s="4">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>265</v>
+      </c>
+      <c r="F260" t="s">
+        <v>129</v>
+      </c>
+      <c r="G260" t="s">
+        <v>231</v>
+      </c>
+      <c r="H260" t="s">
+        <v>131</v>
+      </c>
+      <c r="I260" t="s">
+        <v>234</v>
+      </c>
+      <c r="J260">
+        <v>2</v>
+      </c>
+      <c r="K260" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C261" s="4">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>20</v>
+      </c>
+      <c r="E261" t="s">
+        <v>265</v>
+      </c>
+      <c r="F261" t="s">
+        <v>113</v>
+      </c>
+      <c r="G261" t="s">
+        <v>33</v>
+      </c>
+      <c r="H261" t="s">
+        <v>114</v>
+      </c>
+      <c r="I261" t="s">
+        <v>115</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C262" s="4">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>265</v>
+      </c>
+      <c r="F262" t="s">
+        <v>87</v>
+      </c>
+      <c r="G262" t="s">
+        <v>88</v>
+      </c>
+      <c r="H262" t="s">
+        <v>89</v>
+      </c>
+      <c r="I262" t="s">
+        <v>90</v>
+      </c>
+      <c r="J262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C263" s="4">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>21</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+      <c r="F263" t="s">
+        <v>129</v>
+      </c>
+      <c r="G263" t="s">
+        <v>231</v>
+      </c>
+      <c r="H263" t="s">
+        <v>131</v>
+      </c>
+      <c r="I263" t="s">
+        <v>234</v>
+      </c>
+      <c r="J263">
+        <v>2</v>
+      </c>
+      <c r="K263" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C264" s="4">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>21</v>
+      </c>
+      <c r="E264" t="s">
+        <v>266</v>
+      </c>
+      <c r="F264" t="s">
+        <v>259</v>
+      </c>
+      <c r="G264" t="s">
+        <v>81</v>
+      </c>
+      <c r="H264" t="s">
+        <v>221</v>
+      </c>
+      <c r="I264" t="s">
+        <v>252</v>
+      </c>
+      <c r="J264">
+        <v>6</v>
+      </c>
+      <c r="K264" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C265" s="4">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>21</v>
+      </c>
+      <c r="E265" t="s">
+        <v>266</v>
+      </c>
+      <c r="F265" t="s">
+        <v>39</v>
+      </c>
+      <c r="G265" t="s">
+        <v>103</v>
+      </c>
+      <c r="H265" t="s">
+        <v>41</v>
+      </c>
+      <c r="I265" t="s">
+        <v>40</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C266" s="4">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>21</v>
+      </c>
+      <c r="E266" t="s">
+        <v>266</v>
+      </c>
+      <c r="F266" t="s">
+        <v>39</v>
+      </c>
+      <c r="G266" t="s">
+        <v>42</v>
+      </c>
+      <c r="H266" t="s">
+        <v>41</v>
+      </c>
+      <c r="I266" t="s">
+        <v>40</v>
+      </c>
+      <c r="J266">
+        <v>9</v>
+      </c>
+      <c r="K266" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C267" s="4">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>21</v>
+      </c>
+      <c r="E267" t="s">
+        <v>266</v>
+      </c>
+      <c r="F267" t="s">
+        <v>87</v>
+      </c>
+      <c r="G267" t="s">
+        <v>108</v>
+      </c>
+      <c r="H267" t="s">
+        <v>89</v>
+      </c>
+      <c r="I267" t="s">
+        <v>90</v>
+      </c>
+      <c r="J267">
         <v>1</v>
       </c>
     </row>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="397">
   <si>
     <t>date</t>
   </si>
@@ -711,18 +711,9 @@
     <t>Wrasse</t>
   </si>
   <si>
-    <t xml:space="preserve">Haliocheres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haliocheres sp. </t>
-  </si>
-  <si>
     <t>GOPR0199.MP4_021.png</t>
   </si>
   <si>
-    <t>Haliocheres bivittatus</t>
-  </si>
-  <si>
     <t>GOPR0199.MP4_022.png</t>
   </si>
   <si>
@@ -817,6 +808,405 @@
   </si>
   <si>
     <t>GOPR0198.MP4_026.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_011.png</t>
+  </si>
+  <si>
+    <t>Graysby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cephalopholis </t>
+  </si>
+  <si>
+    <t>cruentatus</t>
+  </si>
+  <si>
+    <t>Cephalopholis cruentatus</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_014.png</t>
+  </si>
+  <si>
+    <t>Threespot Damselfish</t>
+  </si>
+  <si>
+    <t>planifrons</t>
+  </si>
+  <si>
+    <t>Stegastes planifrons</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_015.png</t>
+  </si>
+  <si>
+    <t>Yellowhead Wrasse</t>
+  </si>
+  <si>
+    <t>Haliochoeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haliochoeres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haliochoeres sp. </t>
+  </si>
+  <si>
+    <t>garnoti</t>
+  </si>
+  <si>
+    <t>Haliochoeres garnoti</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_020.png</t>
+  </si>
+  <si>
+    <t>Chub</t>
+  </si>
+  <si>
+    <t>Kyphosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyphosus sp. </t>
+  </si>
+  <si>
+    <t>Redtail Parrotfish</t>
+  </si>
+  <si>
+    <t>chrysopterum</t>
+  </si>
+  <si>
+    <t>Sparisoma chrysopterum</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_021.png</t>
+  </si>
+  <si>
+    <t>Halichoeres garnoti</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_022.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrysopterum </t>
+  </si>
+  <si>
+    <t>Caeasar Grunt</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_025.png</t>
+  </si>
+  <si>
+    <t>Emerald Parrotfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicholsina </t>
+  </si>
+  <si>
+    <t>usta</t>
+  </si>
+  <si>
+    <t>Nicholsina usta</t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_026.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaetodon </t>
+  </si>
+  <si>
+    <t>GOPR0197.MP4_027.png</t>
+  </si>
+  <si>
+    <t>IC-U1</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_006.png</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_009.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromis </t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_010.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromis sp. </t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_012.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Chromis </t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_015.png</t>
+  </si>
+  <si>
+    <t>Helichoeres</t>
+  </si>
+  <si>
+    <t>Helichoeres bivitattus</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR0190.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_005.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_011.png</t>
+  </si>
+  <si>
+    <t>Brown Chromis</t>
+  </si>
+  <si>
+    <t>multilineata</t>
+  </si>
+  <si>
+    <t>Chromis multilineata</t>
+  </si>
+  <si>
+    <t>Blue Tang</t>
+  </si>
+  <si>
+    <t>coeruleus</t>
+  </si>
+  <si>
+    <t>Acanthurus coeruleus</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_013.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluehead </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassoma bifasciatum </t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR0189.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_014.png</t>
+  </si>
+  <si>
+    <t>Grunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemulon sp. </t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_016.png</t>
+  </si>
+  <si>
+    <t>Yellowtail Snapper</t>
+  </si>
+  <si>
+    <t>Ocyurus</t>
+  </si>
+  <si>
+    <t>Ocyrus chrysurus</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_017.png</t>
+  </si>
+  <si>
+    <t>Ocyrusus</t>
+  </si>
+  <si>
+    <t>Ocyrusus chrysurus</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR0188.MP4_026.png</t>
+  </si>
+  <si>
+    <t>IC-U2</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_005.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_006.png</t>
+  </si>
+  <si>
+    <t>Spotfin Butterflyfish</t>
+  </si>
+  <si>
+    <t>ocellatus</t>
+  </si>
+  <si>
+    <t>Chaetodon ocellatus</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_007.png</t>
+  </si>
+  <si>
+    <t>Schoolmaster snapper</t>
+  </si>
+  <si>
+    <t>Chaetodon coellatus</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_010.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acanthurus </t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR0193.MP4_018.png</t>
   </si>
 </sst>
 </file>
@@ -1167,11 +1557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W267"/>
+  <dimension ref="A1:W443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A264" sqref="A264:E267"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E443" sqref="E443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,8 +1572,9 @@
     <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="13" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
@@ -1227,10 +1618,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>44</v>
@@ -1457,7 +1848,7 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>73</v>
       </c>
       <c r="M7" t="s">
@@ -2077,7 +2468,7 @@
       <c r="J26">
         <v>8</v>
       </c>
-      <c r="L26" t="s">
+      <c r="K26" t="s">
         <v>73</v>
       </c>
       <c r="M26" t="s">
@@ -2147,7 +2538,7 @@
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="L28" t="s">
+      <c r="K28" t="s">
         <v>73</v>
       </c>
       <c r="M28" t="s">
@@ -2185,7 +2576,7 @@
       <c r="J29">
         <v>9</v>
       </c>
-      <c r="L29" t="s">
+      <c r="K29" t="s">
         <v>73</v>
       </c>
       <c r="M29" t="s">
@@ -2223,7 +2614,7 @@
       <c r="J30">
         <v>8</v>
       </c>
-      <c r="L30" t="s">
+      <c r="K30" t="s">
         <v>73</v>
       </c>
       <c r="M30" t="s">
@@ -2296,7 +2687,7 @@
       <c r="J32">
         <v>5</v>
       </c>
-      <c r="L32" t="s">
+      <c r="K32" t="s">
         <v>73</v>
       </c>
       <c r="M32" t="s">
@@ -2334,7 +2725,7 @@
       <c r="J33">
         <v>3</v>
       </c>
-      <c r="L33" t="s">
+      <c r="K33" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2861,7 +3252,7 @@
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="L49" t="s">
+      <c r="K49" t="s">
         <v>73</v>
       </c>
       <c r="M49" t="s">
@@ -2963,7 +3354,7 @@
       <c r="J52">
         <v>2</v>
       </c>
-      <c r="L52" t="s">
+      <c r="K52" t="s">
         <v>73</v>
       </c>
       <c r="M52" t="s">
@@ -3257,7 +3648,7 @@
       <c r="J61">
         <v>2</v>
       </c>
-      <c r="L61" t="s">
+      <c r="K61" t="s">
         <v>73</v>
       </c>
       <c r="M61" t="s">
@@ -3295,7 +3686,7 @@
       <c r="J62">
         <v>2</v>
       </c>
-      <c r="L62" t="s">
+      <c r="K62" t="s">
         <v>73</v>
       </c>
       <c r="M62" t="s">
@@ -3525,7 +3916,7 @@
       <c r="J69">
         <v>9</v>
       </c>
-      <c r="L69" t="s">
+      <c r="K69" t="s">
         <v>73</v>
       </c>
       <c r="M69" t="s">
@@ -3563,7 +3954,7 @@
       <c r="J70">
         <v>12</v>
       </c>
-      <c r="L70" t="s">
+      <c r="K70" t="s">
         <v>73</v>
       </c>
       <c r="M70" t="s">
@@ -3729,7 +4120,7 @@
       <c r="J75">
         <v>2</v>
       </c>
-      <c r="L75" t="s">
+      <c r="K75" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4414,7 +4805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44179</v>
       </c>
@@ -4446,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>44179</v>
       </c>
@@ -4478,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>44179</v>
       </c>
@@ -4510,7 +4901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>44179</v>
       </c>
@@ -4542,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>44179</v>
       </c>
@@ -4573,11 +4964,11 @@
       <c r="J101">
         <v>1</v>
       </c>
-      <c r="L101" t="s">
+      <c r="K101" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>44179</v>
       </c>
@@ -4609,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>44179</v>
       </c>
@@ -4641,7 +5032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>44179</v>
       </c>
@@ -4673,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>44179</v>
       </c>
@@ -4705,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>44179</v>
       </c>
@@ -4736,11 +5127,11 @@
       <c r="J106">
         <v>1</v>
       </c>
-      <c r="L106" t="s">
+      <c r="K106" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>44179</v>
       </c>
@@ -4772,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>44179</v>
       </c>
@@ -4803,11 +5194,11 @@
       <c r="J108">
         <v>1</v>
       </c>
-      <c r="L108" t="s">
+      <c r="K108" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>44179</v>
       </c>
@@ -4838,11 +5229,11 @@
       <c r="J109">
         <v>1</v>
       </c>
-      <c r="L109" t="s">
+      <c r="K109" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>44179</v>
       </c>
@@ -4874,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>44179</v>
       </c>
@@ -4905,11 +5296,11 @@
       <c r="J111">
         <v>2</v>
       </c>
-      <c r="L111" t="s">
+      <c r="K111" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>44179</v>
       </c>
@@ -4941,7 +5332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>44179</v>
       </c>
@@ -4973,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>44179</v>
       </c>
@@ -5004,11 +5395,11 @@
       <c r="J114">
         <v>2</v>
       </c>
-      <c r="L114" t="s">
+      <c r="K114" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>44179</v>
       </c>
@@ -5040,7 +5431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>44179</v>
       </c>
@@ -5072,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>44179</v>
       </c>
@@ -5104,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>44179</v>
       </c>
@@ -5136,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>44179</v>
       </c>
@@ -5167,11 +5558,11 @@
       <c r="J119">
         <v>1</v>
       </c>
-      <c r="L119" t="s">
+      <c r="K119" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>44179</v>
       </c>
@@ -5203,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>44179</v>
       </c>
@@ -5235,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>44179</v>
       </c>
@@ -5267,7 +5658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>44179</v>
       </c>
@@ -5298,11 +5689,11 @@
       <c r="J123">
         <v>1</v>
       </c>
-      <c r="L123" t="s">
+      <c r="K123" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>44179</v>
       </c>
@@ -5333,11 +5724,11 @@
       <c r="J124">
         <v>1</v>
       </c>
-      <c r="L124" t="s">
+      <c r="K124" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>44179</v>
       </c>
@@ -5368,11 +5759,11 @@
       <c r="J125">
         <v>7</v>
       </c>
-      <c r="L125" t="s">
+      <c r="K125" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>44179</v>
       </c>
@@ -5403,11 +5794,11 @@
       <c r="J126">
         <v>1</v>
       </c>
-      <c r="L126" t="s">
+      <c r="K126" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>44179</v>
       </c>
@@ -5438,11 +5829,11 @@
       <c r="J127">
         <v>10</v>
       </c>
-      <c r="L127" t="s">
+      <c r="K127" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>44179</v>
       </c>
@@ -5474,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>44179</v>
       </c>
@@ -5506,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>44179</v>
       </c>
@@ -5537,11 +5928,11 @@
       <c r="J130">
         <v>11</v>
       </c>
-      <c r="L130" t="s">
+      <c r="K130" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>44179</v>
       </c>
@@ -5572,11 +5963,11 @@
       <c r="J131">
         <v>1</v>
       </c>
-      <c r="L131" t="s">
+      <c r="K131" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>44179</v>
       </c>
@@ -5608,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44179</v>
       </c>
@@ -5640,7 +6031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44179</v>
       </c>
@@ -5672,7 +6063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44179</v>
       </c>
@@ -5704,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>44179</v>
       </c>
@@ -5735,11 +6126,11 @@
       <c r="J136">
         <v>5</v>
       </c>
-      <c r="L136" t="s">
+      <c r="K136" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>44179</v>
       </c>
@@ -5771,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>44179</v>
       </c>
@@ -5803,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>44179</v>
       </c>
@@ -5835,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>44179</v>
       </c>
@@ -5866,11 +6257,11 @@
       <c r="J140">
         <v>1</v>
       </c>
-      <c r="L140" t="s">
+      <c r="K140" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>44179</v>
       </c>
@@ -5902,7 +6293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>44179</v>
       </c>
@@ -5934,7 +6325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>44179</v>
       </c>
@@ -5966,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>44179</v>
       </c>
@@ -5998,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>44179</v>
       </c>
@@ -6030,7 +6421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>44179</v>
       </c>
@@ -6062,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>44179</v>
       </c>
@@ -6094,7 +6485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>44179</v>
       </c>
@@ -6126,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>44179</v>
       </c>
@@ -6158,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>44179</v>
       </c>
@@ -6190,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44179</v>
       </c>
@@ -6222,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44179</v>
       </c>
@@ -6254,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44179</v>
       </c>
@@ -6285,11 +6676,11 @@
       <c r="J153">
         <v>1</v>
       </c>
-      <c r="L153" t="s">
+      <c r="K153" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44179</v>
       </c>
@@ -6321,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44179</v>
       </c>
@@ -6352,11 +6743,11 @@
       <c r="J155">
         <v>3</v>
       </c>
-      <c r="L155" t="s">
+      <c r="K155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44179</v>
       </c>
@@ -6387,11 +6778,11 @@
       <c r="J156">
         <v>25</v>
       </c>
-      <c r="L156" t="s">
+      <c r="K156" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44179</v>
       </c>
@@ -6422,11 +6813,11 @@
       <c r="J157">
         <v>1</v>
       </c>
-      <c r="L157" t="s">
+      <c r="K157" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44179</v>
       </c>
@@ -6458,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>44179</v>
       </c>
@@ -6490,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>44179</v>
       </c>
@@ -6521,11 +6912,11 @@
       <c r="J160">
         <v>10</v>
       </c>
-      <c r="L160" t="s">
+      <c r="K160" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>44179</v>
       </c>
@@ -6556,11 +6947,11 @@
       <c r="J161">
         <v>2</v>
       </c>
-      <c r="L161" t="s">
+      <c r="K161" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>44179</v>
       </c>
@@ -6592,7 +6983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>44179</v>
       </c>
@@ -6624,7 +7015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44179</v>
       </c>
@@ -6656,7 +7047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>44179</v>
       </c>
@@ -6688,7 +7079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>44179</v>
       </c>
@@ -6720,7 +7111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>44179</v>
       </c>
@@ -6751,11 +7142,11 @@
       <c r="J167">
         <v>1</v>
       </c>
-      <c r="L167" t="s">
+      <c r="K167" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>44179</v>
       </c>
@@ -6786,11 +7177,11 @@
       <c r="J168">
         <v>10</v>
       </c>
-      <c r="L168" t="s">
+      <c r="K168" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>44179</v>
       </c>
@@ -6822,7 +7213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>44179</v>
       </c>
@@ -6853,11 +7244,11 @@
       <c r="J170">
         <v>2</v>
       </c>
-      <c r="L170" t="s">
+      <c r="K170" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>44179</v>
       </c>
@@ -6888,11 +7279,11 @@
       <c r="J171">
         <v>9</v>
       </c>
-      <c r="L171" t="s">
+      <c r="K171" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>44179</v>
       </c>
@@ -6924,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>44179</v>
       </c>
@@ -6944,19 +7335,19 @@
         <v>230</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H173" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="J173" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44179</v>
       </c>
@@ -6987,11 +7378,11 @@
       <c r="J174">
         <v>2</v>
       </c>
-      <c r="L174" t="s">
+      <c r="K174" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44179</v>
       </c>
@@ -7023,7 +7414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44179</v>
       </c>
@@ -7055,7 +7446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44179</v>
       </c>
@@ -7075,19 +7466,19 @@
         <v>230</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H177" s="8" t="s">
         <v>208</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="J177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44179</v>
       </c>
@@ -7118,11 +7509,11 @@
       <c r="J178">
         <v>20</v>
       </c>
-      <c r="L178" t="s">
+      <c r="K178" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44179</v>
       </c>
@@ -7153,11 +7544,11 @@
       <c r="J179">
         <v>2</v>
       </c>
-      <c r="L179" t="s">
+      <c r="K179" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44179</v>
       </c>
@@ -7189,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44179</v>
       </c>
@@ -7220,11 +7611,11 @@
       <c r="J181">
         <v>1</v>
       </c>
-      <c r="L181" t="s">
+      <c r="K181" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44179</v>
       </c>
@@ -7256,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>44179</v>
       </c>
@@ -7287,11 +7678,11 @@
       <c r="J183">
         <v>7</v>
       </c>
-      <c r="L183" t="s">
+      <c r="K183" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>44179</v>
       </c>
@@ -7305,7 +7696,7 @@
         <v>16</v>
       </c>
       <c r="E184" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F184" t="s">
         <v>39</v>
@@ -7322,11 +7713,11 @@
       <c r="J184">
         <v>5</v>
       </c>
-      <c r="L184" t="s">
+      <c r="K184" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>44179</v>
       </c>
@@ -7340,7 +7731,7 @@
         <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F185" t="s">
         <v>39</v>
@@ -7357,11 +7748,11 @@
       <c r="J185">
         <v>1</v>
       </c>
-      <c r="L185" t="s">
+      <c r="K185" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>44179</v>
       </c>
@@ -7375,7 +7766,7 @@
         <v>16</v>
       </c>
       <c r="E186" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F186" t="s">
         <v>220</v>
@@ -7392,11 +7783,11 @@
       <c r="J186">
         <v>3</v>
       </c>
-      <c r="L186" t="s">
+      <c r="K186" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>44179</v>
       </c>
@@ -7410,25 +7801,25 @@
         <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F187" t="s">
         <v>230</v>
       </c>
       <c r="G187" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H187" t="s">
         <v>210</v>
       </c>
       <c r="I187" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="J187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>44179</v>
       </c>
@@ -7442,28 +7833,28 @@
         <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F188" t="s">
         <v>129</v>
       </c>
       <c r="G188" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H188" t="s">
         <v>131</v>
       </c>
       <c r="I188" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="J188">
         <v>3</v>
       </c>
-      <c r="L188" t="s">
+      <c r="K188" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>44179</v>
       </c>
@@ -7477,7 +7868,7 @@
         <v>16</v>
       </c>
       <c r="E189" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F189" t="s">
         <v>174</v>
@@ -7495,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>44179</v>
       </c>
@@ -7509,7 +7900,7 @@
         <v>17</v>
       </c>
       <c r="E190" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F190" t="s">
         <v>174</v>
@@ -7527,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>44179</v>
       </c>
@@ -7541,7 +7932,7 @@
         <v>18</v>
       </c>
       <c r="E191" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F191" t="s">
         <v>174</v>
@@ -7559,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>44179</v>
       </c>
@@ -7573,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F192" t="s">
         <v>39</v>
@@ -7590,7 +7981,7 @@
       <c r="J192">
         <v>2</v>
       </c>
-      <c r="L192" t="s">
+      <c r="K192" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7608,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F193" t="s">
         <v>25</v>
@@ -7629,7 +8020,7 @@
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
       <c r="N193" s="8" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="O193" s="8">
         <v>1</v>
@@ -7649,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F194" t="s">
         <v>190</v>
@@ -7681,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F195" t="s">
         <v>146</v>
@@ -7713,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F196" t="s">
         <v>51</v>
@@ -7725,7 +8116,7 @@
         <v>52</v>
       </c>
       <c r="I196" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -7745,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F197" t="s">
         <v>29</v>
@@ -7777,7 +8168,7 @@
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F198" t="s">
         <v>25</v>
@@ -7809,7 +8200,7 @@
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F199" t="s">
         <v>146</v>
@@ -7841,7 +8232,7 @@
         <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F200" t="s">
         <v>190</v>
@@ -7853,7 +8244,7 @@
         <v>192</v>
       </c>
       <c r="I200" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -7873,7 +8264,7 @@
         <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F201" t="s">
         <v>51</v>
@@ -7905,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F202" t="s">
         <v>25</v>
@@ -7937,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F203" t="s">
         <v>146</v>
@@ -7969,7 +8360,7 @@
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F204" t="s">
         <v>51</v>
@@ -8001,7 +8392,7 @@
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F205" t="s">
         <v>190</v>
@@ -8033,7 +8424,7 @@
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F206" t="s">
         <v>87</v>
@@ -8065,7 +8456,7 @@
         <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F207" t="s">
         <v>25</v>
@@ -8097,7 +8488,7 @@
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F208" t="s">
         <v>51</v>
@@ -8129,7 +8520,7 @@
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F209" t="s">
         <v>146</v>
@@ -8161,7 +8552,7 @@
         <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F210" t="s">
         <v>51</v>
@@ -8193,7 +8584,7 @@
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F211" t="s">
         <v>39</v>
@@ -8228,7 +8619,7 @@
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F212" t="s">
         <v>39</v>
@@ -8263,7 +8654,7 @@
         <v>6</v>
       </c>
       <c r="E213" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F213" t="s">
         <v>87</v>
@@ -8295,7 +8686,7 @@
         <v>6</v>
       </c>
       <c r="E214" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F214" t="s">
         <v>51</v>
@@ -8327,7 +8718,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F215" t="s">
         <v>39</v>
@@ -8362,7 +8753,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F216" t="s">
         <v>113</v>
@@ -8394,7 +8785,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F217" t="s">
         <v>87</v>
@@ -8426,7 +8817,7 @@
         <v>8</v>
       </c>
       <c r="E218" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F218" t="s">
         <v>39</v>
@@ -8461,7 +8852,7 @@
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F219" t="s">
         <v>39</v>
@@ -8496,7 +8887,7 @@
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F220" t="s">
         <v>87</v>
@@ -8528,7 +8919,7 @@
         <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F221" t="s">
         <v>87</v>
@@ -8560,7 +8951,7 @@
         <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F222" t="s">
         <v>39</v>
@@ -8595,7 +8986,7 @@
         <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F223" t="s">
         <v>39</v>
@@ -8630,7 +9021,7 @@
         <v>12</v>
       </c>
       <c r="E224" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F224" t="s">
         <v>39</v>
@@ -8665,7 +9056,7 @@
         <v>12</v>
       </c>
       <c r="E225" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F225" t="s">
         <v>87</v>
@@ -8697,7 +9088,7 @@
         <v>13</v>
       </c>
       <c r="E226" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F226" t="s">
         <v>39</v>
@@ -8732,10 +9123,10 @@
         <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F227" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G227" t="s">
         <v>81</v>
@@ -8744,7 +9135,7 @@
         <v>221</v>
       </c>
       <c r="I227" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J227">
         <v>2</v>
@@ -8767,7 +9158,7 @@
         <v>14</v>
       </c>
       <c r="E228" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F228" t="s">
         <v>39</v>
@@ -8802,10 +9193,10 @@
         <v>14</v>
       </c>
       <c r="E229" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F229" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G229" t="s">
         <v>81</v>
@@ -8814,7 +9205,7 @@
         <v>221</v>
       </c>
       <c r="I229" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J229">
         <v>2</v>
@@ -8837,19 +9228,19 @@
         <v>14</v>
       </c>
       <c r="E230" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F230" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G230" t="s">
         <v>175</v>
       </c>
       <c r="H230" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I230" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J230">
         <v>1</v>
@@ -8869,10 +9260,10 @@
         <v>15</v>
       </c>
       <c r="E231" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F231" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G231" t="s">
         <v>81</v>
@@ -8881,7 +9272,7 @@
         <v>221</v>
       </c>
       <c r="I231" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J231">
         <v>2</v>
@@ -8904,7 +9295,7 @@
         <v>15</v>
       </c>
       <c r="E232" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F232" t="s">
         <v>39</v>
@@ -8939,7 +9330,7 @@
         <v>15</v>
       </c>
       <c r="E233" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F233" t="s">
         <v>39</v>
@@ -8974,7 +9365,7 @@
         <v>15</v>
       </c>
       <c r="E234" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F234" t="s">
         <v>51</v>
@@ -9006,7 +9397,7 @@
         <v>15</v>
       </c>
       <c r="E235" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F235" t="s">
         <v>87</v>
@@ -9038,19 +9429,19 @@
         <v>15</v>
       </c>
       <c r="E236" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F236" t="s">
         <v>129</v>
       </c>
       <c r="G236" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H236" t="s">
         <v>131</v>
       </c>
       <c r="I236" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -9073,19 +9464,19 @@
         <v>15</v>
       </c>
       <c r="E237" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F237" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G237" t="s">
         <v>175</v>
       </c>
       <c r="H237" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I237" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J237">
         <v>1</v>
@@ -9105,7 +9496,7 @@
         <v>16</v>
       </c>
       <c r="E238" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F238" t="s">
         <v>39</v>
@@ -9140,10 +9531,10 @@
         <v>16</v>
       </c>
       <c r="E239" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F239" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G239" t="s">
         <v>81</v>
@@ -9152,7 +9543,7 @@
         <v>221</v>
       </c>
       <c r="I239" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J239">
         <v>2</v>
@@ -9175,10 +9566,10 @@
         <v>16</v>
       </c>
       <c r="E240" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F240" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G240" t="s">
         <v>81</v>
@@ -9210,19 +9601,19 @@
         <v>17</v>
       </c>
       <c r="E241" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F241" t="s">
+        <v>256</v>
+      </c>
+      <c r="G241" t="s">
         <v>259</v>
-      </c>
-      <c r="G241" t="s">
-        <v>262</v>
       </c>
       <c r="H241" t="s">
         <v>221</v>
       </c>
       <c r="I241" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J241">
         <v>3</v>
@@ -9245,10 +9636,10 @@
         <v>17</v>
       </c>
       <c r="E242" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F242" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G242" t="s">
         <v>81</v>
@@ -9280,7 +9671,7 @@
         <v>17</v>
       </c>
       <c r="E243" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F243" t="s">
         <v>39</v>
@@ -9315,19 +9706,19 @@
         <v>17</v>
       </c>
       <c r="E244" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F244" t="s">
         <v>129</v>
       </c>
       <c r="G244" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H244" t="s">
         <v>131</v>
       </c>
       <c r="I244" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="J244">
         <v>4</v>
@@ -9350,10 +9741,10 @@
         <v>18</v>
       </c>
       <c r="E245" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F245" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G245" t="s">
         <v>81</v>
@@ -9362,7 +9753,7 @@
         <v>221</v>
       </c>
       <c r="I245" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J245">
         <v>2</v>
@@ -9385,10 +9776,10 @@
         <v>18</v>
       </c>
       <c r="E246" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F246" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G246" t="s">
         <v>81</v>
@@ -9420,19 +9811,19 @@
         <v>18</v>
       </c>
       <c r="E247" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F247" t="s">
         <v>129</v>
       </c>
       <c r="G247" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H247" t="s">
         <v>131</v>
       </c>
       <c r="I247" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="J247">
         <v>3</v>
@@ -9455,7 +9846,7 @@
         <v>18</v>
       </c>
       <c r="E248" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F248" t="s">
         <v>39</v>
@@ -9490,7 +9881,7 @@
         <v>18</v>
       </c>
       <c r="E249" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F249" t="s">
         <v>46</v>
@@ -9522,10 +9913,10 @@
         <v>19</v>
       </c>
       <c r="E250" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F250" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G250" t="s">
         <v>81</v>
@@ -9557,10 +9948,10 @@
         <v>19</v>
       </c>
       <c r="E251" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F251" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G251" t="s">
         <v>81</v>
@@ -9569,7 +9960,7 @@
         <v>221</v>
       </c>
       <c r="I251" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J251">
         <v>1</v>
@@ -9592,7 +9983,7 @@
         <v>19</v>
       </c>
       <c r="E252" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F252" t="s">
         <v>113</v>
@@ -9624,7 +10015,7 @@
         <v>19</v>
       </c>
       <c r="E253" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F253" t="s">
         <v>46</v>
@@ -9656,7 +10047,7 @@
         <v>19</v>
       </c>
       <c r="E254" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F254" t="s">
         <v>39</v>
@@ -9691,7 +10082,7 @@
         <v>19</v>
       </c>
       <c r="E255" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F255" t="s">
         <v>39</v>
@@ -9726,7 +10117,7 @@
         <v>19</v>
       </c>
       <c r="E256" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F256" t="s">
         <v>87</v>
@@ -9758,10 +10149,10 @@
         <v>20</v>
       </c>
       <c r="E257" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F257" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G257" t="s">
         <v>81</v>
@@ -9770,7 +10161,7 @@
         <v>221</v>
       </c>
       <c r="I257" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J257">
         <v>7</v>
@@ -9793,7 +10184,7 @@
         <v>20</v>
       </c>
       <c r="E258" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F258" t="s">
         <v>39</v>
@@ -9828,7 +10219,7 @@
         <v>20</v>
       </c>
       <c r="E259" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F259" t="s">
         <v>39</v>
@@ -9863,19 +10254,19 @@
         <v>20</v>
       </c>
       <c r="E260" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F260" t="s">
         <v>129</v>
       </c>
       <c r="G260" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H260" t="s">
         <v>131</v>
       </c>
       <c r="I260" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="J260">
         <v>2</v>
@@ -9898,7 +10289,7 @@
         <v>20</v>
       </c>
       <c r="E261" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F261" t="s">
         <v>113</v>
@@ -9930,7 +10321,7 @@
         <v>20</v>
       </c>
       <c r="E262" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F262" t="s">
         <v>87</v>
@@ -9962,19 +10353,19 @@
         <v>21</v>
       </c>
       <c r="E263" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F263" t="s">
         <v>129</v>
       </c>
       <c r="G263" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H263" t="s">
         <v>131</v>
       </c>
       <c r="I263" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="J263">
         <v>2</v>
@@ -9997,10 +10388,10 @@
         <v>21</v>
       </c>
       <c r="E264" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F264" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G264" t="s">
         <v>81</v>
@@ -10009,7 +10400,7 @@
         <v>221</v>
       </c>
       <c r="I264" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J264">
         <v>6</v>
@@ -10032,7 +10423,7 @@
         <v>21</v>
       </c>
       <c r="E265" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F265" t="s">
         <v>39</v>
@@ -10067,7 +10458,7 @@
         <v>21</v>
       </c>
       <c r="E266" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F266" t="s">
         <v>39</v>
@@ -10102,7 +10493,7 @@
         <v>21</v>
       </c>
       <c r="E267" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F267" t="s">
         <v>87</v>
@@ -10118,6 +10509,5872 @@
       </c>
       <c r="J267">
         <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C268" s="4">
+        <v>3</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>264</v>
+      </c>
+      <c r="F268" t="s">
+        <v>25</v>
+      </c>
+      <c r="G268" t="s">
+        <v>21</v>
+      </c>
+      <c r="H268" t="s">
+        <v>26</v>
+      </c>
+      <c r="I268" t="s">
+        <v>27</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C269" s="4">
+        <v>3</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269" t="s">
+        <v>265</v>
+      </c>
+      <c r="F269" t="s">
+        <v>25</v>
+      </c>
+      <c r="G269" t="s">
+        <v>21</v>
+      </c>
+      <c r="H269" t="s">
+        <v>26</v>
+      </c>
+      <c r="I269" t="s">
+        <v>27</v>
+      </c>
+      <c r="J269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C270" s="4">
+        <v>3</v>
+      </c>
+      <c r="D270">
+        <v>3</v>
+      </c>
+      <c r="E270" t="s">
+        <v>266</v>
+      </c>
+      <c r="F270" t="s">
+        <v>25</v>
+      </c>
+      <c r="G270" t="s">
+        <v>47</v>
+      </c>
+      <c r="H270" t="s">
+        <v>26</v>
+      </c>
+      <c r="I270" t="s">
+        <v>27</v>
+      </c>
+      <c r="J270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C271" s="4">
+        <v>3</v>
+      </c>
+      <c r="D271">
+        <v>3</v>
+      </c>
+      <c r="E271" t="s">
+        <v>266</v>
+      </c>
+      <c r="F271" t="s">
+        <v>146</v>
+      </c>
+      <c r="G271" t="s">
+        <v>21</v>
+      </c>
+      <c r="H271" t="s">
+        <v>147</v>
+      </c>
+      <c r="I271" t="s">
+        <v>148</v>
+      </c>
+      <c r="J271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C272" s="4">
+        <v>3</v>
+      </c>
+      <c r="D272">
+        <v>4</v>
+      </c>
+      <c r="E272" t="s">
+        <v>267</v>
+      </c>
+      <c r="F272" t="s">
+        <v>25</v>
+      </c>
+      <c r="G272" t="s">
+        <v>21</v>
+      </c>
+      <c r="H272" t="s">
+        <v>26</v>
+      </c>
+      <c r="I272" t="s">
+        <v>27</v>
+      </c>
+      <c r="J272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C273" s="4">
+        <v>3</v>
+      </c>
+      <c r="D273">
+        <v>4</v>
+      </c>
+      <c r="E273" t="s">
+        <v>267</v>
+      </c>
+      <c r="F273" t="s">
+        <v>146</v>
+      </c>
+      <c r="G273" t="s">
+        <v>21</v>
+      </c>
+      <c r="H273" t="s">
+        <v>147</v>
+      </c>
+      <c r="I273" t="s">
+        <v>148</v>
+      </c>
+      <c r="J273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C274" s="4">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>4</v>
+      </c>
+      <c r="E274" t="s">
+        <v>267</v>
+      </c>
+      <c r="F274" t="s">
+        <v>269</v>
+      </c>
+      <c r="G274" t="s">
+        <v>270</v>
+      </c>
+      <c r="H274" t="s">
+        <v>271</v>
+      </c>
+      <c r="I274" t="s">
+        <v>272</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C275" s="4">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>5</v>
+      </c>
+      <c r="E275" t="s">
+        <v>268</v>
+      </c>
+      <c r="F275" t="s">
+        <v>25</v>
+      </c>
+      <c r="G275" t="s">
+        <v>21</v>
+      </c>
+      <c r="H275" t="s">
+        <v>26</v>
+      </c>
+      <c r="I275" t="s">
+        <v>27</v>
+      </c>
+      <c r="J275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C276" s="4">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+      <c r="E276" t="s">
+        <v>268</v>
+      </c>
+      <c r="F276" t="s">
+        <v>146</v>
+      </c>
+      <c r="G276" t="s">
+        <v>21</v>
+      </c>
+      <c r="H276" t="s">
+        <v>147</v>
+      </c>
+      <c r="I276" t="s">
+        <v>148</v>
+      </c>
+      <c r="J276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C277" s="4">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+      <c r="E277" t="s">
+        <v>268</v>
+      </c>
+      <c r="F277" t="s">
+        <v>269</v>
+      </c>
+      <c r="G277" t="s">
+        <v>270</v>
+      </c>
+      <c r="H277" t="s">
+        <v>271</v>
+      </c>
+      <c r="I277" t="s">
+        <v>272</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C278" s="4">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>6</v>
+      </c>
+      <c r="E278" t="s">
+        <v>273</v>
+      </c>
+      <c r="F278" t="s">
+        <v>25</v>
+      </c>
+      <c r="G278" t="s">
+        <v>21</v>
+      </c>
+      <c r="H278" t="s">
+        <v>26</v>
+      </c>
+      <c r="I278" t="s">
+        <v>27</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C279" s="4">
+        <v>3</v>
+      </c>
+      <c r="D279">
+        <v>6</v>
+      </c>
+      <c r="E279" t="s">
+        <v>273</v>
+      </c>
+      <c r="F279" t="s">
+        <v>39</v>
+      </c>
+      <c r="G279" t="s">
+        <v>103</v>
+      </c>
+      <c r="H279" t="s">
+        <v>41</v>
+      </c>
+      <c r="I279" t="s">
+        <v>40</v>
+      </c>
+      <c r="J279">
+        <v>4</v>
+      </c>
+      <c r="K279" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C280" s="4">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>7</v>
+      </c>
+      <c r="E280" t="s">
+        <v>274</v>
+      </c>
+      <c r="F280" t="s">
+        <v>39</v>
+      </c>
+      <c r="G280" t="s">
+        <v>103</v>
+      </c>
+      <c r="H280" t="s">
+        <v>41</v>
+      </c>
+      <c r="I280" t="s">
+        <v>40</v>
+      </c>
+      <c r="J280">
+        <v>9</v>
+      </c>
+      <c r="K280" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C281" s="4">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>7</v>
+      </c>
+      <c r="E281" t="s">
+        <v>274</v>
+      </c>
+      <c r="F281" t="s">
+        <v>87</v>
+      </c>
+      <c r="G281" t="s">
+        <v>88</v>
+      </c>
+      <c r="H281" t="s">
+        <v>89</v>
+      </c>
+      <c r="I281" t="s">
+        <v>90</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C282" s="4">
+        <v>3</v>
+      </c>
+      <c r="D282">
+        <v>8</v>
+      </c>
+      <c r="E282" t="s">
+        <v>275</v>
+      </c>
+      <c r="F282" t="s">
+        <v>113</v>
+      </c>
+      <c r="G282" t="s">
+        <v>33</v>
+      </c>
+      <c r="H282" t="s">
+        <v>114</v>
+      </c>
+      <c r="I282" t="s">
+        <v>115</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C283" s="4">
+        <v>3</v>
+      </c>
+      <c r="D283">
+        <v>8</v>
+      </c>
+      <c r="E283" t="s">
+        <v>275</v>
+      </c>
+      <c r="F283" t="s">
+        <v>39</v>
+      </c>
+      <c r="G283" t="s">
+        <v>103</v>
+      </c>
+      <c r="H283" t="s">
+        <v>41</v>
+      </c>
+      <c r="I283" t="s">
+        <v>40</v>
+      </c>
+      <c r="J283">
+        <v>10</v>
+      </c>
+      <c r="K283" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C284" s="4">
+        <v>3</v>
+      </c>
+      <c r="D284">
+        <v>8</v>
+      </c>
+      <c r="E284" t="s">
+        <v>275</v>
+      </c>
+      <c r="F284" t="s">
+        <v>276</v>
+      </c>
+      <c r="G284" t="s">
+        <v>88</v>
+      </c>
+      <c r="H284" t="s">
+        <v>277</v>
+      </c>
+      <c r="I284" t="s">
+        <v>278</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C285" s="4">
+        <v>3</v>
+      </c>
+      <c r="D285">
+        <v>8</v>
+      </c>
+      <c r="E285" t="s">
+        <v>275</v>
+      </c>
+      <c r="F285" t="s">
+        <v>129</v>
+      </c>
+      <c r="G285" t="s">
+        <v>281</v>
+      </c>
+      <c r="H285" t="s">
+        <v>131</v>
+      </c>
+      <c r="I285" t="s">
+        <v>186</v>
+      </c>
+      <c r="J285">
+        <v>2</v>
+      </c>
+      <c r="K285" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C286" s="4">
+        <v>3</v>
+      </c>
+      <c r="D286">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>279</v>
+      </c>
+      <c r="F286" t="s">
+        <v>39</v>
+      </c>
+      <c r="G286" t="s">
+        <v>103</v>
+      </c>
+      <c r="H286" t="s">
+        <v>41</v>
+      </c>
+      <c r="I286" t="s">
+        <v>40</v>
+      </c>
+      <c r="J286">
+        <v>12</v>
+      </c>
+      <c r="K286" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C287" s="4">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>279</v>
+      </c>
+      <c r="F287" t="s">
+        <v>129</v>
+      </c>
+      <c r="G287" t="s">
+        <v>281</v>
+      </c>
+      <c r="H287" t="s">
+        <v>131</v>
+      </c>
+      <c r="I287" t="s">
+        <v>186</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C288" s="4">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>279</v>
+      </c>
+      <c r="F288" t="s">
+        <v>87</v>
+      </c>
+      <c r="G288" t="s">
+        <v>88</v>
+      </c>
+      <c r="H288" t="s">
+        <v>89</v>
+      </c>
+      <c r="I288" t="s">
+        <v>90</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C289" s="4">
+        <v>3</v>
+      </c>
+      <c r="D289">
+        <v>9</v>
+      </c>
+      <c r="E289" t="s">
+        <v>279</v>
+      </c>
+      <c r="F289" t="s">
+        <v>280</v>
+      </c>
+      <c r="G289" t="s">
+        <v>281</v>
+      </c>
+      <c r="H289" t="s">
+        <v>284</v>
+      </c>
+      <c r="I289" t="s">
+        <v>285</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C290" s="4">
+        <v>3</v>
+      </c>
+      <c r="D290">
+        <v>10</v>
+      </c>
+      <c r="E290" t="s">
+        <v>286</v>
+      </c>
+      <c r="F290" t="s">
+        <v>39</v>
+      </c>
+      <c r="G290" t="s">
+        <v>103</v>
+      </c>
+      <c r="H290" t="s">
+        <v>41</v>
+      </c>
+      <c r="I290" t="s">
+        <v>40</v>
+      </c>
+      <c r="J290">
+        <v>6</v>
+      </c>
+      <c r="K290" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C291" s="4">
+        <v>3</v>
+      </c>
+      <c r="D291">
+        <v>10</v>
+      </c>
+      <c r="E291" t="s">
+        <v>286</v>
+      </c>
+      <c r="F291" t="s">
+        <v>113</v>
+      </c>
+      <c r="G291" t="s">
+        <v>33</v>
+      </c>
+      <c r="H291" t="s">
+        <v>114</v>
+      </c>
+      <c r="I291" t="s">
+        <v>115</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C292" s="4">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>10</v>
+      </c>
+      <c r="E292" t="s">
+        <v>286</v>
+      </c>
+      <c r="F292" t="s">
+        <v>87</v>
+      </c>
+      <c r="G292" t="s">
+        <v>88</v>
+      </c>
+      <c r="H292" t="s">
+        <v>89</v>
+      </c>
+      <c r="I292" t="s">
+        <v>90</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C293" s="4">
+        <v>3</v>
+      </c>
+      <c r="D293">
+        <v>11</v>
+      </c>
+      <c r="E293" t="s">
+        <v>287</v>
+      </c>
+      <c r="F293" t="s">
+        <v>113</v>
+      </c>
+      <c r="G293" t="s">
+        <v>33</v>
+      </c>
+      <c r="H293" t="s">
+        <v>114</v>
+      </c>
+      <c r="I293" t="s">
+        <v>115</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C294" s="4">
+        <v>3</v>
+      </c>
+      <c r="D294">
+        <v>11</v>
+      </c>
+      <c r="E294" t="s">
+        <v>287</v>
+      </c>
+      <c r="F294" t="s">
+        <v>39</v>
+      </c>
+      <c r="G294" t="s">
+        <v>103</v>
+      </c>
+      <c r="H294" t="s">
+        <v>41</v>
+      </c>
+      <c r="I294" t="s">
+        <v>40</v>
+      </c>
+      <c r="J294">
+        <v>4</v>
+      </c>
+      <c r="K294" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C295" s="4">
+        <v>3</v>
+      </c>
+      <c r="D295">
+        <v>12</v>
+      </c>
+      <c r="E295" t="s">
+        <v>288</v>
+      </c>
+      <c r="F295" t="s">
+        <v>39</v>
+      </c>
+      <c r="G295" t="s">
+        <v>103</v>
+      </c>
+      <c r="H295" t="s">
+        <v>41</v>
+      </c>
+      <c r="I295" t="s">
+        <v>40</v>
+      </c>
+      <c r="J295">
+        <v>4</v>
+      </c>
+      <c r="K295" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C296" s="4">
+        <v>3</v>
+      </c>
+      <c r="D296">
+        <v>13</v>
+      </c>
+      <c r="E296" t="s">
+        <v>289</v>
+      </c>
+      <c r="F296" t="s">
+        <v>39</v>
+      </c>
+      <c r="G296" t="s">
+        <v>103</v>
+      </c>
+      <c r="H296" t="s">
+        <v>41</v>
+      </c>
+      <c r="I296" t="s">
+        <v>40</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C297" s="4">
+        <v>3</v>
+      </c>
+      <c r="D297">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s">
+        <v>290</v>
+      </c>
+      <c r="F297" t="s">
+        <v>202</v>
+      </c>
+      <c r="G297" t="s">
+        <v>203</v>
+      </c>
+      <c r="H297" t="s">
+        <v>204</v>
+      </c>
+      <c r="I297" t="s">
+        <v>205</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C298" s="4">
+        <v>3</v>
+      </c>
+      <c r="D298">
+        <v>14</v>
+      </c>
+      <c r="E298" t="s">
+        <v>290</v>
+      </c>
+      <c r="F298" t="s">
+        <v>291</v>
+      </c>
+      <c r="G298" t="s">
+        <v>292</v>
+      </c>
+      <c r="H298" t="s">
+        <v>208</v>
+      </c>
+      <c r="I298" t="s">
+        <v>293</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C299" s="4">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>14</v>
+      </c>
+      <c r="E299" t="s">
+        <v>290</v>
+      </c>
+      <c r="F299" t="s">
+        <v>39</v>
+      </c>
+      <c r="G299" t="s">
+        <v>103</v>
+      </c>
+      <c r="H299" t="s">
+        <v>41</v>
+      </c>
+      <c r="I299" t="s">
+        <v>40</v>
+      </c>
+      <c r="J299">
+        <v>8</v>
+      </c>
+      <c r="K299" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C300" s="4">
+        <v>3</v>
+      </c>
+      <c r="D300">
+        <v>14</v>
+      </c>
+      <c r="E300" t="s">
+        <v>290</v>
+      </c>
+      <c r="F300" t="s">
+        <v>294</v>
+      </c>
+      <c r="G300" t="s">
+        <v>168</v>
+      </c>
+      <c r="H300" t="s">
+        <v>295</v>
+      </c>
+      <c r="I300" t="s">
+        <v>296</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C301" s="4">
+        <v>3</v>
+      </c>
+      <c r="D301">
+        <v>15</v>
+      </c>
+      <c r="E301" t="s">
+        <v>297</v>
+      </c>
+      <c r="F301" t="s">
+        <v>291</v>
+      </c>
+      <c r="G301" t="s">
+        <v>292</v>
+      </c>
+      <c r="H301" t="s">
+        <v>210</v>
+      </c>
+      <c r="I301" t="s">
+        <v>293</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C302" s="4">
+        <v>3</v>
+      </c>
+      <c r="D302">
+        <v>15</v>
+      </c>
+      <c r="E302" t="s">
+        <v>297</v>
+      </c>
+      <c r="F302" t="s">
+        <v>129</v>
+      </c>
+      <c r="G302" t="s">
+        <v>117</v>
+      </c>
+      <c r="H302" t="s">
+        <v>131</v>
+      </c>
+      <c r="I302" t="s">
+        <v>132</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C303" s="4">
+        <v>3</v>
+      </c>
+      <c r="D303">
+        <v>15</v>
+      </c>
+      <c r="E303" t="s">
+        <v>297</v>
+      </c>
+      <c r="F303" t="s">
+        <v>39</v>
+      </c>
+      <c r="G303" t="s">
+        <v>42</v>
+      </c>
+      <c r="H303" t="s">
+        <v>41</v>
+      </c>
+      <c r="I303" t="s">
+        <v>40</v>
+      </c>
+      <c r="J303">
+        <v>5</v>
+      </c>
+      <c r="K303" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C304" s="4">
+        <v>3</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304" t="s">
+        <v>297</v>
+      </c>
+      <c r="F304" t="s">
+        <v>280</v>
+      </c>
+      <c r="G304" t="s">
+        <v>117</v>
+      </c>
+      <c r="H304" t="s">
+        <v>284</v>
+      </c>
+      <c r="I304" t="s">
+        <v>298</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C305" s="4">
+        <v>3</v>
+      </c>
+      <c r="D305">
+        <v>15</v>
+      </c>
+      <c r="E305" t="s">
+        <v>297</v>
+      </c>
+      <c r="F305" t="s">
+        <v>294</v>
+      </c>
+      <c r="G305" t="s">
+        <v>168</v>
+      </c>
+      <c r="H305" t="s">
+        <v>295</v>
+      </c>
+      <c r="I305" t="s">
+        <v>296</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+      <c r="K305" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C306" s="4">
+        <v>3</v>
+      </c>
+      <c r="D306">
+        <v>15</v>
+      </c>
+      <c r="E306" t="s">
+        <v>297</v>
+      </c>
+      <c r="F306" t="s">
+        <v>51</v>
+      </c>
+      <c r="G306" t="s">
+        <v>21</v>
+      </c>
+      <c r="H306" t="s">
+        <v>52</v>
+      </c>
+      <c r="I306" t="s">
+        <v>53</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C307" s="4">
+        <v>3</v>
+      </c>
+      <c r="D307">
+        <v>16</v>
+      </c>
+      <c r="E307" t="s">
+        <v>299</v>
+      </c>
+      <c r="F307" t="s">
+        <v>202</v>
+      </c>
+      <c r="G307" t="s">
+        <v>203</v>
+      </c>
+      <c r="H307" t="s">
+        <v>204</v>
+      </c>
+      <c r="I307" t="s">
+        <v>205</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C308" s="4">
+        <v>3</v>
+      </c>
+      <c r="D308">
+        <v>16</v>
+      </c>
+      <c r="E308" t="s">
+        <v>299</v>
+      </c>
+      <c r="F308" t="s">
+        <v>129</v>
+      </c>
+      <c r="G308" t="s">
+        <v>117</v>
+      </c>
+      <c r="H308" t="s">
+        <v>131</v>
+      </c>
+      <c r="I308" t="s">
+        <v>132</v>
+      </c>
+      <c r="J308">
+        <v>1</v>
+      </c>
+      <c r="K308" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C309" s="4">
+        <v>3</v>
+      </c>
+      <c r="D309">
+        <v>16</v>
+      </c>
+      <c r="E309" t="s">
+        <v>299</v>
+      </c>
+      <c r="F309" t="s">
+        <v>251</v>
+      </c>
+      <c r="G309" t="s">
+        <v>175</v>
+      </c>
+      <c r="H309" t="s">
+        <v>252</v>
+      </c>
+      <c r="I309" t="s">
+        <v>253</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C310" s="4">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>16</v>
+      </c>
+      <c r="E310" t="s">
+        <v>299</v>
+      </c>
+      <c r="F310" t="s">
+        <v>291</v>
+      </c>
+      <c r="G310" t="s">
+        <v>292</v>
+      </c>
+      <c r="H310" t="s">
+        <v>210</v>
+      </c>
+      <c r="I310" t="s">
+        <v>293</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C311" s="4">
+        <v>3</v>
+      </c>
+      <c r="D311">
+        <v>16</v>
+      </c>
+      <c r="E311" t="s">
+        <v>299</v>
+      </c>
+      <c r="F311" t="s">
+        <v>294</v>
+      </c>
+      <c r="G311" t="s">
+        <v>168</v>
+      </c>
+      <c r="H311" t="s">
+        <v>300</v>
+      </c>
+      <c r="I311" t="s">
+        <v>296</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+      <c r="K311" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C312" s="4">
+        <v>3</v>
+      </c>
+      <c r="D312">
+        <v>16</v>
+      </c>
+      <c r="E312" t="s">
+        <v>299</v>
+      </c>
+      <c r="F312" t="s">
+        <v>39</v>
+      </c>
+      <c r="G312" t="s">
+        <v>103</v>
+      </c>
+      <c r="H312" t="s">
+        <v>41</v>
+      </c>
+      <c r="I312" t="s">
+        <v>40</v>
+      </c>
+      <c r="J312">
+        <v>6</v>
+      </c>
+      <c r="K312" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C313" s="4">
+        <v>3</v>
+      </c>
+      <c r="D313">
+        <v>16</v>
+      </c>
+      <c r="E313" t="s">
+        <v>299</v>
+      </c>
+      <c r="F313" t="s">
+        <v>301</v>
+      </c>
+      <c r="G313" t="s">
+        <v>21</v>
+      </c>
+      <c r="H313" t="s">
+        <v>52</v>
+      </c>
+      <c r="I313" t="s">
+        <v>53</v>
+      </c>
+      <c r="J313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C314" s="4">
+        <v>3</v>
+      </c>
+      <c r="D314">
+        <v>17</v>
+      </c>
+      <c r="E314" t="s">
+        <v>302</v>
+      </c>
+      <c r="F314" t="s">
+        <v>51</v>
+      </c>
+      <c r="G314" t="s">
+        <v>21</v>
+      </c>
+      <c r="H314" t="s">
+        <v>52</v>
+      </c>
+      <c r="I314" t="s">
+        <v>53</v>
+      </c>
+      <c r="J314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C315" s="4">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>17</v>
+      </c>
+      <c r="E315" t="s">
+        <v>302</v>
+      </c>
+      <c r="F315" t="s">
+        <v>294</v>
+      </c>
+      <c r="G315" t="s">
+        <v>181</v>
+      </c>
+      <c r="H315" t="s">
+        <v>295</v>
+      </c>
+      <c r="I315" t="s">
+        <v>296</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C316" s="4">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>17</v>
+      </c>
+      <c r="E316" t="s">
+        <v>302</v>
+      </c>
+      <c r="F316" t="s">
+        <v>291</v>
+      </c>
+      <c r="G316" t="s">
+        <v>292</v>
+      </c>
+      <c r="H316" t="s">
+        <v>210</v>
+      </c>
+      <c r="I316" t="s">
+        <v>293</v>
+      </c>
+      <c r="J316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C317" s="4">
+        <v>3</v>
+      </c>
+      <c r="D317">
+        <v>17</v>
+      </c>
+      <c r="E317" t="s">
+        <v>302</v>
+      </c>
+      <c r="F317" t="s">
+        <v>174</v>
+      </c>
+      <c r="G317" t="s">
+        <v>175</v>
+      </c>
+      <c r="H317" t="s">
+        <v>176</v>
+      </c>
+      <c r="I317" t="s">
+        <v>177</v>
+      </c>
+      <c r="J317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C318" s="4">
+        <v>3</v>
+      </c>
+      <c r="D318">
+        <v>17</v>
+      </c>
+      <c r="E318" t="s">
+        <v>302</v>
+      </c>
+      <c r="F318" t="s">
+        <v>280</v>
+      </c>
+      <c r="G318" t="s">
+        <v>117</v>
+      </c>
+      <c r="H318" t="s">
+        <v>284</v>
+      </c>
+      <c r="I318" t="s">
+        <v>298</v>
+      </c>
+      <c r="J318">
+        <v>1</v>
+      </c>
+      <c r="K318" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C319" s="4">
+        <v>3</v>
+      </c>
+      <c r="D319">
+        <v>18</v>
+      </c>
+      <c r="E319" t="s">
+        <v>303</v>
+      </c>
+      <c r="F319" t="s">
+        <v>113</v>
+      </c>
+      <c r="G319" t="s">
+        <v>33</v>
+      </c>
+      <c r="H319" t="s">
+        <v>114</v>
+      </c>
+      <c r="I319" t="s">
+        <v>115</v>
+      </c>
+      <c r="J319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C320" s="4">
+        <v>3</v>
+      </c>
+      <c r="D320">
+        <v>18</v>
+      </c>
+      <c r="E320" t="s">
+        <v>303</v>
+      </c>
+      <c r="F320" t="s">
+        <v>291</v>
+      </c>
+      <c r="G320" t="s">
+        <v>292</v>
+      </c>
+      <c r="H320" t="s">
+        <v>210</v>
+      </c>
+      <c r="I320" t="s">
+        <v>293</v>
+      </c>
+      <c r="J320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C321" s="4">
+        <v>3</v>
+      </c>
+      <c r="D321">
+        <v>18</v>
+      </c>
+      <c r="E321" t="s">
+        <v>303</v>
+      </c>
+      <c r="F321" t="s">
+        <v>39</v>
+      </c>
+      <c r="G321" t="s">
+        <v>42</v>
+      </c>
+      <c r="H321" t="s">
+        <v>41</v>
+      </c>
+      <c r="I321" t="s">
+        <v>40</v>
+      </c>
+      <c r="J321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C322" s="4">
+        <v>3</v>
+      </c>
+      <c r="D322">
+        <v>18</v>
+      </c>
+      <c r="E322" t="s">
+        <v>303</v>
+      </c>
+      <c r="F322" t="s">
+        <v>174</v>
+      </c>
+      <c r="G322" t="s">
+        <v>175</v>
+      </c>
+      <c r="H322" t="s">
+        <v>176</v>
+      </c>
+      <c r="I322" t="s">
+        <v>177</v>
+      </c>
+      <c r="J322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C323" s="4">
+        <v>3</v>
+      </c>
+      <c r="D323">
+        <v>19</v>
+      </c>
+      <c r="E323" t="s">
+        <v>304</v>
+      </c>
+      <c r="F323" t="s">
+        <v>113</v>
+      </c>
+      <c r="G323" t="s">
+        <v>33</v>
+      </c>
+      <c r="H323" t="s">
+        <v>114</v>
+      </c>
+      <c r="I323" t="s">
+        <v>115</v>
+      </c>
+      <c r="J323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C324" s="4">
+        <v>3</v>
+      </c>
+      <c r="D324">
+        <v>19</v>
+      </c>
+      <c r="E324" t="s">
+        <v>304</v>
+      </c>
+      <c r="F324" t="s">
+        <v>202</v>
+      </c>
+      <c r="G324" t="s">
+        <v>203</v>
+      </c>
+      <c r="H324" t="s">
+        <v>204</v>
+      </c>
+      <c r="I324" t="s">
+        <v>205</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C325" s="4">
+        <v>3</v>
+      </c>
+      <c r="D325">
+        <v>19</v>
+      </c>
+      <c r="E325" t="s">
+        <v>304</v>
+      </c>
+      <c r="F325" t="s">
+        <v>305</v>
+      </c>
+      <c r="G325" t="s">
+        <v>306</v>
+      </c>
+      <c r="H325" t="s">
+        <v>307</v>
+      </c>
+      <c r="I325" t="s">
+        <v>308</v>
+      </c>
+      <c r="J325">
+        <v>1</v>
+      </c>
+      <c r="K325" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C326" s="4">
+        <v>3</v>
+      </c>
+      <c r="D326">
+        <v>19</v>
+      </c>
+      <c r="E326" t="s">
+        <v>304</v>
+      </c>
+      <c r="F326" t="s">
+        <v>256</v>
+      </c>
+      <c r="G326" t="s">
+        <v>259</v>
+      </c>
+      <c r="H326" t="s">
+        <v>221</v>
+      </c>
+      <c r="I326" t="s">
+        <v>249</v>
+      </c>
+      <c r="J326">
+        <v>1</v>
+      </c>
+      <c r="K326" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C327" s="4">
+        <v>3</v>
+      </c>
+      <c r="D327">
+        <v>19</v>
+      </c>
+      <c r="E327" t="s">
+        <v>304</v>
+      </c>
+      <c r="F327" t="s">
+        <v>39</v>
+      </c>
+      <c r="G327" t="s">
+        <v>103</v>
+      </c>
+      <c r="H327" t="s">
+        <v>41</v>
+      </c>
+      <c r="I327" t="s">
+        <v>40</v>
+      </c>
+      <c r="J327">
+        <v>3</v>
+      </c>
+      <c r="K327" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C328" s="4">
+        <v>3</v>
+      </c>
+      <c r="D328">
+        <v>19</v>
+      </c>
+      <c r="E328" t="s">
+        <v>304</v>
+      </c>
+      <c r="F328" t="s">
+        <v>291</v>
+      </c>
+      <c r="G328" t="s">
+        <v>292</v>
+      </c>
+      <c r="H328" t="s">
+        <v>210</v>
+      </c>
+      <c r="I328" t="s">
+        <v>293</v>
+      </c>
+      <c r="J328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C329" s="4">
+        <v>3</v>
+      </c>
+      <c r="D329">
+        <v>20</v>
+      </c>
+      <c r="E329" t="s">
+        <v>309</v>
+      </c>
+      <c r="F329" t="s">
+        <v>39</v>
+      </c>
+      <c r="G329" t="s">
+        <v>103</v>
+      </c>
+      <c r="H329" t="s">
+        <v>41</v>
+      </c>
+      <c r="I329" t="s">
+        <v>40</v>
+      </c>
+      <c r="J329">
+        <v>3</v>
+      </c>
+      <c r="K329" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C330" s="4">
+        <v>3</v>
+      </c>
+      <c r="D330">
+        <v>20</v>
+      </c>
+      <c r="E330" t="s">
+        <v>309</v>
+      </c>
+      <c r="F330" t="s">
+        <v>202</v>
+      </c>
+      <c r="G330" t="s">
+        <v>203</v>
+      </c>
+      <c r="H330" t="s">
+        <v>204</v>
+      </c>
+      <c r="I330" t="s">
+        <v>205</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C331" s="4">
+        <v>3</v>
+      </c>
+      <c r="D331">
+        <v>20</v>
+      </c>
+      <c r="E331" t="s">
+        <v>309</v>
+      </c>
+      <c r="F331" t="s">
+        <v>113</v>
+      </c>
+      <c r="G331" t="s">
+        <v>310</v>
+      </c>
+      <c r="H331" t="s">
+        <v>114</v>
+      </c>
+      <c r="I331" t="s">
+        <v>115</v>
+      </c>
+      <c r="J331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C332" s="4">
+        <v>3</v>
+      </c>
+      <c r="D332">
+        <v>20</v>
+      </c>
+      <c r="E332" t="s">
+        <v>309</v>
+      </c>
+      <c r="F332" t="s">
+        <v>87</v>
+      </c>
+      <c r="G332" t="s">
+        <v>88</v>
+      </c>
+      <c r="H332" t="s">
+        <v>89</v>
+      </c>
+      <c r="I332" t="s">
+        <v>90</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C333" s="4">
+        <v>3</v>
+      </c>
+      <c r="D333">
+        <v>21</v>
+      </c>
+      <c r="E333" t="s">
+        <v>311</v>
+      </c>
+      <c r="F333" t="s">
+        <v>202</v>
+      </c>
+      <c r="G333" t="s">
+        <v>203</v>
+      </c>
+      <c r="H333" t="s">
+        <v>204</v>
+      </c>
+      <c r="I333" t="s">
+        <v>205</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C334" s="4">
+        <v>3</v>
+      </c>
+      <c r="D334">
+        <v>21</v>
+      </c>
+      <c r="E334" t="s">
+        <v>311</v>
+      </c>
+      <c r="F334" t="s">
+        <v>29</v>
+      </c>
+      <c r="G334" t="s">
+        <v>60</v>
+      </c>
+      <c r="H334" t="s">
+        <v>28</v>
+      </c>
+      <c r="I334" t="s">
+        <v>30</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C335" s="4">
+        <v>3</v>
+      </c>
+      <c r="D335">
+        <v>21</v>
+      </c>
+      <c r="E335" t="s">
+        <v>311</v>
+      </c>
+      <c r="F335" t="s">
+        <v>113</v>
+      </c>
+      <c r="G335" t="s">
+        <v>33</v>
+      </c>
+      <c r="H335" t="s">
+        <v>114</v>
+      </c>
+      <c r="I335" t="s">
+        <v>115</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C336" s="4">
+        <v>3</v>
+      </c>
+      <c r="D336">
+        <v>21</v>
+      </c>
+      <c r="E336" t="s">
+        <v>311</v>
+      </c>
+      <c r="F336" t="s">
+        <v>251</v>
+      </c>
+      <c r="G336" t="s">
+        <v>175</v>
+      </c>
+      <c r="H336" t="s">
+        <v>252</v>
+      </c>
+      <c r="I336" t="s">
+        <v>253</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C337" s="4">
+        <v>3</v>
+      </c>
+      <c r="D337">
+        <v>21</v>
+      </c>
+      <c r="E337" t="s">
+        <v>311</v>
+      </c>
+      <c r="F337" t="s">
+        <v>291</v>
+      </c>
+      <c r="G337" t="s">
+        <v>292</v>
+      </c>
+      <c r="H337" t="s">
+        <v>210</v>
+      </c>
+      <c r="I337" t="s">
+        <v>293</v>
+      </c>
+      <c r="J337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C338" s="4">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338" t="s">
+        <v>313</v>
+      </c>
+      <c r="F338" t="s">
+        <v>25</v>
+      </c>
+      <c r="G338" t="s">
+        <v>21</v>
+      </c>
+      <c r="H338" t="s">
+        <v>26</v>
+      </c>
+      <c r="I338" t="s">
+        <v>27</v>
+      </c>
+      <c r="J338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C339" s="4">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>2</v>
+      </c>
+      <c r="E339" t="s">
+        <v>315</v>
+      </c>
+      <c r="F339" t="s">
+        <v>257</v>
+      </c>
+      <c r="G339" t="s">
+        <v>81</v>
+      </c>
+      <c r="H339" t="s">
+        <v>82</v>
+      </c>
+      <c r="I339" t="s">
+        <v>83</v>
+      </c>
+      <c r="J339">
+        <v>1</v>
+      </c>
+      <c r="K339" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C340" s="4">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>3</v>
+      </c>
+      <c r="E340" t="s">
+        <v>316</v>
+      </c>
+      <c r="F340" t="s">
+        <v>202</v>
+      </c>
+      <c r="G340" t="s">
+        <v>203</v>
+      </c>
+      <c r="H340" t="s">
+        <v>204</v>
+      </c>
+      <c r="I340" t="s">
+        <v>205</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C341" s="4">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>3</v>
+      </c>
+      <c r="E341" t="s">
+        <v>316</v>
+      </c>
+      <c r="F341" t="s">
+        <v>257</v>
+      </c>
+      <c r="G341" t="s">
+        <v>81</v>
+      </c>
+      <c r="H341" t="s">
+        <v>82</v>
+      </c>
+      <c r="I341" t="s">
+        <v>83</v>
+      </c>
+      <c r="J341">
+        <v>1</v>
+      </c>
+      <c r="K341" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C342" s="4">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>3</v>
+      </c>
+      <c r="E342" t="s">
+        <v>316</v>
+      </c>
+      <c r="F342" t="s">
+        <v>25</v>
+      </c>
+      <c r="G342" t="s">
+        <v>21</v>
+      </c>
+      <c r="H342" t="s">
+        <v>26</v>
+      </c>
+      <c r="I342" t="s">
+        <v>27</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C343" s="4">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>4</v>
+      </c>
+      <c r="E343" t="s">
+        <v>317</v>
+      </c>
+      <c r="F343" t="s">
+        <v>202</v>
+      </c>
+      <c r="G343" t="s">
+        <v>318</v>
+      </c>
+      <c r="H343" t="s">
+        <v>204</v>
+      </c>
+      <c r="I343" t="s">
+        <v>205</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C344" s="4">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>5</v>
+      </c>
+      <c r="E344" t="s">
+        <v>319</v>
+      </c>
+      <c r="F344" t="s">
+        <v>202</v>
+      </c>
+      <c r="G344" t="s">
+        <v>203</v>
+      </c>
+      <c r="H344" t="s">
+        <v>204</v>
+      </c>
+      <c r="I344" t="s">
+        <v>205</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C345" s="4">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>5</v>
+      </c>
+      <c r="E345" t="s">
+        <v>319</v>
+      </c>
+      <c r="F345" t="s">
+        <v>203</v>
+      </c>
+      <c r="G345" t="s">
+        <v>203</v>
+      </c>
+      <c r="H345" t="s">
+        <v>210</v>
+      </c>
+      <c r="I345" t="s">
+        <v>320</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C346" s="4">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>6</v>
+      </c>
+      <c r="E346" t="s">
+        <v>321</v>
+      </c>
+      <c r="F346" t="s">
+        <v>203</v>
+      </c>
+      <c r="G346" t="s">
+        <v>318</v>
+      </c>
+      <c r="H346" t="s">
+        <v>210</v>
+      </c>
+      <c r="I346" t="s">
+        <v>320</v>
+      </c>
+      <c r="J346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C347" s="4">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>7</v>
+      </c>
+      <c r="E347" t="s">
+        <v>322</v>
+      </c>
+      <c r="F347" t="s">
+        <v>323</v>
+      </c>
+      <c r="G347" t="s">
+        <v>203</v>
+      </c>
+      <c r="H347" t="s">
+        <v>204</v>
+      </c>
+      <c r="I347" t="s">
+        <v>205</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C348" s="4">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>8</v>
+      </c>
+      <c r="E348" t="s">
+        <v>324</v>
+      </c>
+      <c r="F348" t="s">
+        <v>39</v>
+      </c>
+      <c r="G348" t="s">
+        <v>103</v>
+      </c>
+      <c r="H348" t="s">
+        <v>41</v>
+      </c>
+      <c r="I348" t="s">
+        <v>40</v>
+      </c>
+      <c r="J348">
+        <v>7</v>
+      </c>
+      <c r="K348" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C349" s="4">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>9</v>
+      </c>
+      <c r="E349" t="s">
+        <v>325</v>
+      </c>
+      <c r="F349" t="s">
+        <v>87</v>
+      </c>
+      <c r="G349" t="s">
+        <v>88</v>
+      </c>
+      <c r="H349" t="s">
+        <v>89</v>
+      </c>
+      <c r="I349" t="s">
+        <v>90</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C350" s="4">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>10</v>
+      </c>
+      <c r="E350" t="s">
+        <v>326</v>
+      </c>
+      <c r="F350" t="s">
+        <v>129</v>
+      </c>
+      <c r="G350" t="s">
+        <v>327</v>
+      </c>
+      <c r="H350" t="s">
+        <v>131</v>
+      </c>
+      <c r="I350" t="s">
+        <v>328</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C351" s="4">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>11</v>
+      </c>
+      <c r="E351" t="s">
+        <v>329</v>
+      </c>
+      <c r="F351" t="s">
+        <v>39</v>
+      </c>
+      <c r="G351" t="s">
+        <v>103</v>
+      </c>
+      <c r="H351" t="s">
+        <v>41</v>
+      </c>
+      <c r="I351" t="s">
+        <v>40</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C352" s="4">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>11</v>
+      </c>
+      <c r="E352" t="s">
+        <v>329</v>
+      </c>
+      <c r="F352" t="s">
+        <v>129</v>
+      </c>
+      <c r="G352" t="s">
+        <v>117</v>
+      </c>
+      <c r="H352" t="s">
+        <v>131</v>
+      </c>
+      <c r="I352" t="s">
+        <v>132</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C353" s="4">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>12</v>
+      </c>
+      <c r="E353" t="s">
+        <v>330</v>
+      </c>
+      <c r="F353" t="s">
+        <v>129</v>
+      </c>
+      <c r="G353" t="s">
+        <v>117</v>
+      </c>
+      <c r="H353" t="s">
+        <v>131</v>
+      </c>
+      <c r="I353" t="s">
+        <v>132</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C354" s="4">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>13</v>
+      </c>
+      <c r="E354" t="s">
+        <v>331</v>
+      </c>
+      <c r="F354" t="s">
+        <v>129</v>
+      </c>
+      <c r="G354" t="s">
+        <v>117</v>
+      </c>
+      <c r="H354" t="s">
+        <v>131</v>
+      </c>
+      <c r="I354" t="s">
+        <v>132</v>
+      </c>
+      <c r="J354">
+        <v>2</v>
+      </c>
+      <c r="K354" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C355" s="4">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>13</v>
+      </c>
+      <c r="E355" t="s">
+        <v>331</v>
+      </c>
+      <c r="F355" t="s">
+        <v>39</v>
+      </c>
+      <c r="G355" t="s">
+        <v>103</v>
+      </c>
+      <c r="H355" t="s">
+        <v>41</v>
+      </c>
+      <c r="I355" t="s">
+        <v>40</v>
+      </c>
+      <c r="J355">
+        <v>3</v>
+      </c>
+      <c r="K355" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C356" s="4">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>14</v>
+      </c>
+      <c r="E356" t="s">
+        <v>332</v>
+      </c>
+      <c r="F356" t="s">
+        <v>129</v>
+      </c>
+      <c r="G356" t="s">
+        <v>117</v>
+      </c>
+      <c r="H356" t="s">
+        <v>131</v>
+      </c>
+      <c r="I356" t="s">
+        <v>132</v>
+      </c>
+      <c r="J356">
+        <v>2</v>
+      </c>
+      <c r="K356" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C357" s="4">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>15</v>
+      </c>
+      <c r="E357" t="s">
+        <v>333</v>
+      </c>
+      <c r="F357" t="s">
+        <v>39</v>
+      </c>
+      <c r="G357" t="s">
+        <v>103</v>
+      </c>
+      <c r="H357" t="s">
+        <v>41</v>
+      </c>
+      <c r="I357" t="s">
+        <v>40</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+      <c r="K357" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C358" s="4">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>15</v>
+      </c>
+      <c r="E358" t="s">
+        <v>333</v>
+      </c>
+      <c r="F358" t="s">
+        <v>129</v>
+      </c>
+      <c r="G358" t="s">
+        <v>117</v>
+      </c>
+      <c r="H358" t="s">
+        <v>131</v>
+      </c>
+      <c r="I358" t="s">
+        <v>132</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C359" s="4">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359" t="s">
+        <v>334</v>
+      </c>
+      <c r="F359" t="s">
+        <v>25</v>
+      </c>
+      <c r="G359" t="s">
+        <v>21</v>
+      </c>
+      <c r="H359" t="s">
+        <v>26</v>
+      </c>
+      <c r="I359" t="s">
+        <v>27</v>
+      </c>
+      <c r="J359">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C360" s="4">
+        <v>2</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="E360" t="s">
+        <v>335</v>
+      </c>
+      <c r="F360" t="s">
+        <v>25</v>
+      </c>
+      <c r="G360" t="s">
+        <v>21</v>
+      </c>
+      <c r="H360" t="s">
+        <v>26</v>
+      </c>
+      <c r="I360" t="s">
+        <v>27</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C361" s="4">
+        <v>2</v>
+      </c>
+      <c r="D361">
+        <v>3</v>
+      </c>
+      <c r="E361" t="s">
+        <v>336</v>
+      </c>
+      <c r="F361" t="s">
+        <v>25</v>
+      </c>
+      <c r="G361" t="s">
+        <v>21</v>
+      </c>
+      <c r="H361" t="s">
+        <v>26</v>
+      </c>
+      <c r="I361" t="s">
+        <v>27</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C362" s="4">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>4</v>
+      </c>
+      <c r="E362" t="s">
+        <v>337</v>
+      </c>
+      <c r="F362" t="s">
+        <v>87</v>
+      </c>
+      <c r="G362" t="s">
+        <v>108</v>
+      </c>
+      <c r="H362" t="s">
+        <v>89</v>
+      </c>
+      <c r="I362" t="s">
+        <v>90</v>
+      </c>
+      <c r="J362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C363" s="4">
+        <v>2</v>
+      </c>
+      <c r="D363">
+        <v>5</v>
+      </c>
+      <c r="E363" t="s">
+        <v>338</v>
+      </c>
+      <c r="F363" t="s">
+        <v>29</v>
+      </c>
+      <c r="G363" t="s">
+        <v>31</v>
+      </c>
+      <c r="H363" t="s">
+        <v>28</v>
+      </c>
+      <c r="I363" t="s">
+        <v>30</v>
+      </c>
+      <c r="J363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C364" s="4">
+        <v>2</v>
+      </c>
+      <c r="D364">
+        <v>5</v>
+      </c>
+      <c r="E364" t="s">
+        <v>337</v>
+      </c>
+      <c r="F364" t="s">
+        <v>39</v>
+      </c>
+      <c r="G364" t="s">
+        <v>103</v>
+      </c>
+      <c r="H364" t="s">
+        <v>41</v>
+      </c>
+      <c r="I364" t="s">
+        <v>40</v>
+      </c>
+      <c r="J364">
+        <v>2</v>
+      </c>
+      <c r="K364" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C365" s="4">
+        <v>2</v>
+      </c>
+      <c r="D365">
+        <v>5</v>
+      </c>
+      <c r="E365" t="s">
+        <v>337</v>
+      </c>
+      <c r="F365" t="s">
+        <v>256</v>
+      </c>
+      <c r="G365" t="s">
+        <v>81</v>
+      </c>
+      <c r="H365" t="s">
+        <v>221</v>
+      </c>
+      <c r="I365" t="s">
+        <v>249</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C366" s="4">
+        <v>2</v>
+      </c>
+      <c r="D366">
+        <v>6</v>
+      </c>
+      <c r="E366" t="s">
+        <v>339</v>
+      </c>
+      <c r="F366" t="s">
+        <v>29</v>
+      </c>
+      <c r="G366" t="s">
+        <v>31</v>
+      </c>
+      <c r="H366" t="s">
+        <v>28</v>
+      </c>
+      <c r="I366" t="s">
+        <v>30</v>
+      </c>
+      <c r="J366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C367" s="4">
+        <v>2</v>
+      </c>
+      <c r="D367">
+        <v>6</v>
+      </c>
+      <c r="E367" t="s">
+        <v>339</v>
+      </c>
+      <c r="F367" t="s">
+        <v>256</v>
+      </c>
+      <c r="G367" t="s">
+        <v>81</v>
+      </c>
+      <c r="H367" t="s">
+        <v>221</v>
+      </c>
+      <c r="I367" t="s">
+        <v>249</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C368" s="4">
+        <v>2</v>
+      </c>
+      <c r="D368">
+        <v>6</v>
+      </c>
+      <c r="E368" t="s">
+        <v>339</v>
+      </c>
+      <c r="F368" t="s">
+        <v>39</v>
+      </c>
+      <c r="G368" t="s">
+        <v>103</v>
+      </c>
+      <c r="H368" t="s">
+        <v>41</v>
+      </c>
+      <c r="I368" t="s">
+        <v>40</v>
+      </c>
+      <c r="J368">
+        <v>2</v>
+      </c>
+      <c r="K368" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C369" s="4">
+        <v>2</v>
+      </c>
+      <c r="D369">
+        <v>6</v>
+      </c>
+      <c r="E369" t="s">
+        <v>339</v>
+      </c>
+      <c r="F369" t="s">
+        <v>203</v>
+      </c>
+      <c r="G369" t="s">
+        <v>203</v>
+      </c>
+      <c r="H369" t="s">
+        <v>208</v>
+      </c>
+      <c r="I369" t="s">
+        <v>320</v>
+      </c>
+      <c r="J369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C370" s="4">
+        <v>2</v>
+      </c>
+      <c r="D370">
+        <v>7</v>
+      </c>
+      <c r="E370" t="s">
+        <v>340</v>
+      </c>
+      <c r="F370" t="s">
+        <v>29</v>
+      </c>
+      <c r="G370" t="s">
+        <v>31</v>
+      </c>
+      <c r="H370" t="s">
+        <v>28</v>
+      </c>
+      <c r="I370" t="s">
+        <v>30</v>
+      </c>
+      <c r="J370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C371" s="4">
+        <v>2</v>
+      </c>
+      <c r="D371">
+        <v>7</v>
+      </c>
+      <c r="E371" t="s">
+        <v>340</v>
+      </c>
+      <c r="F371" t="s">
+        <v>341</v>
+      </c>
+      <c r="G371" t="s">
+        <v>203</v>
+      </c>
+      <c r="H371" t="s">
+        <v>342</v>
+      </c>
+      <c r="I371" t="s">
+        <v>343</v>
+      </c>
+      <c r="J371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C372" s="4">
+        <v>2</v>
+      </c>
+      <c r="D372">
+        <v>7</v>
+      </c>
+      <c r="E372" t="s">
+        <v>340</v>
+      </c>
+      <c r="F372" t="s">
+        <v>202</v>
+      </c>
+      <c r="G372" t="s">
+        <v>203</v>
+      </c>
+      <c r="H372" t="s">
+        <v>204</v>
+      </c>
+      <c r="I372" t="s">
+        <v>205</v>
+      </c>
+      <c r="J372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C373" s="4">
+        <v>2</v>
+      </c>
+      <c r="D373">
+        <v>7</v>
+      </c>
+      <c r="E373" t="s">
+        <v>340</v>
+      </c>
+      <c r="F373" t="s">
+        <v>344</v>
+      </c>
+      <c r="G373" t="s">
+        <v>175</v>
+      </c>
+      <c r="H373" t="s">
+        <v>345</v>
+      </c>
+      <c r="I373" t="s">
+        <v>346</v>
+      </c>
+      <c r="J373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C374" s="4">
+        <v>2</v>
+      </c>
+      <c r="D374">
+        <v>8</v>
+      </c>
+      <c r="E374" t="s">
+        <v>347</v>
+      </c>
+      <c r="F374" t="s">
+        <v>87</v>
+      </c>
+      <c r="G374" t="s">
+        <v>88</v>
+      </c>
+      <c r="H374" t="s">
+        <v>89</v>
+      </c>
+      <c r="I374" t="s">
+        <v>90</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C375" s="4">
+        <v>2</v>
+      </c>
+      <c r="D375">
+        <v>9</v>
+      </c>
+      <c r="E375" t="s">
+        <v>348</v>
+      </c>
+      <c r="F375" t="s">
+        <v>349</v>
+      </c>
+      <c r="G375" t="s">
+        <v>103</v>
+      </c>
+      <c r="H375" t="s">
+        <v>41</v>
+      </c>
+      <c r="I375" t="s">
+        <v>350</v>
+      </c>
+      <c r="J375">
+        <v>2</v>
+      </c>
+      <c r="K375" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C376" s="4">
+        <v>2</v>
+      </c>
+      <c r="D376">
+        <v>10</v>
+      </c>
+      <c r="E376" t="s">
+        <v>351</v>
+      </c>
+      <c r="F376" t="s">
+        <v>349</v>
+      </c>
+      <c r="G376" t="s">
+        <v>103</v>
+      </c>
+      <c r="H376" t="s">
+        <v>41</v>
+      </c>
+      <c r="I376" t="s">
+        <v>350</v>
+      </c>
+      <c r="J376">
+        <v>5</v>
+      </c>
+      <c r="K376" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C377" s="4">
+        <v>2</v>
+      </c>
+      <c r="D377">
+        <v>11</v>
+      </c>
+      <c r="E377" t="s">
+        <v>352</v>
+      </c>
+      <c r="F377" t="s">
+        <v>349</v>
+      </c>
+      <c r="G377" t="s">
+        <v>103</v>
+      </c>
+      <c r="H377" t="s">
+        <v>41</v>
+      </c>
+      <c r="I377" t="s">
+        <v>350</v>
+      </c>
+      <c r="J377">
+        <v>8</v>
+      </c>
+      <c r="K377" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C378" s="4">
+        <v>2</v>
+      </c>
+      <c r="D378">
+        <v>12</v>
+      </c>
+      <c r="E378" t="s">
+        <v>353</v>
+      </c>
+      <c r="F378" t="s">
+        <v>349</v>
+      </c>
+      <c r="G378" t="s">
+        <v>103</v>
+      </c>
+      <c r="H378" t="s">
+        <v>41</v>
+      </c>
+      <c r="I378" t="s">
+        <v>350</v>
+      </c>
+      <c r="J378">
+        <v>5</v>
+      </c>
+      <c r="K378" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C379" s="4">
+        <v>2</v>
+      </c>
+      <c r="D379">
+        <v>13</v>
+      </c>
+      <c r="E379" t="s">
+        <v>354</v>
+      </c>
+      <c r="F379" t="s">
+        <v>349</v>
+      </c>
+      <c r="G379" t="s">
+        <v>103</v>
+      </c>
+      <c r="H379" t="s">
+        <v>41</v>
+      </c>
+      <c r="I379" t="s">
+        <v>350</v>
+      </c>
+      <c r="J379">
+        <v>5</v>
+      </c>
+      <c r="K379" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C380" s="4">
+        <v>2</v>
+      </c>
+      <c r="D380">
+        <v>14</v>
+      </c>
+      <c r="E380" t="s">
+        <v>355</v>
+      </c>
+      <c r="F380" t="s">
+        <v>349</v>
+      </c>
+      <c r="G380" t="s">
+        <v>103</v>
+      </c>
+      <c r="H380" t="s">
+        <v>41</v>
+      </c>
+      <c r="I380" t="s">
+        <v>350</v>
+      </c>
+      <c r="J380">
+        <v>3</v>
+      </c>
+      <c r="K380" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C381" s="4">
+        <v>3</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>356</v>
+      </c>
+      <c r="F381" t="s">
+        <v>344</v>
+      </c>
+      <c r="G381" t="s">
+        <v>175</v>
+      </c>
+      <c r="H381" t="s">
+        <v>345</v>
+      </c>
+      <c r="I381" t="s">
+        <v>346</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C382" s="4">
+        <v>3</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>356</v>
+      </c>
+      <c r="F382" t="s">
+        <v>357</v>
+      </c>
+      <c r="G382" t="s">
+        <v>21</v>
+      </c>
+      <c r="H382" t="s">
+        <v>208</v>
+      </c>
+      <c r="I382" t="s">
+        <v>358</v>
+      </c>
+      <c r="J382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C383" s="4">
+        <v>3</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+      <c r="E383" t="s">
+        <v>359</v>
+      </c>
+      <c r="F383" t="s">
+        <v>357</v>
+      </c>
+      <c r="G383" t="s">
+        <v>21</v>
+      </c>
+      <c r="H383" t="s">
+        <v>208</v>
+      </c>
+      <c r="I383" t="s">
+        <v>358</v>
+      </c>
+      <c r="J383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C384" s="4">
+        <v>3</v>
+      </c>
+      <c r="D384">
+        <v>3</v>
+      </c>
+      <c r="E384" t="s">
+        <v>360</v>
+      </c>
+      <c r="F384" t="s">
+        <v>361</v>
+      </c>
+      <c r="G384" t="s">
+        <v>362</v>
+      </c>
+      <c r="H384" t="s">
+        <v>195</v>
+      </c>
+      <c r="I384" t="s">
+        <v>363</v>
+      </c>
+      <c r="J384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C385" s="4">
+        <v>3</v>
+      </c>
+      <c r="D385">
+        <v>3</v>
+      </c>
+      <c r="E385" t="s">
+        <v>360</v>
+      </c>
+      <c r="F385" t="s">
+        <v>251</v>
+      </c>
+      <c r="G385" t="s">
+        <v>175</v>
+      </c>
+      <c r="H385" t="s">
+        <v>252</v>
+      </c>
+      <c r="I385" t="s">
+        <v>253</v>
+      </c>
+      <c r="J385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C386" s="4">
+        <v>3</v>
+      </c>
+      <c r="D386">
+        <v>4</v>
+      </c>
+      <c r="E386" t="s">
+        <v>364</v>
+      </c>
+      <c r="F386" t="s">
+        <v>361</v>
+      </c>
+      <c r="G386" t="s">
+        <v>365</v>
+      </c>
+      <c r="H386" t="s">
+        <v>195</v>
+      </c>
+      <c r="I386" t="s">
+        <v>366</v>
+      </c>
+      <c r="J386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C387" s="4">
+        <v>3</v>
+      </c>
+      <c r="D387">
+        <v>5</v>
+      </c>
+      <c r="E387" t="s">
+        <v>367</v>
+      </c>
+      <c r="F387" t="s">
+        <v>314</v>
+      </c>
+      <c r="G387" t="s">
+        <v>314</v>
+      </c>
+      <c r="H387" t="s">
+        <v>314</v>
+      </c>
+      <c r="I387" t="s">
+        <v>314</v>
+      </c>
+      <c r="J387" t="s">
+        <v>314</v>
+      </c>
+      <c r="K387" t="s">
+        <v>314</v>
+      </c>
+      <c r="L387" t="s">
+        <v>314</v>
+      </c>
+      <c r="M387" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C388" s="4">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>6</v>
+      </c>
+      <c r="E388" t="s">
+        <v>368</v>
+      </c>
+      <c r="F388" t="s">
+        <v>314</v>
+      </c>
+      <c r="G388" t="s">
+        <v>314</v>
+      </c>
+      <c r="H388" t="s">
+        <v>314</v>
+      </c>
+      <c r="I388" t="s">
+        <v>314</v>
+      </c>
+      <c r="J388" t="s">
+        <v>314</v>
+      </c>
+      <c r="K388" t="s">
+        <v>314</v>
+      </c>
+      <c r="L388" t="s">
+        <v>314</v>
+      </c>
+      <c r="M388" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C389" s="4">
+        <v>3</v>
+      </c>
+      <c r="D389">
+        <v>7</v>
+      </c>
+      <c r="E389" t="s">
+        <v>369</v>
+      </c>
+      <c r="F389" t="s">
+        <v>314</v>
+      </c>
+      <c r="G389" t="s">
+        <v>314</v>
+      </c>
+      <c r="H389" t="s">
+        <v>314</v>
+      </c>
+      <c r="I389" t="s">
+        <v>314</v>
+      </c>
+      <c r="J389" t="s">
+        <v>314</v>
+      </c>
+      <c r="K389" t="s">
+        <v>314</v>
+      </c>
+      <c r="L389" t="s">
+        <v>314</v>
+      </c>
+      <c r="M389" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C390" s="4">
+        <v>3</v>
+      </c>
+      <c r="D390">
+        <v>8</v>
+      </c>
+      <c r="E390" t="s">
+        <v>370</v>
+      </c>
+      <c r="F390" t="s">
+        <v>39</v>
+      </c>
+      <c r="G390" t="s">
+        <v>103</v>
+      </c>
+      <c r="H390" t="s">
+        <v>41</v>
+      </c>
+      <c r="I390" t="s">
+        <v>40</v>
+      </c>
+      <c r="J390">
+        <v>1</v>
+      </c>
+      <c r="K390" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C391" s="4">
+        <v>3</v>
+      </c>
+      <c r="D391">
+        <v>9</v>
+      </c>
+      <c r="E391" t="s">
+        <v>371</v>
+      </c>
+      <c r="F391" t="s">
+        <v>39</v>
+      </c>
+      <c r="G391" t="s">
+        <v>103</v>
+      </c>
+      <c r="H391" t="s">
+        <v>41</v>
+      </c>
+      <c r="I391" t="s">
+        <v>40</v>
+      </c>
+      <c r="J391">
+        <v>3</v>
+      </c>
+      <c r="K391" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C392" s="4">
+        <v>3</v>
+      </c>
+      <c r="D392">
+        <v>10</v>
+      </c>
+      <c r="E392" t="s">
+        <v>372</v>
+      </c>
+      <c r="F392" t="s">
+        <v>39</v>
+      </c>
+      <c r="G392" t="s">
+        <v>103</v>
+      </c>
+      <c r="H392" t="s">
+        <v>41</v>
+      </c>
+      <c r="I392" t="s">
+        <v>40</v>
+      </c>
+      <c r="J392">
+        <v>5</v>
+      </c>
+      <c r="K392" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C393" s="4">
+        <v>3</v>
+      </c>
+      <c r="D393">
+        <v>11</v>
+      </c>
+      <c r="E393" t="s">
+        <v>373</v>
+      </c>
+      <c r="F393" t="s">
+        <v>39</v>
+      </c>
+      <c r="G393" t="s">
+        <v>103</v>
+      </c>
+      <c r="H393" t="s">
+        <v>41</v>
+      </c>
+      <c r="I393" t="s">
+        <v>40</v>
+      </c>
+      <c r="J393">
+        <v>5</v>
+      </c>
+      <c r="K393" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C394" s="4">
+        <v>3</v>
+      </c>
+      <c r="D394">
+        <v>12</v>
+      </c>
+      <c r="E394" t="s">
+        <v>374</v>
+      </c>
+      <c r="F394" t="s">
+        <v>39</v>
+      </c>
+      <c r="G394" t="s">
+        <v>103</v>
+      </c>
+      <c r="H394" t="s">
+        <v>41</v>
+      </c>
+      <c r="I394" t="s">
+        <v>40</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+      <c r="K394" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C395" s="4">
+        <v>3</v>
+      </c>
+      <c r="D395">
+        <v>13</v>
+      </c>
+      <c r="E395" t="s">
+        <v>375</v>
+      </c>
+      <c r="F395" t="s">
+        <v>39</v>
+      </c>
+      <c r="G395" t="s">
+        <v>103</v>
+      </c>
+      <c r="H395" t="s">
+        <v>41</v>
+      </c>
+      <c r="I395" t="s">
+        <v>40</v>
+      </c>
+      <c r="J395">
+        <v>4</v>
+      </c>
+      <c r="K395" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C396" s="4">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>377</v>
+      </c>
+      <c r="F396" t="s">
+        <v>51</v>
+      </c>
+      <c r="G396" t="s">
+        <v>21</v>
+      </c>
+      <c r="H396" t="s">
+        <v>52</v>
+      </c>
+      <c r="I396" t="s">
+        <v>53</v>
+      </c>
+      <c r="J396">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C397" s="4">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397" t="s">
+        <v>377</v>
+      </c>
+      <c r="F397" t="s">
+        <v>39</v>
+      </c>
+      <c r="G397" t="s">
+        <v>103</v>
+      </c>
+      <c r="H397" t="s">
+        <v>41</v>
+      </c>
+      <c r="I397" t="s">
+        <v>40</v>
+      </c>
+      <c r="J397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C398" s="4">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
+        <v>377</v>
+      </c>
+      <c r="F398" t="s">
+        <v>190</v>
+      </c>
+      <c r="G398" t="s">
+        <v>150</v>
+      </c>
+      <c r="H398" t="s">
+        <v>192</v>
+      </c>
+      <c r="I398" t="s">
+        <v>191</v>
+      </c>
+      <c r="J398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C399" s="4">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399" t="s">
+        <v>377</v>
+      </c>
+      <c r="F399" t="s">
+        <v>25</v>
+      </c>
+      <c r="G399" t="s">
+        <v>21</v>
+      </c>
+      <c r="H399" t="s">
+        <v>26</v>
+      </c>
+      <c r="I399" t="s">
+        <v>27</v>
+      </c>
+      <c r="J399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C400" s="4">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+      <c r="E400" t="s">
+        <v>378</v>
+      </c>
+      <c r="F400" t="s">
+        <v>25</v>
+      </c>
+      <c r="G400" t="s">
+        <v>21</v>
+      </c>
+      <c r="H400" t="s">
+        <v>26</v>
+      </c>
+      <c r="I400" t="s">
+        <v>27</v>
+      </c>
+      <c r="J400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C401" s="4">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401" t="s">
+        <v>378</v>
+      </c>
+      <c r="F401" t="s">
+        <v>190</v>
+      </c>
+      <c r="G401" t="s">
+        <v>150</v>
+      </c>
+      <c r="H401" t="s">
+        <v>192</v>
+      </c>
+      <c r="I401" t="s">
+        <v>191</v>
+      </c>
+      <c r="J401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C402" s="4">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+      <c r="E402" t="s">
+        <v>378</v>
+      </c>
+      <c r="F402" t="s">
+        <v>51</v>
+      </c>
+      <c r="G402" t="s">
+        <v>21</v>
+      </c>
+      <c r="H402" t="s">
+        <v>52</v>
+      </c>
+      <c r="I402" t="s">
+        <v>53</v>
+      </c>
+      <c r="J402">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C403" s="4">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403" t="s">
+        <v>378</v>
+      </c>
+      <c r="F403" t="s">
+        <v>39</v>
+      </c>
+      <c r="G403" t="s">
+        <v>103</v>
+      </c>
+      <c r="H403" t="s">
+        <v>41</v>
+      </c>
+      <c r="I403" t="s">
+        <v>40</v>
+      </c>
+      <c r="J403">
+        <v>2</v>
+      </c>
+      <c r="K403" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C404" s="4">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+      <c r="E404" t="s">
+        <v>378</v>
+      </c>
+      <c r="F404" t="s">
+        <v>379</v>
+      </c>
+      <c r="G404" t="s">
+        <v>33</v>
+      </c>
+      <c r="H404" t="s">
+        <v>380</v>
+      </c>
+      <c r="I404" t="s">
+        <v>381</v>
+      </c>
+      <c r="J404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C405" s="4">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405" t="s">
+        <v>378</v>
+      </c>
+      <c r="F405" t="s">
+        <v>87</v>
+      </c>
+      <c r="G405" t="s">
+        <v>108</v>
+      </c>
+      <c r="H405" t="s">
+        <v>89</v>
+      </c>
+      <c r="I405" t="s">
+        <v>90</v>
+      </c>
+      <c r="J405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C406" s="4">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>3</v>
+      </c>
+      <c r="E406" t="s">
+        <v>382</v>
+      </c>
+      <c r="F406" t="s">
+        <v>383</v>
+      </c>
+      <c r="G406" t="s">
+        <v>150</v>
+      </c>
+      <c r="H406" t="s">
+        <v>192</v>
+      </c>
+      <c r="I406" t="s">
+        <v>191</v>
+      </c>
+      <c r="J406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C407" s="4">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>3</v>
+      </c>
+      <c r="E407" t="s">
+        <v>382</v>
+      </c>
+      <c r="F407" t="s">
+        <v>379</v>
+      </c>
+      <c r="G407" t="s">
+        <v>33</v>
+      </c>
+      <c r="H407" t="s">
+        <v>380</v>
+      </c>
+      <c r="I407" t="s">
+        <v>384</v>
+      </c>
+      <c r="J407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C408" s="4">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>3</v>
+      </c>
+      <c r="E408" t="s">
+        <v>382</v>
+      </c>
+      <c r="F408" t="s">
+        <v>25</v>
+      </c>
+      <c r="G408" t="s">
+        <v>21</v>
+      </c>
+      <c r="H408" t="s">
+        <v>26</v>
+      </c>
+      <c r="I408" t="s">
+        <v>27</v>
+      </c>
+      <c r="J408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C409" s="4">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>3</v>
+      </c>
+      <c r="E409" t="s">
+        <v>382</v>
+      </c>
+      <c r="F409" t="s">
+        <v>51</v>
+      </c>
+      <c r="G409" t="s">
+        <v>21</v>
+      </c>
+      <c r="H409" t="s">
+        <v>52</v>
+      </c>
+      <c r="I409" t="s">
+        <v>53</v>
+      </c>
+      <c r="J409">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C410" s="4">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>3</v>
+      </c>
+      <c r="E410" t="s">
+        <v>382</v>
+      </c>
+      <c r="F410" t="s">
+        <v>39</v>
+      </c>
+      <c r="G410" t="s">
+        <v>103</v>
+      </c>
+      <c r="H410" t="s">
+        <v>41</v>
+      </c>
+      <c r="I410" t="s">
+        <v>40</v>
+      </c>
+      <c r="J410">
+        <v>1</v>
+      </c>
+      <c r="K410" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C411" s="4">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>4</v>
+      </c>
+      <c r="E411" t="s">
+        <v>385</v>
+      </c>
+      <c r="F411" t="s">
+        <v>25</v>
+      </c>
+      <c r="G411" t="s">
+        <v>21</v>
+      </c>
+      <c r="H411" t="s">
+        <v>26</v>
+      </c>
+      <c r="I411" t="s">
+        <v>27</v>
+      </c>
+      <c r="J411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C412" s="4">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>4</v>
+      </c>
+      <c r="E412" t="s">
+        <v>385</v>
+      </c>
+      <c r="F412" t="s">
+        <v>51</v>
+      </c>
+      <c r="G412" t="s">
+        <v>47</v>
+      </c>
+      <c r="H412" t="s">
+        <v>52</v>
+      </c>
+      <c r="I412" t="s">
+        <v>53</v>
+      </c>
+      <c r="J412">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C413" s="4">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>4</v>
+      </c>
+      <c r="E413" t="s">
+        <v>385</v>
+      </c>
+      <c r="F413" t="s">
+        <v>190</v>
+      </c>
+      <c r="G413" t="s">
+        <v>150</v>
+      </c>
+      <c r="H413" t="s">
+        <v>192</v>
+      </c>
+      <c r="I413" t="s">
+        <v>191</v>
+      </c>
+      <c r="J413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C414" s="4">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>4</v>
+      </c>
+      <c r="E414" t="s">
+        <v>385</v>
+      </c>
+      <c r="F414" t="s">
+        <v>39</v>
+      </c>
+      <c r="G414" t="s">
+        <v>103</v>
+      </c>
+      <c r="H414" t="s">
+        <v>41</v>
+      </c>
+      <c r="I414" t="s">
+        <v>40</v>
+      </c>
+      <c r="J414">
+        <v>5</v>
+      </c>
+      <c r="K414" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C415" s="4">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>4</v>
+      </c>
+      <c r="E415" t="s">
+        <v>385</v>
+      </c>
+      <c r="F415" t="s">
+        <v>206</v>
+      </c>
+      <c r="G415" t="s">
+        <v>88</v>
+      </c>
+      <c r="H415" t="s">
+        <v>210</v>
+      </c>
+      <c r="I415" t="s">
+        <v>207</v>
+      </c>
+      <c r="J415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C416" s="4">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>5</v>
+      </c>
+      <c r="E416" t="s">
+        <v>386</v>
+      </c>
+      <c r="F416" t="s">
+        <v>51</v>
+      </c>
+      <c r="G416" t="s">
+        <v>21</v>
+      </c>
+      <c r="H416" t="s">
+        <v>52</v>
+      </c>
+      <c r="I416" t="s">
+        <v>53</v>
+      </c>
+      <c r="J416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C417" s="4">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>5</v>
+      </c>
+      <c r="E417" t="s">
+        <v>386</v>
+      </c>
+      <c r="F417" t="s">
+        <v>190</v>
+      </c>
+      <c r="G417" t="s">
+        <v>150</v>
+      </c>
+      <c r="H417" t="s">
+        <v>192</v>
+      </c>
+      <c r="I417" t="s">
+        <v>191</v>
+      </c>
+      <c r="J417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C418" s="4">
+        <v>1</v>
+      </c>
+      <c r="D418">
+        <v>5</v>
+      </c>
+      <c r="E418" t="s">
+        <v>386</v>
+      </c>
+      <c r="F418" t="s">
+        <v>344</v>
+      </c>
+      <c r="G418" t="s">
+        <v>175</v>
+      </c>
+      <c r="H418" t="s">
+        <v>345</v>
+      </c>
+      <c r="I418" t="s">
+        <v>346</v>
+      </c>
+      <c r="J418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C419" s="4">
+        <v>1</v>
+      </c>
+      <c r="D419">
+        <v>6</v>
+      </c>
+      <c r="E419" t="s">
+        <v>387</v>
+      </c>
+      <c r="F419" t="s">
+        <v>202</v>
+      </c>
+      <c r="G419" t="s">
+        <v>318</v>
+      </c>
+      <c r="H419" t="s">
+        <v>204</v>
+      </c>
+      <c r="I419" t="s">
+        <v>205</v>
+      </c>
+      <c r="J419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C420" s="4">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>6</v>
+      </c>
+      <c r="E420" t="s">
+        <v>387</v>
+      </c>
+      <c r="F420" t="s">
+        <v>344</v>
+      </c>
+      <c r="G420" t="s">
+        <v>388</v>
+      </c>
+      <c r="H420" t="s">
+        <v>345</v>
+      </c>
+      <c r="I420" t="s">
+        <v>346</v>
+      </c>
+      <c r="J420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C421" s="4">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>6</v>
+      </c>
+      <c r="E421" t="s">
+        <v>387</v>
+      </c>
+      <c r="F421" t="s">
+        <v>51</v>
+      </c>
+      <c r="G421" t="s">
+        <v>21</v>
+      </c>
+      <c r="H421" t="s">
+        <v>52</v>
+      </c>
+      <c r="I421" t="s">
+        <v>53</v>
+      </c>
+      <c r="J421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C422" s="4">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>6</v>
+      </c>
+      <c r="E422" t="s">
+        <v>387</v>
+      </c>
+      <c r="F422" t="s">
+        <v>190</v>
+      </c>
+      <c r="G422" t="s">
+        <v>150</v>
+      </c>
+      <c r="H422" t="s">
+        <v>192</v>
+      </c>
+      <c r="I422" t="s">
+        <v>191</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C423" s="4">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>7</v>
+      </c>
+      <c r="E423" t="s">
+        <v>389</v>
+      </c>
+      <c r="F423" t="s">
+        <v>190</v>
+      </c>
+      <c r="G423" t="s">
+        <v>150</v>
+      </c>
+      <c r="H423" t="s">
+        <v>192</v>
+      </c>
+      <c r="I423" t="s">
+        <v>191</v>
+      </c>
+      <c r="J423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C424" s="4">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>8</v>
+      </c>
+      <c r="E424" t="s">
+        <v>390</v>
+      </c>
+      <c r="F424" t="s">
+        <v>190</v>
+      </c>
+      <c r="G424" t="s">
+        <v>150</v>
+      </c>
+      <c r="H424" t="s">
+        <v>192</v>
+      </c>
+      <c r="I424" t="s">
+        <v>191</v>
+      </c>
+      <c r="J424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C425" s="4">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>8</v>
+      </c>
+      <c r="E425" t="s">
+        <v>390</v>
+      </c>
+      <c r="F425" t="s">
+        <v>344</v>
+      </c>
+      <c r="G425" t="s">
+        <v>175</v>
+      </c>
+      <c r="H425" t="s">
+        <v>345</v>
+      </c>
+      <c r="I425" t="s">
+        <v>346</v>
+      </c>
+      <c r="J425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C426" s="4">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>8</v>
+      </c>
+      <c r="E426" t="s">
+        <v>390</v>
+      </c>
+      <c r="F426" t="s">
+        <v>87</v>
+      </c>
+      <c r="G426" t="s">
+        <v>88</v>
+      </c>
+      <c r="H426" t="s">
+        <v>89</v>
+      </c>
+      <c r="I426" t="s">
+        <v>90</v>
+      </c>
+      <c r="J426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C427" s="4">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>9</v>
+      </c>
+      <c r="E427" t="s">
+        <v>391</v>
+      </c>
+      <c r="F427" t="s">
+        <v>190</v>
+      </c>
+      <c r="G427" t="s">
+        <v>150</v>
+      </c>
+      <c r="H427" t="s">
+        <v>192</v>
+      </c>
+      <c r="I427" t="s">
+        <v>191</v>
+      </c>
+      <c r="J427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C428" s="4">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>9</v>
+      </c>
+      <c r="E428" t="s">
+        <v>391</v>
+      </c>
+      <c r="F428" t="s">
+        <v>344</v>
+      </c>
+      <c r="G428" t="s">
+        <v>175</v>
+      </c>
+      <c r="H428" t="s">
+        <v>345</v>
+      </c>
+      <c r="I428" t="s">
+        <v>346</v>
+      </c>
+      <c r="J428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C429" s="4">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>9</v>
+      </c>
+      <c r="E429" t="s">
+        <v>391</v>
+      </c>
+      <c r="F429" t="s">
+        <v>87</v>
+      </c>
+      <c r="G429" t="s">
+        <v>88</v>
+      </c>
+      <c r="H429" t="s">
+        <v>89</v>
+      </c>
+      <c r="I429" t="s">
+        <v>90</v>
+      </c>
+      <c r="J429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C430" s="4">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>10</v>
+      </c>
+      <c r="E430" t="s">
+        <v>392</v>
+      </c>
+      <c r="F430" t="s">
+        <v>87</v>
+      </c>
+      <c r="G430" t="s">
+        <v>88</v>
+      </c>
+      <c r="H430" t="s">
+        <v>89</v>
+      </c>
+      <c r="I430" t="s">
+        <v>90</v>
+      </c>
+      <c r="J430">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C431" s="4">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>10</v>
+      </c>
+      <c r="E431" t="s">
+        <v>392</v>
+      </c>
+      <c r="F431" t="s">
+        <v>39</v>
+      </c>
+      <c r="G431" t="s">
+        <v>103</v>
+      </c>
+      <c r="H431" t="s">
+        <v>41</v>
+      </c>
+      <c r="I431" t="s">
+        <v>40</v>
+      </c>
+      <c r="J431">
+        <v>3</v>
+      </c>
+      <c r="K431" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C432" s="4">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>11</v>
+      </c>
+      <c r="E432" t="s">
+        <v>393</v>
+      </c>
+      <c r="F432" t="s">
+        <v>87</v>
+      </c>
+      <c r="G432" t="s">
+        <v>88</v>
+      </c>
+      <c r="H432" t="s">
+        <v>89</v>
+      </c>
+      <c r="I432" t="s">
+        <v>90</v>
+      </c>
+      <c r="J432">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C433" s="4">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>11</v>
+      </c>
+      <c r="E433" t="s">
+        <v>393</v>
+      </c>
+      <c r="F433" t="s">
+        <v>280</v>
+      </c>
+      <c r="G433" t="s">
+        <v>117</v>
+      </c>
+      <c r="H433" t="s">
+        <v>284</v>
+      </c>
+      <c r="I433" t="s">
+        <v>298</v>
+      </c>
+      <c r="J433">
+        <v>1</v>
+      </c>
+      <c r="K433" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C434" s="4">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>11</v>
+      </c>
+      <c r="E434" t="s">
+        <v>393</v>
+      </c>
+      <c r="F434" t="s">
+        <v>39</v>
+      </c>
+      <c r="G434" t="s">
+        <v>103</v>
+      </c>
+      <c r="H434" t="s">
+        <v>41</v>
+      </c>
+      <c r="I434" t="s">
+        <v>40</v>
+      </c>
+      <c r="J434">
+        <v>8</v>
+      </c>
+      <c r="K434" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C435" s="4">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>12</v>
+      </c>
+      <c r="E435" t="s">
+        <v>394</v>
+      </c>
+      <c r="F435" t="s">
+        <v>280</v>
+      </c>
+      <c r="G435" t="s">
+        <v>117</v>
+      </c>
+      <c r="H435" t="s">
+        <v>284</v>
+      </c>
+      <c r="I435" t="s">
+        <v>298</v>
+      </c>
+      <c r="J435">
+        <v>1</v>
+      </c>
+      <c r="K435" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C436" s="4">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>12</v>
+      </c>
+      <c r="E436" t="s">
+        <v>394</v>
+      </c>
+      <c r="F436" t="s">
+        <v>39</v>
+      </c>
+      <c r="G436" t="s">
+        <v>103</v>
+      </c>
+      <c r="H436" t="s">
+        <v>41</v>
+      </c>
+      <c r="I436" t="s">
+        <v>40</v>
+      </c>
+      <c r="J436">
+        <v>5</v>
+      </c>
+      <c r="K436" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C437" s="4">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>12</v>
+      </c>
+      <c r="E437" t="s">
+        <v>394</v>
+      </c>
+      <c r="F437" t="s">
+        <v>87</v>
+      </c>
+      <c r="G437" t="s">
+        <v>88</v>
+      </c>
+      <c r="H437" t="s">
+        <v>89</v>
+      </c>
+      <c r="I437" t="s">
+        <v>90</v>
+      </c>
+      <c r="J437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C438" s="4">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>12</v>
+      </c>
+      <c r="E438" t="s">
+        <v>394</v>
+      </c>
+      <c r="F438" t="s">
+        <v>129</v>
+      </c>
+      <c r="G438" t="s">
+        <v>327</v>
+      </c>
+      <c r="H438" t="s">
+        <v>131</v>
+      </c>
+      <c r="I438" t="s">
+        <v>328</v>
+      </c>
+      <c r="J438">
+        <v>1</v>
+      </c>
+      <c r="K438" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C439" s="4">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>13</v>
+      </c>
+      <c r="E439" t="s">
+        <v>395</v>
+      </c>
+      <c r="F439" t="s">
+        <v>129</v>
+      </c>
+      <c r="G439" t="s">
+        <v>327</v>
+      </c>
+      <c r="H439" t="s">
+        <v>131</v>
+      </c>
+      <c r="I439" t="s">
+        <v>328</v>
+      </c>
+      <c r="J439">
+        <v>1</v>
+      </c>
+      <c r="K439" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C440" s="4">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>13</v>
+      </c>
+      <c r="E440" t="s">
+        <v>395</v>
+      </c>
+      <c r="F440" t="s">
+        <v>39</v>
+      </c>
+      <c r="G440" t="s">
+        <v>103</v>
+      </c>
+      <c r="H440" t="s">
+        <v>41</v>
+      </c>
+      <c r="I440" t="s">
+        <v>40</v>
+      </c>
+      <c r="J440">
+        <v>4</v>
+      </c>
+      <c r="K440" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C441" s="4">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>14</v>
+      </c>
+      <c r="E441" t="s">
+        <v>396</v>
+      </c>
+      <c r="F441" t="s">
+        <v>129</v>
+      </c>
+      <c r="G441" t="s">
+        <v>327</v>
+      </c>
+      <c r="H441" t="s">
+        <v>131</v>
+      </c>
+      <c r="I441" t="s">
+        <v>328</v>
+      </c>
+      <c r="J441">
+        <v>2</v>
+      </c>
+      <c r="K441" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C442" s="4">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>14</v>
+      </c>
+      <c r="E442" t="s">
+        <v>396</v>
+      </c>
+      <c r="F442" t="s">
+        <v>256</v>
+      </c>
+      <c r="G442" t="s">
+        <v>81</v>
+      </c>
+      <c r="H442" t="s">
+        <v>221</v>
+      </c>
+      <c r="I442" t="s">
+        <v>249</v>
+      </c>
+      <c r="J442">
+        <v>1</v>
+      </c>
+      <c r="K442" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C443" s="4">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>14</v>
+      </c>
+      <c r="E443" t="s">
+        <v>396</v>
+      </c>
+      <c r="F443" t="s">
+        <v>39</v>
+      </c>
+      <c r="G443" t="s">
+        <v>103</v>
+      </c>
+      <c r="H443" t="s">
+        <v>41</v>
+      </c>
+      <c r="I443" t="s">
+        <v>40</v>
+      </c>
+      <c r="J443">
+        <v>3</v>
+      </c>
+      <c r="K443" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4991" uniqueCount="535">
   <si>
     <t>date</t>
   </si>
@@ -1561,6 +1561,66 @@
   </si>
   <si>
     <t>GOPR0208.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR0208.MP4_026.png</t>
+  </si>
+  <si>
+    <t>cirurgus</t>
+  </si>
+  <si>
+    <t>Acanthurus cirurgus</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_017.png</t>
+  </si>
+  <si>
+    <t>Stegates</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR0204.MP4_026.png</t>
   </si>
 </sst>
 </file>
@@ -1911,11 +1971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W739"/>
+  <dimension ref="A1:W782"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H739" sqref="H739"/>
+      <pane ySplit="1" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F782" sqref="F782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21701,7 +21761,7 @@
         <v>44181</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C597" s="4">
         <v>2</v>
@@ -21733,7 +21793,7 @@
         <v>44181</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C598" s="4">
         <v>2</v>
@@ -21765,7 +21825,7 @@
         <v>44181</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C599" s="4">
         <v>2</v>
@@ -21797,7 +21857,7 @@
         <v>44181</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C600" s="4">
         <v>2</v>
@@ -21829,7 +21889,7 @@
         <v>44181</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C601" s="4">
         <v>2</v>
@@ -21864,7 +21924,7 @@
         <v>44181</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C602" s="4">
         <v>2</v>
@@ -21896,7 +21956,7 @@
         <v>44181</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C603" s="4">
         <v>2</v>
@@ -21928,7 +21988,7 @@
         <v>44181</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C604" s="4">
         <v>2</v>
@@ -21960,7 +22020,7 @@
         <v>44181</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C605" s="4">
         <v>2</v>
@@ -21992,7 +22052,7 @@
         <v>44181</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C606" s="4">
         <v>2</v>
@@ -22024,7 +22084,7 @@
         <v>44181</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C607" s="4">
         <v>2</v>
@@ -22056,7 +22116,7 @@
         <v>44181</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C608" s="4">
         <v>2</v>
@@ -22088,7 +22148,7 @@
         <v>44181</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C609" s="4">
         <v>2</v>
@@ -22120,7 +22180,7 @@
         <v>44181</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C610" s="4">
         <v>2</v>
@@ -22152,7 +22212,7 @@
         <v>44181</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C611" s="4">
         <v>2</v>
@@ -22187,7 +22247,7 @@
         <v>44181</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C612" s="4">
         <v>2</v>
@@ -22222,7 +22282,7 @@
         <v>44181</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C613" s="4">
         <v>2</v>
@@ -22257,7 +22317,7 @@
         <v>44181</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C614" s="4">
         <v>2</v>
@@ -22289,7 +22349,7 @@
         <v>44181</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C615" s="4">
         <v>2</v>
@@ -22321,7 +22381,7 @@
         <v>44181</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C616" s="4">
         <v>2</v>
@@ -22353,7 +22413,7 @@
         <v>44181</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C617" s="4">
         <v>2</v>
@@ -22388,7 +22448,7 @@
         <v>44181</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C618" s="4">
         <v>2</v>
@@ -22423,7 +22483,7 @@
         <v>44181</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C619" s="4">
         <v>2</v>
@@ -22458,7 +22518,7 @@
         <v>44181</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C620" s="4">
         <v>2</v>
@@ -22493,7 +22553,7 @@
         <v>44181</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C621" s="4">
         <v>2</v>
@@ -22525,7 +22585,7 @@
         <v>44181</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C622" s="4">
         <v>2</v>
@@ -22560,7 +22620,7 @@
         <v>44181</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C623" s="4">
         <v>2</v>
@@ -22592,7 +22652,7 @@
         <v>44181</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C624" s="4">
         <v>2</v>
@@ -22627,7 +22687,7 @@
         <v>44181</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C625" s="4">
         <v>2</v>
@@ -22659,7 +22719,7 @@
         <v>44181</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C626" s="4">
         <v>2</v>
@@ -22694,7 +22754,7 @@
         <v>44181</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C627" s="4">
         <v>2</v>
@@ -22726,7 +22786,7 @@
         <v>44181</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C628" s="4">
         <v>2</v>
@@ -22761,7 +22821,7 @@
         <v>44181</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C629" s="4">
         <v>2</v>
@@ -22793,7 +22853,7 @@
         <v>44181</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C630" s="4">
         <v>2</v>
@@ -22828,7 +22888,7 @@
         <v>44181</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C631" s="4">
         <v>2</v>
@@ -22863,7 +22923,7 @@
         <v>44181</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C632" s="4">
         <v>2</v>
@@ -22898,7 +22958,7 @@
         <v>44181</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C633" s="4">
         <v>2</v>
@@ -22933,7 +22993,7 @@
         <v>44181</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C634" s="4">
         <v>2</v>
@@ -22965,7 +23025,7 @@
         <v>44181</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C635" s="4">
         <v>3</v>
@@ -22997,7 +23057,7 @@
         <v>44181</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C636" s="4">
         <v>3</v>
@@ -23029,7 +23089,7 @@
         <v>44181</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C637" s="4">
         <v>3</v>
@@ -23064,7 +23124,7 @@
         <v>44181</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C638" s="4">
         <v>3</v>
@@ -23096,7 +23156,7 @@
         <v>44181</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C639" s="4">
         <v>3</v>
@@ -23128,7 +23188,7 @@
         <v>44181</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C640" s="4">
         <v>3</v>
@@ -23160,7 +23220,7 @@
         <v>44181</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C641" s="4">
         <v>3</v>
@@ -23195,7 +23255,7 @@
         <v>44181</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C642" s="4">
         <v>3</v>
@@ -23227,7 +23287,7 @@
         <v>44181</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C643" s="4">
         <v>3</v>
@@ -23262,7 +23322,7 @@
         <v>44181</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C644" s="4">
         <v>3</v>
@@ -23294,7 +23354,7 @@
         <v>44181</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C645" s="4">
         <v>3</v>
@@ -23326,7 +23386,7 @@
         <v>44181</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C646" s="4">
         <v>3</v>
@@ -23358,7 +23418,7 @@
         <v>44181</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C647" s="4">
         <v>3</v>
@@ -23390,7 +23450,7 @@
         <v>44181</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C648" s="4">
         <v>3</v>
@@ -23422,7 +23482,7 @@
         <v>44181</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C649" s="4">
         <v>3</v>
@@ -23454,7 +23514,7 @@
         <v>44181</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C650" s="4">
         <v>3</v>
@@ -23486,7 +23546,7 @@
         <v>44181</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C651" s="4">
         <v>3</v>
@@ -23518,7 +23578,7 @@
         <v>44181</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C652" s="4">
         <v>3</v>
@@ -23550,7 +23610,7 @@
         <v>44181</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C653" s="4">
         <v>3</v>
@@ -23582,7 +23642,7 @@
         <v>44181</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C654" s="4">
         <v>3</v>
@@ -23614,7 +23674,7 @@
         <v>44181</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C655" s="4">
         <v>3</v>
@@ -23646,7 +23706,7 @@
         <v>44181</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C656" s="4">
         <v>3</v>
@@ -23678,7 +23738,7 @@
         <v>44181</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C657" s="4">
         <v>3</v>
@@ -23710,7 +23770,7 @@
         <v>44181</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C658" s="4">
         <v>3</v>
@@ -23742,7 +23802,7 @@
         <v>44181</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C659" s="4">
         <v>3</v>
@@ -23774,7 +23834,7 @@
         <v>44181</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C660" s="4">
         <v>3</v>
@@ -23806,7 +23866,7 @@
         <v>44181</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C661" s="4">
         <v>3</v>
@@ -23838,7 +23898,7 @@
         <v>44181</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C662" s="4">
         <v>3</v>
@@ -23870,7 +23930,7 @@
         <v>44181</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C663" s="4">
         <v>3</v>
@@ -23902,7 +23962,7 @@
         <v>44181</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C664" s="4">
         <v>3</v>
@@ -23934,7 +23994,7 @@
         <v>44181</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C665" s="4">
         <v>3</v>
@@ -23969,7 +24029,7 @@
         <v>44181</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C666" s="4">
         <v>3</v>
@@ -24001,7 +24061,7 @@
         <v>44181</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C667" s="4">
         <v>3</v>
@@ -24033,7 +24093,7 @@
         <v>44181</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C668" s="4">
         <v>3</v>
@@ -24068,7 +24128,7 @@
         <v>44181</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C669" s="4">
         <v>3</v>
@@ -24100,7 +24160,7 @@
         <v>44181</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C670" s="4">
         <v>3</v>
@@ -24132,7 +24192,7 @@
         <v>44181</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C671" s="4">
         <v>3</v>
@@ -24164,7 +24224,7 @@
         <v>44181</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C672" s="4">
         <v>3</v>
@@ -24196,7 +24256,7 @@
         <v>44181</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C673" s="4">
         <v>3</v>
@@ -24231,7 +24291,7 @@
         <v>44181</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C674" s="4">
         <v>3</v>
@@ -24263,7 +24323,7 @@
         <v>44181</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C675" s="4">
         <v>3</v>
@@ -24295,7 +24355,7 @@
         <v>44181</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C676" s="4">
         <v>3</v>
@@ -24330,7 +24390,7 @@
         <v>44181</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C677" s="4">
         <v>3</v>
@@ -24365,7 +24425,7 @@
         <v>44181</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C678" s="4">
         <v>3</v>
@@ -24400,7 +24460,7 @@
         <v>44181</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C679" s="4">
         <v>3</v>
@@ -24435,7 +24495,7 @@
         <v>44181</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C680" s="4">
         <v>3</v>
@@ -24467,7 +24527,7 @@
         <v>44181</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C681" s="4">
         <v>3</v>
@@ -24502,7 +24562,7 @@
         <v>44181</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C682" s="4">
         <v>3</v>
@@ -24537,7 +24597,7 @@
         <v>44181</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C683" s="4">
         <v>3</v>
@@ -24569,7 +24629,7 @@
         <v>44181</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C684" s="4">
         <v>3</v>
@@ -24601,7 +24661,7 @@
         <v>44181</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C685" s="4">
         <v>3</v>
@@ -24636,7 +24696,7 @@
         <v>44181</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C686" s="4">
         <v>3</v>
@@ -24668,7 +24728,7 @@
         <v>44181</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C687" s="4">
         <v>3</v>
@@ -24703,7 +24763,7 @@
         <v>44181</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C688" s="4">
         <v>3</v>
@@ -24738,7 +24798,7 @@
         <v>44181</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C689" s="4">
         <v>3</v>
@@ -24770,7 +24830,7 @@
         <v>44181</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C690" s="4">
         <v>3</v>
@@ -24802,7 +24862,7 @@
         <v>44181</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C691" s="4">
         <v>3</v>
@@ -24837,7 +24897,7 @@
         <v>44181</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C692" s="4">
         <v>3</v>
@@ -24869,7 +24929,7 @@
         <v>44181</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="C693" s="4">
         <v>3</v>
@@ -26326,7 +26386,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C737" s="4">
+        <v>1</v>
+      </c>
+      <c r="D737">
+        <v>18</v>
+      </c>
+      <c r="E737" t="s">
+        <v>514</v>
+      </c>
       <c r="F737" t="s">
         <v>174</v>
       </c>
@@ -26343,7 +26418,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C738" s="4">
+        <v>1</v>
+      </c>
+      <c r="D738">
+        <v>18</v>
+      </c>
+      <c r="E738" t="s">
+        <v>514</v>
+      </c>
       <c r="F738" t="s">
         <v>129</v>
       </c>
@@ -26363,12 +26453,1427 @@
         <v>73</v>
       </c>
     </row>
-    <row r="739" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C739" s="4">
+        <v>1</v>
+      </c>
+      <c r="D739">
+        <v>18</v>
+      </c>
+      <c r="E739" t="s">
+        <v>514</v>
+      </c>
       <c r="F739" t="s">
         <v>113</v>
       </c>
       <c r="G739" t="s">
         <v>33</v>
+      </c>
+      <c r="H739" t="s">
+        <v>114</v>
+      </c>
+      <c r="I739" t="s">
+        <v>115</v>
+      </c>
+      <c r="J739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A740" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C740" s="4">
+        <v>1</v>
+      </c>
+      <c r="D740">
+        <v>19</v>
+      </c>
+      <c r="E740" t="s">
+        <v>515</v>
+      </c>
+      <c r="F740" t="s">
+        <v>174</v>
+      </c>
+      <c r="G740" t="s">
+        <v>175</v>
+      </c>
+      <c r="H740" t="s">
+        <v>176</v>
+      </c>
+      <c r="I740" t="s">
+        <v>177</v>
+      </c>
+      <c r="J740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A741" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C741" s="4">
+        <v>1</v>
+      </c>
+      <c r="D741">
+        <v>19</v>
+      </c>
+      <c r="E741" t="s">
+        <v>515</v>
+      </c>
+      <c r="F741" t="s">
+        <v>251</v>
+      </c>
+      <c r="G741" t="s">
+        <v>175</v>
+      </c>
+      <c r="H741" t="s">
+        <v>516</v>
+      </c>
+      <c r="I741" t="s">
+        <v>517</v>
+      </c>
+      <c r="J741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A742" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C742" s="4">
+        <v>1</v>
+      </c>
+      <c r="D742">
+        <v>19</v>
+      </c>
+      <c r="E742" t="s">
+        <v>515</v>
+      </c>
+      <c r="F742" t="s">
+        <v>113</v>
+      </c>
+      <c r="G742" t="s">
+        <v>33</v>
+      </c>
+      <c r="H742" t="s">
+        <v>114</v>
+      </c>
+      <c r="I742" t="s">
+        <v>115</v>
+      </c>
+      <c r="J742">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A743" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C743" s="4">
+        <v>1</v>
+      </c>
+      <c r="D743">
+        <v>19</v>
+      </c>
+      <c r="E743" t="s">
+        <v>515</v>
+      </c>
+      <c r="F743" t="s">
+        <v>129</v>
+      </c>
+      <c r="G743" t="s">
+        <v>327</v>
+      </c>
+      <c r="H743" t="s">
+        <v>131</v>
+      </c>
+      <c r="I743" t="s">
+        <v>473</v>
+      </c>
+      <c r="J743">
+        <v>1</v>
+      </c>
+      <c r="K743" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A744" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C744" s="4">
+        <v>1</v>
+      </c>
+      <c r="D744">
+        <v>19</v>
+      </c>
+      <c r="E744" t="s">
+        <v>515</v>
+      </c>
+      <c r="F744" t="s">
+        <v>39</v>
+      </c>
+      <c r="G744" t="s">
+        <v>103</v>
+      </c>
+      <c r="H744" t="s">
+        <v>41</v>
+      </c>
+      <c r="I744" t="s">
+        <v>40</v>
+      </c>
+      <c r="J744">
+        <v>1</v>
+      </c>
+      <c r="K744" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A745" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C745" s="4">
+        <v>2</v>
+      </c>
+      <c r="D745">
+        <v>1</v>
+      </c>
+      <c r="E745" t="s">
+        <v>518</v>
+      </c>
+      <c r="F745" t="s">
+        <v>25</v>
+      </c>
+      <c r="G745" t="s">
+        <v>21</v>
+      </c>
+      <c r="H745" t="s">
+        <v>26</v>
+      </c>
+      <c r="I745" t="s">
+        <v>27</v>
+      </c>
+      <c r="J745">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A746" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C746" s="4">
+        <v>2</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+      <c r="E746" t="s">
+        <v>518</v>
+      </c>
+      <c r="F746" t="s">
+        <v>190</v>
+      </c>
+      <c r="G746" t="s">
+        <v>150</v>
+      </c>
+      <c r="H746" t="s">
+        <v>192</v>
+      </c>
+      <c r="I746" t="s">
+        <v>191</v>
+      </c>
+      <c r="J746">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A747" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C747" s="4">
+        <v>2</v>
+      </c>
+      <c r="D747">
+        <v>1</v>
+      </c>
+      <c r="E747" t="s">
+        <v>518</v>
+      </c>
+      <c r="F747" t="s">
+        <v>193</v>
+      </c>
+      <c r="G747" t="s">
+        <v>194</v>
+      </c>
+      <c r="H747" t="s">
+        <v>195</v>
+      </c>
+      <c r="I747" t="s">
+        <v>196</v>
+      </c>
+      <c r="J747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C748" s="4">
+        <v>2</v>
+      </c>
+      <c r="D748">
+        <v>2</v>
+      </c>
+      <c r="E748" t="s">
+        <v>519</v>
+      </c>
+      <c r="F748" t="s">
+        <v>25</v>
+      </c>
+      <c r="G748" t="s">
+        <v>21</v>
+      </c>
+      <c r="H748" t="s">
+        <v>26</v>
+      </c>
+      <c r="I748" t="s">
+        <v>27</v>
+      </c>
+      <c r="J748">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A749" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C749" s="4">
+        <v>2</v>
+      </c>
+      <c r="D749">
+        <v>2</v>
+      </c>
+      <c r="E749" t="s">
+        <v>519</v>
+      </c>
+      <c r="F749" t="s">
+        <v>190</v>
+      </c>
+      <c r="G749" t="s">
+        <v>150</v>
+      </c>
+      <c r="H749" t="s">
+        <v>192</v>
+      </c>
+      <c r="I749" t="s">
+        <v>191</v>
+      </c>
+      <c r="J749">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A750" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C750" s="4">
+        <v>2</v>
+      </c>
+      <c r="D750">
+        <v>2</v>
+      </c>
+      <c r="E750" t="s">
+        <v>519</v>
+      </c>
+      <c r="F750" t="s">
+        <v>20</v>
+      </c>
+      <c r="G750" t="s">
+        <v>21</v>
+      </c>
+      <c r="H750" t="s">
+        <v>24</v>
+      </c>
+      <c r="I750" t="s">
+        <v>23</v>
+      </c>
+      <c r="J750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A751" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C751" s="4">
+        <v>2</v>
+      </c>
+      <c r="D751">
+        <v>2</v>
+      </c>
+      <c r="E751" t="s">
+        <v>519</v>
+      </c>
+      <c r="F751" t="s">
+        <v>39</v>
+      </c>
+      <c r="G751" t="s">
+        <v>103</v>
+      </c>
+      <c r="H751" t="s">
+        <v>41</v>
+      </c>
+      <c r="I751" t="s">
+        <v>40</v>
+      </c>
+      <c r="J751">
+        <v>1</v>
+      </c>
+      <c r="K751" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A752" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C752" s="4">
+        <v>2</v>
+      </c>
+      <c r="D752">
+        <v>3</v>
+      </c>
+      <c r="E752" t="s">
+        <v>520</v>
+      </c>
+      <c r="F752" t="s">
+        <v>25</v>
+      </c>
+      <c r="G752" t="s">
+        <v>21</v>
+      </c>
+      <c r="H752" t="s">
+        <v>26</v>
+      </c>
+      <c r="I752" t="s">
+        <v>27</v>
+      </c>
+      <c r="J752">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A753" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C753" s="4">
+        <v>2</v>
+      </c>
+      <c r="D753">
+        <v>3</v>
+      </c>
+      <c r="E753" t="s">
+        <v>520</v>
+      </c>
+      <c r="F753" t="s">
+        <v>20</v>
+      </c>
+      <c r="G753" t="s">
+        <v>21</v>
+      </c>
+      <c r="H753" t="s">
+        <v>24</v>
+      </c>
+      <c r="I753" t="s">
+        <v>23</v>
+      </c>
+      <c r="J753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A754" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C754" s="4">
+        <v>2</v>
+      </c>
+      <c r="D754">
+        <v>3</v>
+      </c>
+      <c r="E754" t="s">
+        <v>520</v>
+      </c>
+      <c r="F754" t="s">
+        <v>190</v>
+      </c>
+      <c r="G754" t="s">
+        <v>150</v>
+      </c>
+      <c r="H754" t="s">
+        <v>192</v>
+      </c>
+      <c r="I754" t="s">
+        <v>191</v>
+      </c>
+      <c r="J754">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A755" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C755" s="4">
+        <v>2</v>
+      </c>
+      <c r="D755">
+        <v>4</v>
+      </c>
+      <c r="E755" t="s">
+        <v>521</v>
+      </c>
+      <c r="F755" t="s">
+        <v>25</v>
+      </c>
+      <c r="G755" t="s">
+        <v>21</v>
+      </c>
+      <c r="H755" t="s">
+        <v>26</v>
+      </c>
+      <c r="I755" t="s">
+        <v>27</v>
+      </c>
+      <c r="J755">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A756" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C756" s="4">
+        <v>2</v>
+      </c>
+      <c r="D756">
+        <v>4</v>
+      </c>
+      <c r="E756" t="s">
+        <v>521</v>
+      </c>
+      <c r="F756" t="s">
+        <v>190</v>
+      </c>
+      <c r="G756" t="s">
+        <v>150</v>
+      </c>
+      <c r="H756" t="s">
+        <v>192</v>
+      </c>
+      <c r="I756" t="s">
+        <v>191</v>
+      </c>
+      <c r="J756">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A757" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C757" s="4">
+        <v>2</v>
+      </c>
+      <c r="D757">
+        <v>4</v>
+      </c>
+      <c r="E757" t="s">
+        <v>521</v>
+      </c>
+      <c r="F757" t="s">
+        <v>20</v>
+      </c>
+      <c r="G757" t="s">
+        <v>21</v>
+      </c>
+      <c r="H757" t="s">
+        <v>24</v>
+      </c>
+      <c r="I757" t="s">
+        <v>23</v>
+      </c>
+      <c r="J757">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A758" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C758" s="4">
+        <v>2</v>
+      </c>
+      <c r="D758">
+        <v>5</v>
+      </c>
+      <c r="E758" t="s">
+        <v>522</v>
+      </c>
+      <c r="F758" t="s">
+        <v>25</v>
+      </c>
+      <c r="G758" t="s">
+        <v>21</v>
+      </c>
+      <c r="H758" t="s">
+        <v>26</v>
+      </c>
+      <c r="I758" t="s">
+        <v>27</v>
+      </c>
+      <c r="J758">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A759" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C759" s="4">
+        <v>2</v>
+      </c>
+      <c r="D759">
+        <v>5</v>
+      </c>
+      <c r="E759" t="s">
+        <v>522</v>
+      </c>
+      <c r="F759" t="s">
+        <v>190</v>
+      </c>
+      <c r="G759" t="s">
+        <v>150</v>
+      </c>
+      <c r="H759" t="s">
+        <v>192</v>
+      </c>
+      <c r="I759" t="s">
+        <v>191</v>
+      </c>
+      <c r="J759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A760" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C760" s="4">
+        <v>2</v>
+      </c>
+      <c r="D760">
+        <v>5</v>
+      </c>
+      <c r="E760" t="s">
+        <v>522</v>
+      </c>
+      <c r="F760" t="s">
+        <v>20</v>
+      </c>
+      <c r="G760" t="s">
+        <v>21</v>
+      </c>
+      <c r="H760" t="s">
+        <v>24</v>
+      </c>
+      <c r="I760" t="s">
+        <v>23</v>
+      </c>
+      <c r="J760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A761" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C761" s="4">
+        <v>2</v>
+      </c>
+      <c r="D761">
+        <v>6</v>
+      </c>
+      <c r="E761" t="s">
+        <v>523</v>
+      </c>
+      <c r="F761" t="s">
+        <v>25</v>
+      </c>
+      <c r="G761" t="s">
+        <v>21</v>
+      </c>
+      <c r="H761" t="s">
+        <v>26</v>
+      </c>
+      <c r="I761" t="s">
+        <v>27</v>
+      </c>
+      <c r="J761">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A762" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C762" s="4">
+        <v>2</v>
+      </c>
+      <c r="D762">
+        <v>6</v>
+      </c>
+      <c r="E762" t="s">
+        <v>523</v>
+      </c>
+      <c r="F762" t="s">
+        <v>190</v>
+      </c>
+      <c r="G762" t="s">
+        <v>150</v>
+      </c>
+      <c r="H762" t="s">
+        <v>192</v>
+      </c>
+      <c r="I762" t="s">
+        <v>191</v>
+      </c>
+      <c r="J762">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A763" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C763" s="4">
+        <v>2</v>
+      </c>
+      <c r="D763">
+        <v>6</v>
+      </c>
+      <c r="E763" t="s">
+        <v>523</v>
+      </c>
+      <c r="F763" t="s">
+        <v>20</v>
+      </c>
+      <c r="G763" t="s">
+        <v>21</v>
+      </c>
+      <c r="H763" t="s">
+        <v>24</v>
+      </c>
+      <c r="I763" t="s">
+        <v>23</v>
+      </c>
+      <c r="J763">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A764" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C764" s="4">
+        <v>2</v>
+      </c>
+      <c r="D764">
+        <v>6</v>
+      </c>
+      <c r="E764" t="s">
+        <v>523</v>
+      </c>
+      <c r="F764" t="s">
+        <v>87</v>
+      </c>
+      <c r="G764" t="s">
+        <v>88</v>
+      </c>
+      <c r="H764" t="s">
+        <v>89</v>
+      </c>
+      <c r="I764" t="s">
+        <v>90</v>
+      </c>
+      <c r="J764">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A765" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C765" s="4">
+        <v>2</v>
+      </c>
+      <c r="D765">
+        <v>7</v>
+      </c>
+      <c r="E765" t="s">
+        <v>524</v>
+      </c>
+      <c r="F765" t="s">
+        <v>25</v>
+      </c>
+      <c r="G765" t="s">
+        <v>21</v>
+      </c>
+      <c r="H765" t="s">
+        <v>26</v>
+      </c>
+      <c r="I765" t="s">
+        <v>27</v>
+      </c>
+      <c r="J765">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A766" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C766" s="4">
+        <v>2</v>
+      </c>
+      <c r="D766">
+        <v>7</v>
+      </c>
+      <c r="E766" t="s">
+        <v>524</v>
+      </c>
+      <c r="F766" t="s">
+        <v>190</v>
+      </c>
+      <c r="G766" t="s">
+        <v>150</v>
+      </c>
+      <c r="H766" t="s">
+        <v>192</v>
+      </c>
+      <c r="I766" t="s">
+        <v>191</v>
+      </c>
+      <c r="J766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A767" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C767" s="4">
+        <v>2</v>
+      </c>
+      <c r="D767">
+        <v>7</v>
+      </c>
+      <c r="E767" t="s">
+        <v>524</v>
+      </c>
+      <c r="F767" t="s">
+        <v>256</v>
+      </c>
+      <c r="G767" t="s">
+        <v>81</v>
+      </c>
+      <c r="H767" t="s">
+        <v>221</v>
+      </c>
+      <c r="I767" t="s">
+        <v>249</v>
+      </c>
+      <c r="J767">
+        <v>1</v>
+      </c>
+      <c r="K767" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A768" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C768" s="4">
+        <v>2</v>
+      </c>
+      <c r="D768">
+        <v>7</v>
+      </c>
+      <c r="E768" t="s">
+        <v>524</v>
+      </c>
+      <c r="F768" t="s">
+        <v>87</v>
+      </c>
+      <c r="G768" t="s">
+        <v>525</v>
+      </c>
+      <c r="H768" t="s">
+        <v>89</v>
+      </c>
+      <c r="I768" t="s">
+        <v>90</v>
+      </c>
+      <c r="J768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A769" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C769" s="4">
+        <v>2</v>
+      </c>
+      <c r="D769">
+        <v>8</v>
+      </c>
+      <c r="E769" t="s">
+        <v>526</v>
+      </c>
+      <c r="F769" t="s">
+        <v>20</v>
+      </c>
+      <c r="G769" t="s">
+        <v>21</v>
+      </c>
+      <c r="H769" t="s">
+        <v>24</v>
+      </c>
+      <c r="I769" t="s">
+        <v>23</v>
+      </c>
+      <c r="J769">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A770" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C770" s="4">
+        <v>2</v>
+      </c>
+      <c r="D770">
+        <v>8</v>
+      </c>
+      <c r="E770" t="s">
+        <v>526</v>
+      </c>
+      <c r="F770" t="s">
+        <v>256</v>
+      </c>
+      <c r="G770" t="s">
+        <v>259</v>
+      </c>
+      <c r="H770" t="s">
+        <v>221</v>
+      </c>
+      <c r="I770" t="s">
+        <v>249</v>
+      </c>
+      <c r="J770">
+        <v>1</v>
+      </c>
+      <c r="K770" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A771" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C771" s="4">
+        <v>2</v>
+      </c>
+      <c r="D771">
+        <v>9</v>
+      </c>
+      <c r="E771" t="s">
+        <v>527</v>
+      </c>
+      <c r="F771" t="s">
+        <v>20</v>
+      </c>
+      <c r="G771" t="s">
+        <v>21</v>
+      </c>
+      <c r="H771" t="s">
+        <v>24</v>
+      </c>
+      <c r="I771" t="s">
+        <v>23</v>
+      </c>
+      <c r="J771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A772" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C772" s="4">
+        <v>2</v>
+      </c>
+      <c r="D772">
+        <v>9</v>
+      </c>
+      <c r="E772" t="s">
+        <v>527</v>
+      </c>
+      <c r="F772" t="s">
+        <v>256</v>
+      </c>
+      <c r="G772" t="s">
+        <v>259</v>
+      </c>
+      <c r="H772" t="s">
+        <v>221</v>
+      </c>
+      <c r="I772" t="s">
+        <v>249</v>
+      </c>
+      <c r="J772">
+        <v>2</v>
+      </c>
+      <c r="K772" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A773" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C773" s="4">
+        <v>2</v>
+      </c>
+      <c r="D773">
+        <v>9</v>
+      </c>
+      <c r="E773" t="s">
+        <v>527</v>
+      </c>
+      <c r="F773" t="s">
+        <v>280</v>
+      </c>
+      <c r="G773" t="s">
+        <v>117</v>
+      </c>
+      <c r="H773" t="s">
+        <v>284</v>
+      </c>
+      <c r="I773" t="s">
+        <v>298</v>
+      </c>
+      <c r="J773">
+        <v>1</v>
+      </c>
+      <c r="K773" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A774" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C774" s="4">
+        <v>2</v>
+      </c>
+      <c r="D774">
+        <v>10</v>
+      </c>
+      <c r="E774" t="s">
+        <v>528</v>
+      </c>
+      <c r="F774" t="s">
+        <v>87</v>
+      </c>
+      <c r="G774" t="s">
+        <v>88</v>
+      </c>
+      <c r="H774" t="s">
+        <v>89</v>
+      </c>
+      <c r="I774" t="s">
+        <v>90</v>
+      </c>
+      <c r="J774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A775" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C775" s="4">
+        <v>2</v>
+      </c>
+      <c r="D775">
+        <v>10</v>
+      </c>
+      <c r="E775" t="s">
+        <v>528</v>
+      </c>
+      <c r="F775" t="s">
+        <v>113</v>
+      </c>
+      <c r="G775" t="s">
+        <v>33</v>
+      </c>
+      <c r="H775" t="s">
+        <v>114</v>
+      </c>
+      <c r="I775" t="s">
+        <v>115</v>
+      </c>
+      <c r="J775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A776" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C776" s="4">
+        <v>2</v>
+      </c>
+      <c r="D776">
+        <v>11</v>
+      </c>
+      <c r="E776" t="s">
+        <v>529</v>
+      </c>
+      <c r="F776" t="s">
+        <v>87</v>
+      </c>
+      <c r="G776" t="s">
+        <v>88</v>
+      </c>
+      <c r="H776" t="s">
+        <v>89</v>
+      </c>
+      <c r="I776" t="s">
+        <v>90</v>
+      </c>
+      <c r="J776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A777" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C777" s="4">
+        <v>2</v>
+      </c>
+      <c r="D777">
+        <v>12</v>
+      </c>
+      <c r="E777" t="s">
+        <v>530</v>
+      </c>
+      <c r="F777" t="s">
+        <v>87</v>
+      </c>
+      <c r="G777" t="s">
+        <v>88</v>
+      </c>
+      <c r="H777" t="s">
+        <v>89</v>
+      </c>
+      <c r="I777" t="s">
+        <v>90</v>
+      </c>
+      <c r="J777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A778" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C778" s="4">
+        <v>2</v>
+      </c>
+      <c r="D778">
+        <v>12</v>
+      </c>
+      <c r="E778" t="s">
+        <v>530</v>
+      </c>
+      <c r="F778" t="s">
+        <v>39</v>
+      </c>
+      <c r="G778" t="s">
+        <v>103</v>
+      </c>
+      <c r="H778" t="s">
+        <v>41</v>
+      </c>
+      <c r="I778" t="s">
+        <v>40</v>
+      </c>
+      <c r="J778">
+        <v>1</v>
+      </c>
+      <c r="K778" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A779" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C779" s="4">
+        <v>2</v>
+      </c>
+      <c r="D779">
+        <v>13</v>
+      </c>
+      <c r="E779" t="s">
+        <v>531</v>
+      </c>
+      <c r="F779" t="s">
+        <v>39</v>
+      </c>
+      <c r="G779" t="s">
+        <v>103</v>
+      </c>
+      <c r="H779" t="s">
+        <v>41</v>
+      </c>
+      <c r="I779" t="s">
+        <v>40</v>
+      </c>
+      <c r="J779">
+        <v>3</v>
+      </c>
+      <c r="K779" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A780" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C780" s="4">
+        <v>2</v>
+      </c>
+      <c r="D780">
+        <v>14</v>
+      </c>
+      <c r="E780" t="s">
+        <v>532</v>
+      </c>
+      <c r="F780" t="s">
+        <v>39</v>
+      </c>
+      <c r="G780" t="s">
+        <v>103</v>
+      </c>
+      <c r="H780" t="s">
+        <v>41</v>
+      </c>
+      <c r="I780" t="s">
+        <v>40</v>
+      </c>
+      <c r="J780">
+        <v>1</v>
+      </c>
+      <c r="K780" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A781" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C781" s="4">
+        <v>2</v>
+      </c>
+      <c r="D781">
+        <v>15</v>
+      </c>
+      <c r="E781" t="s">
+        <v>533</v>
+      </c>
+      <c r="F781" t="s">
+        <v>87</v>
+      </c>
+      <c r="G781" t="s">
+        <v>88</v>
+      </c>
+      <c r="H781" t="s">
+        <v>89</v>
+      </c>
+      <c r="I781" t="s">
+        <v>90</v>
+      </c>
+      <c r="J781">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A782" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C782" s="4">
+        <v>2</v>
+      </c>
+      <c r="D782">
+        <v>16</v>
+      </c>
+      <c r="E782" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4991" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="614">
   <si>
     <t>date</t>
   </si>
@@ -1620,7 +1620,244 @@
     <t>GOPR0204.MP4_025.png</t>
   </si>
   <si>
-    <t>GOPR0204.MP4_026.png</t>
+    <t>GOPR0203.MP4_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR0203.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_015.png</t>
+  </si>
+  <si>
+    <t>Longspine Squirrelfish</t>
+  </si>
+  <si>
+    <t>Holocentrus rufus</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_022.png</t>
+  </si>
+  <si>
+    <t>Blue Cromis</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_026.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_027.png</t>
+  </si>
+  <si>
+    <t>GOPR9941.MP4_028.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_026.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anisotremus </t>
+  </si>
+  <si>
+    <t>Anisotremu virginicus</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_027.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_028.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anisotremus virgnicus </t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_029.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_030.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_031.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_032.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_033.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_034.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_035.png</t>
+  </si>
+  <si>
+    <t>GOPR9942.MP4_036.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_010.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_016.png</t>
+  </si>
+  <si>
+    <t>Casesar Grunt</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_017.png</t>
+  </si>
+  <si>
+    <t>aurolineatum</t>
+  </si>
+  <si>
+    <t>Haemulon aurolineatum</t>
+  </si>
+  <si>
+    <t>Tomtate</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR9943.MP4_026.png</t>
   </si>
 </sst>
 </file>
@@ -1971,11 +2208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W782"/>
+  <dimension ref="A1:W945"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F782" sqref="F782"/>
+      <pane ySplit="1" topLeftCell="A937" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A944" sqref="A944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27867,14 +28104,5314 @@
         <v>429</v>
       </c>
       <c r="C782" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D782">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E782" t="s">
         <v>534</v>
       </c>
+      <c r="F782" t="s">
+        <v>29</v>
+      </c>
+      <c r="G782" t="s">
+        <v>60</v>
+      </c>
+      <c r="H782" t="s">
+        <v>28</v>
+      </c>
+      <c r="I782" t="s">
+        <v>30</v>
+      </c>
+      <c r="J782">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A783" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C783" s="4">
+        <v>3</v>
+      </c>
+      <c r="D783">
+        <v>1</v>
+      </c>
+      <c r="E783" t="s">
+        <v>534</v>
+      </c>
+      <c r="F783" t="s">
+        <v>341</v>
+      </c>
+      <c r="G783" t="s">
+        <v>203</v>
+      </c>
+      <c r="H783" t="s">
+        <v>342</v>
+      </c>
+      <c r="I783" t="s">
+        <v>343</v>
+      </c>
+      <c r="J783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A784" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C784" s="4">
+        <v>3</v>
+      </c>
+      <c r="D784">
+        <v>1</v>
+      </c>
+      <c r="E784" t="s">
+        <v>534</v>
+      </c>
+      <c r="F784" t="s">
+        <v>25</v>
+      </c>
+      <c r="G784" t="s">
+        <v>21</v>
+      </c>
+      <c r="H784" t="s">
+        <v>26</v>
+      </c>
+      <c r="I784" t="s">
+        <v>27</v>
+      </c>
+      <c r="J784">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A785" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C785" s="4">
+        <v>3</v>
+      </c>
+      <c r="D785">
+        <v>1</v>
+      </c>
+      <c r="E785" t="s">
+        <v>534</v>
+      </c>
+      <c r="F785" t="s">
+        <v>190</v>
+      </c>
+      <c r="G785" t="s">
+        <v>150</v>
+      </c>
+      <c r="H785" t="s">
+        <v>192</v>
+      </c>
+      <c r="I785" t="s">
+        <v>191</v>
+      </c>
+      <c r="J785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A786" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C786" s="4">
+        <v>3</v>
+      </c>
+      <c r="D786">
+        <v>2</v>
+      </c>
+      <c r="E786" t="s">
+        <v>535</v>
+      </c>
+      <c r="F786" t="s">
+        <v>29</v>
+      </c>
+      <c r="G786" t="s">
+        <v>31</v>
+      </c>
+      <c r="H786" t="s">
+        <v>28</v>
+      </c>
+      <c r="I786" t="s">
+        <v>30</v>
+      </c>
+      <c r="J786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A787" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C787" s="4">
+        <v>3</v>
+      </c>
+      <c r="D787">
+        <v>2</v>
+      </c>
+      <c r="E787" t="s">
+        <v>535</v>
+      </c>
+      <c r="F787" t="s">
+        <v>25</v>
+      </c>
+      <c r="G787" t="s">
+        <v>21</v>
+      </c>
+      <c r="H787" t="s">
+        <v>26</v>
+      </c>
+      <c r="I787" t="s">
+        <v>27</v>
+      </c>
+      <c r="J787">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A788" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C788" s="4">
+        <v>3</v>
+      </c>
+      <c r="D788">
+        <v>2</v>
+      </c>
+      <c r="E788" t="s">
+        <v>535</v>
+      </c>
+      <c r="F788" t="s">
+        <v>190</v>
+      </c>
+      <c r="G788" t="s">
+        <v>150</v>
+      </c>
+      <c r="H788" t="s">
+        <v>192</v>
+      </c>
+      <c r="I788" t="s">
+        <v>191</v>
+      </c>
+      <c r="J788">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A789" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C789" s="4">
+        <v>3</v>
+      </c>
+      <c r="D789">
+        <v>3</v>
+      </c>
+      <c r="E789" t="s">
+        <v>536</v>
+      </c>
+      <c r="F789" t="s">
+        <v>25</v>
+      </c>
+      <c r="G789" t="s">
+        <v>21</v>
+      </c>
+      <c r="H789" t="s">
+        <v>26</v>
+      </c>
+      <c r="I789" t="s">
+        <v>27</v>
+      </c>
+      <c r="J789">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A790" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C790" s="4">
+        <v>3</v>
+      </c>
+      <c r="D790">
+        <v>3</v>
+      </c>
+      <c r="E790" t="s">
+        <v>536</v>
+      </c>
+      <c r="F790" t="s">
+        <v>190</v>
+      </c>
+      <c r="G790" t="s">
+        <v>150</v>
+      </c>
+      <c r="H790" t="s">
+        <v>192</v>
+      </c>
+      <c r="I790" t="s">
+        <v>191</v>
+      </c>
+      <c r="J790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A791" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C791" s="4">
+        <v>3</v>
+      </c>
+      <c r="D791">
+        <v>4</v>
+      </c>
+      <c r="E791" t="s">
+        <v>537</v>
+      </c>
+      <c r="F791" t="s">
+        <v>25</v>
+      </c>
+      <c r="G791" t="s">
+        <v>21</v>
+      </c>
+      <c r="H791" t="s">
+        <v>26</v>
+      </c>
+      <c r="I791" t="s">
+        <v>27</v>
+      </c>
+      <c r="J791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A792" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C792" s="4">
+        <v>3</v>
+      </c>
+      <c r="D792">
+        <v>4</v>
+      </c>
+      <c r="E792" t="s">
+        <v>537</v>
+      </c>
+      <c r="F792" t="s">
+        <v>20</v>
+      </c>
+      <c r="G792" t="s">
+        <v>21</v>
+      </c>
+      <c r="H792" t="s">
+        <v>24</v>
+      </c>
+      <c r="I792" t="s">
+        <v>23</v>
+      </c>
+      <c r="J792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A793" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C793" s="4">
+        <v>3</v>
+      </c>
+      <c r="D793">
+        <v>4</v>
+      </c>
+      <c r="E793" t="s">
+        <v>537</v>
+      </c>
+      <c r="F793" t="s">
+        <v>202</v>
+      </c>
+      <c r="G793" t="s">
+        <v>318</v>
+      </c>
+      <c r="H793" t="s">
+        <v>204</v>
+      </c>
+      <c r="I793" t="s">
+        <v>205</v>
+      </c>
+      <c r="J793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A794" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C794" s="4">
+        <v>3</v>
+      </c>
+      <c r="D794">
+        <v>4</v>
+      </c>
+      <c r="E794" t="s">
+        <v>537</v>
+      </c>
+      <c r="F794" t="s">
+        <v>341</v>
+      </c>
+      <c r="G794" t="s">
+        <v>318</v>
+      </c>
+      <c r="H794" t="s">
+        <v>342</v>
+      </c>
+      <c r="I794" t="s">
+        <v>343</v>
+      </c>
+      <c r="J794">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A795" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C795" s="4">
+        <v>3</v>
+      </c>
+      <c r="D795">
+        <v>4</v>
+      </c>
+      <c r="E795" t="s">
+        <v>537</v>
+      </c>
+      <c r="F795" t="s">
+        <v>87</v>
+      </c>
+      <c r="G795" t="s">
+        <v>88</v>
+      </c>
+      <c r="H795" t="s">
+        <v>89</v>
+      </c>
+      <c r="I795" t="s">
+        <v>90</v>
+      </c>
+      <c r="J795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A796" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C796" s="4">
+        <v>3</v>
+      </c>
+      <c r="D796">
+        <v>5</v>
+      </c>
+      <c r="E796" t="s">
+        <v>538</v>
+      </c>
+      <c r="F796" t="s">
+        <v>25</v>
+      </c>
+      <c r="G796" t="s">
+        <v>21</v>
+      </c>
+      <c r="H796" t="s">
+        <v>26</v>
+      </c>
+      <c r="I796" t="s">
+        <v>27</v>
+      </c>
+      <c r="J796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A797" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C797" s="4">
+        <v>3</v>
+      </c>
+      <c r="D797">
+        <v>5</v>
+      </c>
+      <c r="E797" t="s">
+        <v>538</v>
+      </c>
+      <c r="F797" t="s">
+        <v>46</v>
+      </c>
+      <c r="G797" t="s">
+        <v>21</v>
+      </c>
+      <c r="H797" t="s">
+        <v>48</v>
+      </c>
+      <c r="I797" t="s">
+        <v>49</v>
+      </c>
+      <c r="J797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A798" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C798" s="4">
+        <v>3</v>
+      </c>
+      <c r="D798">
+        <v>5</v>
+      </c>
+      <c r="E798" t="s">
+        <v>538</v>
+      </c>
+      <c r="F798" t="s">
+        <v>20</v>
+      </c>
+      <c r="G798" t="s">
+        <v>21</v>
+      </c>
+      <c r="H798" t="s">
+        <v>24</v>
+      </c>
+      <c r="I798" t="s">
+        <v>23</v>
+      </c>
+      <c r="J798">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A799" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C799" s="4">
+        <v>3</v>
+      </c>
+      <c r="D799">
+        <v>5</v>
+      </c>
+      <c r="E799" t="s">
+        <v>538</v>
+      </c>
+      <c r="F799" t="s">
+        <v>190</v>
+      </c>
+      <c r="G799" t="s">
+        <v>150</v>
+      </c>
+      <c r="H799" t="s">
+        <v>192</v>
+      </c>
+      <c r="I799" t="s">
+        <v>191</v>
+      </c>
+      <c r="J799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A800" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C800" s="4">
+        <v>3</v>
+      </c>
+      <c r="D800">
+        <v>6</v>
+      </c>
+      <c r="E800" t="s">
+        <v>539</v>
+      </c>
+      <c r="F800" t="s">
+        <v>25</v>
+      </c>
+      <c r="G800" t="s">
+        <v>21</v>
+      </c>
+      <c r="H800" t="s">
+        <v>26</v>
+      </c>
+      <c r="I800" t="s">
+        <v>27</v>
+      </c>
+      <c r="J800">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A801" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C801" s="4">
+        <v>3</v>
+      </c>
+      <c r="D801">
+        <v>6</v>
+      </c>
+      <c r="E801" t="s">
+        <v>539</v>
+      </c>
+      <c r="F801" t="s">
+        <v>46</v>
+      </c>
+      <c r="G801" t="s">
+        <v>21</v>
+      </c>
+      <c r="H801" t="s">
+        <v>48</v>
+      </c>
+      <c r="I801" t="s">
+        <v>400</v>
+      </c>
+      <c r="J801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A802" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C802" s="4">
+        <v>3</v>
+      </c>
+      <c r="D802">
+        <v>7</v>
+      </c>
+      <c r="E802" t="s">
+        <v>540</v>
+      </c>
+      <c r="F802" t="s">
+        <v>25</v>
+      </c>
+      <c r="G802" t="s">
+        <v>21</v>
+      </c>
+      <c r="H802" t="s">
+        <v>26</v>
+      </c>
+      <c r="I802" t="s">
+        <v>27</v>
+      </c>
+      <c r="J802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A803" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C803" s="4">
+        <v>3</v>
+      </c>
+      <c r="D803">
+        <v>7</v>
+      </c>
+      <c r="E803" t="s">
+        <v>540</v>
+      </c>
+      <c r="F803" t="s">
+        <v>20</v>
+      </c>
+      <c r="G803" t="s">
+        <v>21</v>
+      </c>
+      <c r="H803" t="s">
+        <v>24</v>
+      </c>
+      <c r="I803" t="s">
+        <v>23</v>
+      </c>
+      <c r="J803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A804" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C804" s="4">
+        <v>3</v>
+      </c>
+      <c r="D804">
+        <v>8</v>
+      </c>
+      <c r="E804" t="s">
+        <v>541</v>
+      </c>
+      <c r="F804" t="s">
+        <v>25</v>
+      </c>
+      <c r="G804" t="s">
+        <v>21</v>
+      </c>
+      <c r="H804" t="s">
+        <v>26</v>
+      </c>
+      <c r="I804" t="s">
+        <v>27</v>
+      </c>
+      <c r="J804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A805" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C805" s="4">
+        <v>3</v>
+      </c>
+      <c r="D805">
+        <v>8</v>
+      </c>
+      <c r="E805" t="s">
+        <v>541</v>
+      </c>
+      <c r="F805" t="s">
+        <v>20</v>
+      </c>
+      <c r="G805" t="s">
+        <v>21</v>
+      </c>
+      <c r="H805" t="s">
+        <v>24</v>
+      </c>
+      <c r="I805" t="s">
+        <v>23</v>
+      </c>
+      <c r="J805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A806" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C806" s="4">
+        <v>3</v>
+      </c>
+      <c r="D806">
+        <v>8</v>
+      </c>
+      <c r="E806" t="s">
+        <v>541</v>
+      </c>
+      <c r="F806" t="s">
+        <v>46</v>
+      </c>
+      <c r="G806" t="s">
+        <v>21</v>
+      </c>
+      <c r="H806" t="s">
+        <v>48</v>
+      </c>
+      <c r="I806" t="s">
+        <v>49</v>
+      </c>
+      <c r="J806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A807" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C807" s="4">
+        <v>3</v>
+      </c>
+      <c r="D807">
+        <v>9</v>
+      </c>
+      <c r="E807" t="s">
+        <v>542</v>
+      </c>
+      <c r="F807" t="s">
+        <v>46</v>
+      </c>
+      <c r="G807" t="s">
+        <v>21</v>
+      </c>
+      <c r="H807" t="s">
+        <v>48</v>
+      </c>
+      <c r="I807" t="s">
+        <v>49</v>
+      </c>
+      <c r="J807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A808" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C808" s="4">
+        <v>3</v>
+      </c>
+      <c r="D808">
+        <v>9</v>
+      </c>
+      <c r="E808" t="s">
+        <v>542</v>
+      </c>
+      <c r="F808" t="s">
+        <v>20</v>
+      </c>
+      <c r="G808" t="s">
+        <v>21</v>
+      </c>
+      <c r="H808" t="s">
+        <v>24</v>
+      </c>
+      <c r="I808" t="s">
+        <v>23</v>
+      </c>
+      <c r="J808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A809" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C809" s="4">
+        <v>3</v>
+      </c>
+      <c r="D809">
+        <v>10</v>
+      </c>
+      <c r="E809" t="s">
+        <v>543</v>
+      </c>
+      <c r="F809" t="s">
+        <v>314</v>
+      </c>
+      <c r="G809" t="s">
+        <v>314</v>
+      </c>
+      <c r="H809" t="s">
+        <v>314</v>
+      </c>
+      <c r="I809" t="s">
+        <v>314</v>
+      </c>
+      <c r="J809" t="s">
+        <v>314</v>
+      </c>
+      <c r="K809" t="s">
+        <v>314</v>
+      </c>
+      <c r="L809" t="s">
+        <v>314</v>
+      </c>
+      <c r="M809" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A810" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C810" s="4">
+        <v>3</v>
+      </c>
+      <c r="D810">
+        <v>11</v>
+      </c>
+      <c r="E810" t="s">
+        <v>544</v>
+      </c>
+      <c r="F810" t="s">
+        <v>251</v>
+      </c>
+      <c r="G810" t="s">
+        <v>175</v>
+      </c>
+      <c r="H810" t="s">
+        <v>252</v>
+      </c>
+      <c r="I810" t="s">
+        <v>253</v>
+      </c>
+      <c r="J810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A811" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C811" s="4">
+        <v>3</v>
+      </c>
+      <c r="D811">
+        <v>11</v>
+      </c>
+      <c r="E811" t="s">
+        <v>544</v>
+      </c>
+      <c r="F811" t="s">
+        <v>87</v>
+      </c>
+      <c r="G811" t="s">
+        <v>88</v>
+      </c>
+      <c r="H811" t="s">
+        <v>89</v>
+      </c>
+      <c r="I811" t="s">
+        <v>90</v>
+      </c>
+      <c r="J811">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A812" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C812" s="4">
+        <v>3</v>
+      </c>
+      <c r="D812">
+        <v>12</v>
+      </c>
+      <c r="E812" t="s">
+        <v>545</v>
+      </c>
+      <c r="F812" t="s">
+        <v>251</v>
+      </c>
+      <c r="G812" t="s">
+        <v>175</v>
+      </c>
+      <c r="H812" t="s">
+        <v>252</v>
+      </c>
+      <c r="I812" t="s">
+        <v>253</v>
+      </c>
+      <c r="J812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A813" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C813" s="4">
+        <v>3</v>
+      </c>
+      <c r="D813">
+        <v>12</v>
+      </c>
+      <c r="E813" t="s">
+        <v>545</v>
+      </c>
+      <c r="F813" t="s">
+        <v>87</v>
+      </c>
+      <c r="G813" t="s">
+        <v>88</v>
+      </c>
+      <c r="H813" t="s">
+        <v>89</v>
+      </c>
+      <c r="I813" t="s">
+        <v>90</v>
+      </c>
+      <c r="J813">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A814" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C814" s="4">
+        <v>3</v>
+      </c>
+      <c r="D814">
+        <v>13</v>
+      </c>
+      <c r="E814" t="s">
+        <v>546</v>
+      </c>
+      <c r="F814" t="s">
+        <v>251</v>
+      </c>
+      <c r="G814" t="s">
+        <v>175</v>
+      </c>
+      <c r="H814" t="s">
+        <v>252</v>
+      </c>
+      <c r="I814" t="s">
+        <v>253</v>
+      </c>
+      <c r="J814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A815" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C815" s="4">
+        <v>3</v>
+      </c>
+      <c r="D815">
+        <v>13</v>
+      </c>
+      <c r="E815" t="s">
+        <v>546</v>
+      </c>
+      <c r="F815" t="s">
+        <v>87</v>
+      </c>
+      <c r="G815" t="s">
+        <v>88</v>
+      </c>
+      <c r="H815" t="s">
+        <v>89</v>
+      </c>
+      <c r="I815" t="s">
+        <v>90</v>
+      </c>
+      <c r="J815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A816" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C816" s="4">
+        <v>3</v>
+      </c>
+      <c r="D816">
+        <v>14</v>
+      </c>
+      <c r="E816" t="s">
+        <v>547</v>
+      </c>
+      <c r="F816" t="s">
+        <v>87</v>
+      </c>
+      <c r="G816" t="s">
+        <v>88</v>
+      </c>
+      <c r="H816" t="s">
+        <v>89</v>
+      </c>
+      <c r="I816" t="s">
+        <v>90</v>
+      </c>
+      <c r="J816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A817" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C817" s="4">
+        <v>3</v>
+      </c>
+      <c r="D817">
+        <v>15</v>
+      </c>
+      <c r="E817" t="s">
+        <v>548</v>
+      </c>
+      <c r="F817" t="s">
+        <v>87</v>
+      </c>
+      <c r="G817" t="s">
+        <v>88</v>
+      </c>
+      <c r="H817" t="s">
+        <v>89</v>
+      </c>
+      <c r="I817" t="s">
+        <v>90</v>
+      </c>
+      <c r="J817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A818" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C818" s="4">
+        <v>3</v>
+      </c>
+      <c r="D818">
+        <v>15</v>
+      </c>
+      <c r="E818" t="s">
+        <v>548</v>
+      </c>
+      <c r="F818" t="s">
+        <v>39</v>
+      </c>
+      <c r="G818" t="s">
+        <v>103</v>
+      </c>
+      <c r="H818" t="s">
+        <v>41</v>
+      </c>
+      <c r="I818" t="s">
+        <v>40</v>
+      </c>
+      <c r="J818">
+        <v>2</v>
+      </c>
+      <c r="K818" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A819" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C819" s="4">
+        <v>3</v>
+      </c>
+      <c r="D819">
+        <v>16</v>
+      </c>
+      <c r="E819" t="s">
+        <v>549</v>
+      </c>
+      <c r="F819" t="s">
+        <v>251</v>
+      </c>
+      <c r="G819" t="s">
+        <v>175</v>
+      </c>
+      <c r="H819" t="s">
+        <v>252</v>
+      </c>
+      <c r="I819" t="s">
+        <v>253</v>
+      </c>
+      <c r="J819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A820" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C820" s="4">
+        <v>1</v>
+      </c>
+      <c r="D820">
+        <v>1</v>
+      </c>
+      <c r="E820" t="s">
+        <v>550</v>
+      </c>
+      <c r="F820" t="s">
+        <v>314</v>
+      </c>
+      <c r="G820" t="s">
+        <v>314</v>
+      </c>
+      <c r="H820" t="s">
+        <v>314</v>
+      </c>
+      <c r="I820" t="s">
+        <v>314</v>
+      </c>
+      <c r="J820" t="s">
+        <v>314</v>
+      </c>
+      <c r="K820" t="s">
+        <v>314</v>
+      </c>
+      <c r="L820" t="s">
+        <v>314</v>
+      </c>
+      <c r="M820" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A821" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B821" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C821" s="4">
+        <v>1</v>
+      </c>
+      <c r="D821">
+        <v>2</v>
+      </c>
+      <c r="E821" t="s">
+        <v>551</v>
+      </c>
+      <c r="F821" t="s">
+        <v>314</v>
+      </c>
+      <c r="G821" t="s">
+        <v>314</v>
+      </c>
+      <c r="H821" t="s">
+        <v>314</v>
+      </c>
+      <c r="I821" t="s">
+        <v>314</v>
+      </c>
+      <c r="J821" t="s">
+        <v>314</v>
+      </c>
+      <c r="K821" t="s">
+        <v>314</v>
+      </c>
+      <c r="L821" t="s">
+        <v>314</v>
+      </c>
+      <c r="M821" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A822" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B822" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C822" s="4">
+        <v>1</v>
+      </c>
+      <c r="D822">
+        <v>3</v>
+      </c>
+      <c r="E822" t="s">
+        <v>552</v>
+      </c>
+      <c r="F822" t="s">
+        <v>314</v>
+      </c>
+      <c r="G822" t="s">
+        <v>314</v>
+      </c>
+      <c r="H822" t="s">
+        <v>314</v>
+      </c>
+      <c r="I822" t="s">
+        <v>314</v>
+      </c>
+      <c r="J822" t="s">
+        <v>314</v>
+      </c>
+      <c r="K822" t="s">
+        <v>314</v>
+      </c>
+      <c r="L822" t="s">
+        <v>314</v>
+      </c>
+      <c r="M822" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A823" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B823" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C823" s="4">
+        <v>1</v>
+      </c>
+      <c r="D823">
+        <v>4</v>
+      </c>
+      <c r="E823" t="s">
+        <v>553</v>
+      </c>
+      <c r="F823" t="s">
+        <v>314</v>
+      </c>
+      <c r="G823" t="s">
+        <v>314</v>
+      </c>
+      <c r="H823" t="s">
+        <v>314</v>
+      </c>
+      <c r="I823" t="s">
+        <v>314</v>
+      </c>
+      <c r="J823" t="s">
+        <v>314</v>
+      </c>
+      <c r="K823" t="s">
+        <v>314</v>
+      </c>
+      <c r="L823" t="s">
+        <v>314</v>
+      </c>
+      <c r="M823" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A824" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C824" s="4">
+        <v>1</v>
+      </c>
+      <c r="D824">
+        <v>5</v>
+      </c>
+      <c r="E824" t="s">
+        <v>554</v>
+      </c>
+      <c r="F824" t="s">
+        <v>555</v>
+      </c>
+      <c r="G824" t="s">
+        <v>95</v>
+      </c>
+      <c r="H824" t="s">
+        <v>111</v>
+      </c>
+      <c r="I824" t="s">
+        <v>556</v>
+      </c>
+      <c r="J824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A825" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C825" s="4">
+        <v>1</v>
+      </c>
+      <c r="D825">
+        <v>5</v>
+      </c>
+      <c r="E825" t="s">
+        <v>554</v>
+      </c>
+      <c r="F825" t="s">
+        <v>206</v>
+      </c>
+      <c r="G825" t="s">
+        <v>88</v>
+      </c>
+      <c r="H825" t="s">
+        <v>208</v>
+      </c>
+      <c r="I825" t="s">
+        <v>207</v>
+      </c>
+      <c r="J825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A826" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C826" s="4">
+        <v>1</v>
+      </c>
+      <c r="D826">
+        <v>5</v>
+      </c>
+      <c r="E826" t="s">
+        <v>554</v>
+      </c>
+      <c r="F826" t="s">
+        <v>25</v>
+      </c>
+      <c r="G826" t="s">
+        <v>21</v>
+      </c>
+      <c r="H826" t="s">
+        <v>26</v>
+      </c>
+      <c r="I826" t="s">
+        <v>27</v>
+      </c>
+      <c r="J826">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A827" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B827" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C827" s="4">
+        <v>1</v>
+      </c>
+      <c r="D827">
+        <v>6</v>
+      </c>
+      <c r="E827" t="s">
+        <v>557</v>
+      </c>
+      <c r="F827" t="s">
+        <v>555</v>
+      </c>
+      <c r="G827" t="s">
+        <v>95</v>
+      </c>
+      <c r="H827" t="s">
+        <v>111</v>
+      </c>
+      <c r="I827" t="s">
+        <v>556</v>
+      </c>
+      <c r="J827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A828" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B828" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C828" s="4">
+        <v>1</v>
+      </c>
+      <c r="D828">
+        <v>6</v>
+      </c>
+      <c r="E828" t="s">
+        <v>557</v>
+      </c>
+      <c r="F828" t="s">
+        <v>25</v>
+      </c>
+      <c r="G828" t="s">
+        <v>21</v>
+      </c>
+      <c r="H828" t="s">
+        <v>26</v>
+      </c>
+      <c r="I828" t="s">
+        <v>27</v>
+      </c>
+      <c r="J828">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A829" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C829" s="4">
+        <v>1</v>
+      </c>
+      <c r="D829">
+        <v>6</v>
+      </c>
+      <c r="E829" t="s">
+        <v>557</v>
+      </c>
+      <c r="F829" t="s">
+        <v>20</v>
+      </c>
+      <c r="G829" t="s">
+        <v>47</v>
+      </c>
+      <c r="H829" t="s">
+        <v>24</v>
+      </c>
+      <c r="I829" t="s">
+        <v>23</v>
+      </c>
+      <c r="J829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A830" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C830" s="4">
+        <v>1</v>
+      </c>
+      <c r="D830">
+        <v>7</v>
+      </c>
+      <c r="E830" t="s">
+        <v>558</v>
+      </c>
+      <c r="F830" t="s">
+        <v>25</v>
+      </c>
+      <c r="G830" t="s">
+        <v>21</v>
+      </c>
+      <c r="H830" t="s">
+        <v>26</v>
+      </c>
+      <c r="I830" t="s">
+        <v>27</v>
+      </c>
+      <c r="J830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A831" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B831" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C831" s="4">
+        <v>1</v>
+      </c>
+      <c r="D831">
+        <v>7</v>
+      </c>
+      <c r="E831" t="s">
+        <v>558</v>
+      </c>
+      <c r="F831" t="s">
+        <v>20</v>
+      </c>
+      <c r="G831" t="s">
+        <v>21</v>
+      </c>
+      <c r="H831" t="s">
+        <v>24</v>
+      </c>
+      <c r="I831" t="s">
+        <v>23</v>
+      </c>
+      <c r="J831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A832" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B832" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C832" s="4">
+        <v>1</v>
+      </c>
+      <c r="D832">
+        <v>8</v>
+      </c>
+      <c r="E832" t="s">
+        <v>559</v>
+      </c>
+      <c r="F832" t="s">
+        <v>25</v>
+      </c>
+      <c r="G832" t="s">
+        <v>21</v>
+      </c>
+      <c r="H832" t="s">
+        <v>26</v>
+      </c>
+      <c r="I832" t="s">
+        <v>27</v>
+      </c>
+      <c r="J832">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A833" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C833" s="4">
+        <v>1</v>
+      </c>
+      <c r="D833">
+        <v>8</v>
+      </c>
+      <c r="E833" t="s">
+        <v>559</v>
+      </c>
+      <c r="F833" t="s">
+        <v>20</v>
+      </c>
+      <c r="G833" t="s">
+        <v>21</v>
+      </c>
+      <c r="H833" t="s">
+        <v>24</v>
+      </c>
+      <c r="I833" t="s">
+        <v>23</v>
+      </c>
+      <c r="J833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A834" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C834" s="4">
+        <v>1</v>
+      </c>
+      <c r="D834">
+        <v>8</v>
+      </c>
+      <c r="E834" t="s">
+        <v>559</v>
+      </c>
+      <c r="F834" t="s">
+        <v>251</v>
+      </c>
+      <c r="G834" t="s">
+        <v>175</v>
+      </c>
+      <c r="H834" t="s">
+        <v>252</v>
+      </c>
+      <c r="I834" t="s">
+        <v>253</v>
+      </c>
+      <c r="J834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A835" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B835" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C835" s="4">
+        <v>1</v>
+      </c>
+      <c r="D835">
+        <v>8</v>
+      </c>
+      <c r="E835" t="s">
+        <v>559</v>
+      </c>
+      <c r="F835" t="s">
+        <v>256</v>
+      </c>
+      <c r="G835" t="s">
+        <v>81</v>
+      </c>
+      <c r="H835" t="s">
+        <v>221</v>
+      </c>
+      <c r="I835" t="s">
+        <v>249</v>
+      </c>
+      <c r="J835">
+        <v>1</v>
+      </c>
+      <c r="K835" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A836" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C836" s="4">
+        <v>1</v>
+      </c>
+      <c r="D836">
+        <v>9</v>
+      </c>
+      <c r="E836" t="s">
+        <v>560</v>
+      </c>
+      <c r="F836" t="s">
+        <v>251</v>
+      </c>
+      <c r="G836" t="s">
+        <v>175</v>
+      </c>
+      <c r="H836" t="s">
+        <v>252</v>
+      </c>
+      <c r="I836" t="s">
+        <v>253</v>
+      </c>
+      <c r="J836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A837" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B837" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C837" s="4">
+        <v>1</v>
+      </c>
+      <c r="D837">
+        <v>9</v>
+      </c>
+      <c r="E837" t="s">
+        <v>560</v>
+      </c>
+      <c r="F837" t="s">
+        <v>256</v>
+      </c>
+      <c r="G837" t="s">
+        <v>81</v>
+      </c>
+      <c r="H837" t="s">
+        <v>221</v>
+      </c>
+      <c r="I837" t="s">
+        <v>249</v>
+      </c>
+      <c r="J837">
+        <v>1</v>
+      </c>
+      <c r="K837" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A838" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C838" s="4">
+        <v>1</v>
+      </c>
+      <c r="D838">
+        <v>10</v>
+      </c>
+      <c r="E838" t="s">
+        <v>561</v>
+      </c>
+      <c r="F838" t="s">
+        <v>87</v>
+      </c>
+      <c r="G838" t="s">
+        <v>525</v>
+      </c>
+      <c r="H838" t="s">
+        <v>89</v>
+      </c>
+      <c r="I838" t="s">
+        <v>90</v>
+      </c>
+      <c r="J838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A839" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B839" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C839" s="4">
+        <v>1</v>
+      </c>
+      <c r="D839">
+        <v>11</v>
+      </c>
+      <c r="E839" t="s">
+        <v>562</v>
+      </c>
+      <c r="F839" t="s">
+        <v>39</v>
+      </c>
+      <c r="G839" t="s">
+        <v>103</v>
+      </c>
+      <c r="H839" t="s">
+        <v>41</v>
+      </c>
+      <c r="I839" t="s">
+        <v>40</v>
+      </c>
+      <c r="J839">
+        <v>1</v>
+      </c>
+      <c r="K839" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A840" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C840" s="4">
+        <v>1</v>
+      </c>
+      <c r="D840">
+        <v>11</v>
+      </c>
+      <c r="E840" t="s">
+        <v>562</v>
+      </c>
+      <c r="F840" t="s">
+        <v>202</v>
+      </c>
+      <c r="G840" t="s">
+        <v>318</v>
+      </c>
+      <c r="H840" t="s">
+        <v>204</v>
+      </c>
+      <c r="I840" t="s">
+        <v>205</v>
+      </c>
+      <c r="J840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A841" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B841" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C841" s="4">
+        <v>1</v>
+      </c>
+      <c r="D841">
+        <v>12</v>
+      </c>
+      <c r="E841" t="s">
+        <v>563</v>
+      </c>
+      <c r="F841" t="s">
+        <v>113</v>
+      </c>
+      <c r="G841" t="s">
+        <v>310</v>
+      </c>
+      <c r="H841" t="s">
+        <v>114</v>
+      </c>
+      <c r="I841" t="s">
+        <v>115</v>
+      </c>
+      <c r="J841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A842" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C842" s="4">
+        <v>1</v>
+      </c>
+      <c r="D842">
+        <v>12</v>
+      </c>
+      <c r="E842" t="s">
+        <v>563</v>
+      </c>
+      <c r="F842" t="s">
+        <v>564</v>
+      </c>
+      <c r="G842" t="s">
+        <v>203</v>
+      </c>
+      <c r="H842" t="s">
+        <v>204</v>
+      </c>
+      <c r="I842" t="s">
+        <v>205</v>
+      </c>
+      <c r="J842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A843" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B843" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C843" s="4">
+        <v>1</v>
+      </c>
+      <c r="D843">
+        <v>13</v>
+      </c>
+      <c r="E843" t="s">
+        <v>565</v>
+      </c>
+      <c r="F843" t="s">
+        <v>202</v>
+      </c>
+      <c r="G843" t="s">
+        <v>203</v>
+      </c>
+      <c r="H843" t="s">
+        <v>204</v>
+      </c>
+      <c r="I843" t="s">
+        <v>205</v>
+      </c>
+      <c r="J843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A844" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C844" s="4">
+        <v>1</v>
+      </c>
+      <c r="D844">
+        <v>13</v>
+      </c>
+      <c r="E844" t="s">
+        <v>565</v>
+      </c>
+      <c r="F844" t="s">
+        <v>113</v>
+      </c>
+      <c r="G844" t="s">
+        <v>33</v>
+      </c>
+      <c r="H844" t="s">
+        <v>114</v>
+      </c>
+      <c r="I844" t="s">
+        <v>115</v>
+      </c>
+      <c r="J844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A845" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B845" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C845" s="4">
+        <v>1</v>
+      </c>
+      <c r="D845">
+        <v>13</v>
+      </c>
+      <c r="E845" t="s">
+        <v>565</v>
+      </c>
+      <c r="F845" t="s">
+        <v>129</v>
+      </c>
+      <c r="G845" t="s">
+        <v>117</v>
+      </c>
+      <c r="H845" t="s">
+        <v>131</v>
+      </c>
+      <c r="I845" t="s">
+        <v>132</v>
+      </c>
+      <c r="J845">
+        <v>1</v>
+      </c>
+      <c r="K845" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A846" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B846" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C846" s="4">
+        <v>1</v>
+      </c>
+      <c r="D846">
+        <v>13</v>
+      </c>
+      <c r="E846" t="s">
+        <v>565</v>
+      </c>
+      <c r="F846" t="s">
+        <v>87</v>
+      </c>
+      <c r="G846" t="s">
+        <v>88</v>
+      </c>
+      <c r="H846" t="s">
+        <v>89</v>
+      </c>
+      <c r="I846" t="s">
+        <v>90</v>
+      </c>
+      <c r="J846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A847" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B847" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C847" s="4">
+        <v>1</v>
+      </c>
+      <c r="D847">
+        <v>13</v>
+      </c>
+      <c r="E847" t="s">
+        <v>565</v>
+      </c>
+      <c r="F847" t="s">
+        <v>39</v>
+      </c>
+      <c r="G847" t="s">
+        <v>103</v>
+      </c>
+      <c r="H847" t="s">
+        <v>41</v>
+      </c>
+      <c r="I847" t="s">
+        <v>40</v>
+      </c>
+      <c r="J847">
+        <v>10</v>
+      </c>
+      <c r="K847" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A848" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B848" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C848" s="4">
+        <v>1</v>
+      </c>
+      <c r="D848">
+        <v>14</v>
+      </c>
+      <c r="E848" t="s">
+        <v>566</v>
+      </c>
+      <c r="F848" t="s">
+        <v>251</v>
+      </c>
+      <c r="G848" t="s">
+        <v>175</v>
+      </c>
+      <c r="H848" t="s">
+        <v>252</v>
+      </c>
+      <c r="I848" t="s">
+        <v>253</v>
+      </c>
+      <c r="J848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A849" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B849" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C849" s="4">
+        <v>1</v>
+      </c>
+      <c r="D849">
+        <v>14</v>
+      </c>
+      <c r="E849" t="s">
+        <v>566</v>
+      </c>
+      <c r="F849" t="s">
+        <v>129</v>
+      </c>
+      <c r="G849" t="s">
+        <v>117</v>
+      </c>
+      <c r="H849" t="s">
+        <v>131</v>
+      </c>
+      <c r="I849" t="s">
+        <v>132</v>
+      </c>
+      <c r="J849">
+        <v>2</v>
+      </c>
+      <c r="K849" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A850" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C850" s="4">
+        <v>1</v>
+      </c>
+      <c r="D850">
+        <v>14</v>
+      </c>
+      <c r="E850" t="s">
+        <v>566</v>
+      </c>
+      <c r="F850" t="s">
+        <v>39</v>
+      </c>
+      <c r="G850" t="s">
+        <v>103</v>
+      </c>
+      <c r="H850" t="s">
+        <v>41</v>
+      </c>
+      <c r="I850" t="s">
+        <v>40</v>
+      </c>
+      <c r="J850">
+        <v>1</v>
+      </c>
+      <c r="K850" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A851" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B851" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C851" s="4">
+        <v>1</v>
+      </c>
+      <c r="D851">
+        <v>15</v>
+      </c>
+      <c r="E851" t="s">
+        <v>567</v>
+      </c>
+      <c r="F851" t="s">
+        <v>39</v>
+      </c>
+      <c r="G851" t="s">
+        <v>103</v>
+      </c>
+      <c r="H851" t="s">
+        <v>41</v>
+      </c>
+      <c r="I851" t="s">
+        <v>40</v>
+      </c>
+      <c r="J851">
+        <v>1</v>
+      </c>
+      <c r="K851" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A852" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C852" s="4">
+        <v>1</v>
+      </c>
+      <c r="D852">
+        <v>15</v>
+      </c>
+      <c r="E852" t="s">
+        <v>567</v>
+      </c>
+      <c r="F852" t="s">
+        <v>87</v>
+      </c>
+      <c r="G852" t="s">
+        <v>108</v>
+      </c>
+      <c r="H852" t="s">
+        <v>89</v>
+      </c>
+      <c r="I852" t="s">
+        <v>90</v>
+      </c>
+      <c r="J852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A853" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C853" s="4">
+        <v>1</v>
+      </c>
+      <c r="D853">
+        <v>16</v>
+      </c>
+      <c r="E853" t="s">
+        <v>568</v>
+      </c>
+      <c r="F853" t="s">
+        <v>39</v>
+      </c>
+      <c r="G853" t="s">
+        <v>103</v>
+      </c>
+      <c r="H853" t="s">
+        <v>41</v>
+      </c>
+      <c r="I853" t="s">
+        <v>40</v>
+      </c>
+      <c r="J853">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A854" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C854" s="4">
+        <v>1</v>
+      </c>
+      <c r="D854">
+        <v>16</v>
+      </c>
+      <c r="E854" t="s">
+        <v>568</v>
+      </c>
+      <c r="F854" t="s">
+        <v>251</v>
+      </c>
+      <c r="G854" t="s">
+        <v>175</v>
+      </c>
+      <c r="H854" t="s">
+        <v>252</v>
+      </c>
+      <c r="I854" t="s">
+        <v>253</v>
+      </c>
+      <c r="J854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A855" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C855" s="4">
+        <v>1</v>
+      </c>
+      <c r="D855">
+        <v>17</v>
+      </c>
+      <c r="E855" t="s">
+        <v>569</v>
+      </c>
+      <c r="F855" t="s">
+        <v>251</v>
+      </c>
+      <c r="G855" t="s">
+        <v>175</v>
+      </c>
+      <c r="H855" t="s">
+        <v>252</v>
+      </c>
+      <c r="I855" t="s">
+        <v>253</v>
+      </c>
+      <c r="J855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A856" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C856" s="4">
+        <v>1</v>
+      </c>
+      <c r="D856">
+        <v>18</v>
+      </c>
+      <c r="E856" t="s">
+        <v>570</v>
+      </c>
+      <c r="F856" t="s">
+        <v>251</v>
+      </c>
+      <c r="G856" t="s">
+        <v>175</v>
+      </c>
+      <c r="H856" t="s">
+        <v>252</v>
+      </c>
+      <c r="I856" t="s">
+        <v>253</v>
+      </c>
+      <c r="J856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A857" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C857" s="4">
+        <v>2</v>
+      </c>
+      <c r="D857">
+        <v>1</v>
+      </c>
+      <c r="E857" t="s">
+        <v>571</v>
+      </c>
+      <c r="F857" t="s">
+        <v>94</v>
+      </c>
+      <c r="G857" t="s">
+        <v>95</v>
+      </c>
+      <c r="H857" t="s">
+        <v>96</v>
+      </c>
+      <c r="I857" t="s">
+        <v>97</v>
+      </c>
+      <c r="J857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A858" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B858" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C858" s="4">
+        <v>2</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858" t="s">
+        <v>571</v>
+      </c>
+      <c r="F858" t="s">
+        <v>29</v>
+      </c>
+      <c r="G858" t="s">
+        <v>31</v>
+      </c>
+      <c r="H858" t="s">
+        <v>28</v>
+      </c>
+      <c r="I858" t="s">
+        <v>30</v>
+      </c>
+      <c r="J858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A859" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B859" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C859" s="4">
+        <v>2</v>
+      </c>
+      <c r="D859">
+        <v>2</v>
+      </c>
+      <c r="E859" t="s">
+        <v>572</v>
+      </c>
+      <c r="F859" t="s">
+        <v>29</v>
+      </c>
+      <c r="G859" t="s">
+        <v>31</v>
+      </c>
+      <c r="H859" t="s">
+        <v>28</v>
+      </c>
+      <c r="I859" t="s">
+        <v>30</v>
+      </c>
+      <c r="J859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A860" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B860" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C860" s="4">
+        <v>2</v>
+      </c>
+      <c r="D860">
+        <v>3</v>
+      </c>
+      <c r="E860" t="s">
+        <v>573</v>
+      </c>
+      <c r="F860" t="s">
+        <v>314</v>
+      </c>
+      <c r="G860" t="s">
+        <v>314</v>
+      </c>
+      <c r="H860" t="s">
+        <v>314</v>
+      </c>
+      <c r="I860" t="s">
+        <v>314</v>
+      </c>
+      <c r="J860" t="s">
+        <v>314</v>
+      </c>
+      <c r="K860" t="s">
+        <v>314</v>
+      </c>
+      <c r="L860" t="s">
+        <v>314</v>
+      </c>
+      <c r="M860" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A861" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B861" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C861" s="4">
+        <v>2</v>
+      </c>
+      <c r="D861">
+        <v>4</v>
+      </c>
+      <c r="E861" t="s">
+        <v>574</v>
+      </c>
+      <c r="F861" t="s">
+        <v>25</v>
+      </c>
+      <c r="G861" t="s">
+        <v>21</v>
+      </c>
+      <c r="H861" t="s">
+        <v>26</v>
+      </c>
+      <c r="I861" t="s">
+        <v>27</v>
+      </c>
+      <c r="J861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A862" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B862" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C862" s="4">
+        <v>2</v>
+      </c>
+      <c r="D862">
+        <v>5</v>
+      </c>
+      <c r="E862" t="s">
+        <v>575</v>
+      </c>
+      <c r="F862" t="s">
+        <v>25</v>
+      </c>
+      <c r="G862" t="s">
+        <v>21</v>
+      </c>
+      <c r="H862" t="s">
+        <v>26</v>
+      </c>
+      <c r="I862" t="s">
+        <v>27</v>
+      </c>
+      <c r="J862">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A863" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B863" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C863" s="4">
+        <v>2</v>
+      </c>
+      <c r="D863">
+        <v>5</v>
+      </c>
+      <c r="E863" t="s">
+        <v>575</v>
+      </c>
+      <c r="F863" t="s">
+        <v>190</v>
+      </c>
+      <c r="G863" t="s">
+        <v>150</v>
+      </c>
+      <c r="H863" t="s">
+        <v>192</v>
+      </c>
+      <c r="I863" t="s">
+        <v>191</v>
+      </c>
+      <c r="J863">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A864" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B864" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C864" s="4">
+        <v>2</v>
+      </c>
+      <c r="D864">
+        <v>5</v>
+      </c>
+      <c r="E864" t="s">
+        <v>575</v>
+      </c>
+      <c r="F864" t="s">
+        <v>146</v>
+      </c>
+      <c r="G864" t="s">
+        <v>21</v>
+      </c>
+      <c r="H864" t="s">
+        <v>147</v>
+      </c>
+      <c r="I864" t="s">
+        <v>148</v>
+      </c>
+      <c r="J864">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A865" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B865" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C865" s="4">
+        <v>2</v>
+      </c>
+      <c r="D865">
+        <v>6</v>
+      </c>
+      <c r="E865" t="s">
+        <v>576</v>
+      </c>
+      <c r="F865" t="s">
+        <v>190</v>
+      </c>
+      <c r="G865" t="s">
+        <v>150</v>
+      </c>
+      <c r="H865" t="s">
+        <v>192</v>
+      </c>
+      <c r="I865" t="s">
+        <v>191</v>
+      </c>
+      <c r="J865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A866" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B866" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C866" s="4">
+        <v>2</v>
+      </c>
+      <c r="D866">
+        <v>6</v>
+      </c>
+      <c r="E866" t="s">
+        <v>576</v>
+      </c>
+      <c r="F866" t="s">
+        <v>25</v>
+      </c>
+      <c r="G866" t="s">
+        <v>21</v>
+      </c>
+      <c r="H866" t="s">
+        <v>26</v>
+      </c>
+      <c r="I866" t="s">
+        <v>27</v>
+      </c>
+      <c r="J866">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A867" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B867" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C867" s="4">
+        <v>2</v>
+      </c>
+      <c r="D867">
+        <v>6</v>
+      </c>
+      <c r="E867" t="s">
+        <v>576</v>
+      </c>
+      <c r="F867" t="s">
+        <v>146</v>
+      </c>
+      <c r="G867" t="s">
+        <v>21</v>
+      </c>
+      <c r="H867" t="s">
+        <v>147</v>
+      </c>
+      <c r="I867" t="s">
+        <v>148</v>
+      </c>
+      <c r="J867">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A868" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B868" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C868" s="4">
+        <v>2</v>
+      </c>
+      <c r="D868">
+        <v>7</v>
+      </c>
+      <c r="E868" t="s">
+        <v>577</v>
+      </c>
+      <c r="F868" t="s">
+        <v>190</v>
+      </c>
+      <c r="G868" t="s">
+        <v>150</v>
+      </c>
+      <c r="H868" t="s">
+        <v>192</v>
+      </c>
+      <c r="I868" t="s">
+        <v>191</v>
+      </c>
+      <c r="J868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A869" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C869" s="4">
+        <v>2</v>
+      </c>
+      <c r="D869">
+        <v>7</v>
+      </c>
+      <c r="E869" t="s">
+        <v>577</v>
+      </c>
+      <c r="F869" t="s">
+        <v>25</v>
+      </c>
+      <c r="G869" t="s">
+        <v>21</v>
+      </c>
+      <c r="H869" t="s">
+        <v>26</v>
+      </c>
+      <c r="I869" t="s">
+        <v>27</v>
+      </c>
+      <c r="J869">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A870" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C870" s="4">
+        <v>2</v>
+      </c>
+      <c r="D870">
+        <v>7</v>
+      </c>
+      <c r="E870" t="s">
+        <v>577</v>
+      </c>
+      <c r="F870" t="s">
+        <v>146</v>
+      </c>
+      <c r="G870" t="s">
+        <v>21</v>
+      </c>
+      <c r="H870" t="s">
+        <v>147</v>
+      </c>
+      <c r="I870" t="s">
+        <v>148</v>
+      </c>
+      <c r="J870">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A871" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B871" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C871" s="4">
+        <v>2</v>
+      </c>
+      <c r="D871">
+        <v>8</v>
+      </c>
+      <c r="E871" t="s">
+        <v>578</v>
+      </c>
+      <c r="F871" t="s">
+        <v>25</v>
+      </c>
+      <c r="G871" t="s">
+        <v>21</v>
+      </c>
+      <c r="H871" t="s">
+        <v>26</v>
+      </c>
+      <c r="I871" t="s">
+        <v>27</v>
+      </c>
+      <c r="J871">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A872" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C872" s="4">
+        <v>2</v>
+      </c>
+      <c r="D872">
+        <v>8</v>
+      </c>
+      <c r="E872" t="s">
+        <v>578</v>
+      </c>
+      <c r="F872" t="s">
+        <v>146</v>
+      </c>
+      <c r="G872" t="s">
+        <v>21</v>
+      </c>
+      <c r="H872" t="s">
+        <v>147</v>
+      </c>
+      <c r="I872" t="s">
+        <v>148</v>
+      </c>
+      <c r="J872">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A873" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C873" s="4">
+        <v>2</v>
+      </c>
+      <c r="D873">
+        <v>9</v>
+      </c>
+      <c r="E873" t="s">
+        <v>579</v>
+      </c>
+      <c r="F873" t="s">
+        <v>146</v>
+      </c>
+      <c r="G873" t="s">
+        <v>21</v>
+      </c>
+      <c r="H873" t="s">
+        <v>147</v>
+      </c>
+      <c r="I873" t="s">
+        <v>148</v>
+      </c>
+      <c r="J873">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A874" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B874" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C874" s="4">
+        <v>2</v>
+      </c>
+      <c r="D874">
+        <v>9</v>
+      </c>
+      <c r="E874" t="s">
+        <v>579</v>
+      </c>
+      <c r="F874" t="s">
+        <v>20</v>
+      </c>
+      <c r="G874" t="s">
+        <v>21</v>
+      </c>
+      <c r="H874" t="s">
+        <v>24</v>
+      </c>
+      <c r="I874" t="s">
+        <v>23</v>
+      </c>
+      <c r="J874">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A875" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C875" s="4">
+        <v>2</v>
+      </c>
+      <c r="D875">
+        <v>9</v>
+      </c>
+      <c r="E875" t="s">
+        <v>579</v>
+      </c>
+      <c r="F875" t="s">
+        <v>155</v>
+      </c>
+      <c r="G875" t="s">
+        <v>580</v>
+      </c>
+      <c r="H875" t="s">
+        <v>156</v>
+      </c>
+      <c r="I875" t="s">
+        <v>581</v>
+      </c>
+      <c r="J875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A876" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C876" s="4">
+        <v>2</v>
+      </c>
+      <c r="D876">
+        <v>9</v>
+      </c>
+      <c r="E876" t="s">
+        <v>579</v>
+      </c>
+      <c r="F876" t="s">
+        <v>149</v>
+      </c>
+      <c r="G876" t="s">
+        <v>150</v>
+      </c>
+      <c r="H876" t="s">
+        <v>151</v>
+      </c>
+      <c r="I876" t="s">
+        <v>152</v>
+      </c>
+      <c r="J876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A877" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B877" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C877" s="4">
+        <v>2</v>
+      </c>
+      <c r="D877">
+        <v>10</v>
+      </c>
+      <c r="E877" t="s">
+        <v>582</v>
+      </c>
+      <c r="F877" t="s">
+        <v>20</v>
+      </c>
+      <c r="G877" t="s">
+        <v>21</v>
+      </c>
+      <c r="H877" t="s">
+        <v>24</v>
+      </c>
+      <c r="I877" t="s">
+        <v>23</v>
+      </c>
+      <c r="J877">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A878" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B878" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C878" s="4">
+        <v>2</v>
+      </c>
+      <c r="D878">
+        <v>10</v>
+      </c>
+      <c r="E878" t="s">
+        <v>582</v>
+      </c>
+      <c r="F878" t="s">
+        <v>25</v>
+      </c>
+      <c r="G878" t="s">
+        <v>21</v>
+      </c>
+      <c r="H878" t="s">
+        <v>26</v>
+      </c>
+      <c r="I878" t="s">
+        <v>27</v>
+      </c>
+      <c r="J878">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A879" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B879" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C879" s="4">
+        <v>2</v>
+      </c>
+      <c r="D879">
+        <v>10</v>
+      </c>
+      <c r="E879" t="s">
+        <v>582</v>
+      </c>
+      <c r="F879" t="s">
+        <v>149</v>
+      </c>
+      <c r="G879" t="s">
+        <v>150</v>
+      </c>
+      <c r="H879" t="s">
+        <v>151</v>
+      </c>
+      <c r="I879" t="s">
+        <v>152</v>
+      </c>
+      <c r="J879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A880" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C880" s="4">
+        <v>2</v>
+      </c>
+      <c r="D880">
+        <v>10</v>
+      </c>
+      <c r="E880" t="s">
+        <v>582</v>
+      </c>
+      <c r="F880" t="s">
+        <v>155</v>
+      </c>
+      <c r="G880" t="s">
+        <v>158</v>
+      </c>
+      <c r="H880" t="s">
+        <v>156</v>
+      </c>
+      <c r="I880" t="s">
+        <v>157</v>
+      </c>
+      <c r="J880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A881" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C881" s="4">
+        <v>2</v>
+      </c>
+      <c r="D881">
+        <v>11</v>
+      </c>
+      <c r="E881" t="s">
+        <v>583</v>
+      </c>
+      <c r="F881" t="s">
+        <v>155</v>
+      </c>
+      <c r="G881" t="s">
+        <v>158</v>
+      </c>
+      <c r="H881" t="s">
+        <v>156</v>
+      </c>
+      <c r="I881" t="s">
+        <v>584</v>
+      </c>
+      <c r="J881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A882" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C882" s="4">
+        <v>2</v>
+      </c>
+      <c r="D882">
+        <v>11</v>
+      </c>
+      <c r="E882" t="s">
+        <v>583</v>
+      </c>
+      <c r="F882" t="s">
+        <v>25</v>
+      </c>
+      <c r="G882" t="s">
+        <v>21</v>
+      </c>
+      <c r="H882" t="s">
+        <v>26</v>
+      </c>
+      <c r="I882" t="s">
+        <v>27</v>
+      </c>
+      <c r="J882">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A883" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C883" s="4">
+        <v>2</v>
+      </c>
+      <c r="D883">
+        <v>11</v>
+      </c>
+      <c r="E883" t="s">
+        <v>583</v>
+      </c>
+      <c r="F883" t="s">
+        <v>20</v>
+      </c>
+      <c r="G883" t="s">
+        <v>21</v>
+      </c>
+      <c r="H883" t="s">
+        <v>24</v>
+      </c>
+      <c r="I883" t="s">
+        <v>23</v>
+      </c>
+      <c r="J883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A884" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B884" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C884" s="4">
+        <v>2</v>
+      </c>
+      <c r="D884">
+        <v>11</v>
+      </c>
+      <c r="E884" t="s">
+        <v>583</v>
+      </c>
+      <c r="F884" t="s">
+        <v>344</v>
+      </c>
+      <c r="G884" t="s">
+        <v>175</v>
+      </c>
+      <c r="H884" t="s">
+        <v>345</v>
+      </c>
+      <c r="I884" t="s">
+        <v>346</v>
+      </c>
+      <c r="J884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A885" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B885" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C885" s="4">
+        <v>2</v>
+      </c>
+      <c r="D885">
+        <v>12</v>
+      </c>
+      <c r="E885" t="s">
+        <v>585</v>
+      </c>
+      <c r="F885" t="s">
+        <v>155</v>
+      </c>
+      <c r="G885" t="s">
+        <v>158</v>
+      </c>
+      <c r="H885" t="s">
+        <v>156</v>
+      </c>
+      <c r="I885" t="s">
+        <v>157</v>
+      </c>
+      <c r="J885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A886" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B886" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C886" s="4">
+        <v>2</v>
+      </c>
+      <c r="D886">
+        <v>13</v>
+      </c>
+      <c r="E886" t="s">
+        <v>586</v>
+      </c>
+      <c r="F886" t="s">
+        <v>155</v>
+      </c>
+      <c r="G886" t="s">
+        <v>158</v>
+      </c>
+      <c r="H886" t="s">
+        <v>156</v>
+      </c>
+      <c r="I886" t="s">
+        <v>157</v>
+      </c>
+      <c r="J886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A887" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B887" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C887" s="4">
+        <v>2</v>
+      </c>
+      <c r="D887">
+        <v>14</v>
+      </c>
+      <c r="E887" t="s">
+        <v>587</v>
+      </c>
+      <c r="F887" t="s">
+        <v>87</v>
+      </c>
+      <c r="G887" t="s">
+        <v>88</v>
+      </c>
+      <c r="H887" t="s">
+        <v>89</v>
+      </c>
+      <c r="I887" t="s">
+        <v>90</v>
+      </c>
+      <c r="J887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A888" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B888" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C888" s="4">
+        <v>2</v>
+      </c>
+      <c r="D888">
+        <v>15</v>
+      </c>
+      <c r="E888" t="s">
+        <v>588</v>
+      </c>
+      <c r="F888" t="s">
+        <v>129</v>
+      </c>
+      <c r="G888" t="s">
+        <v>117</v>
+      </c>
+      <c r="H888" t="s">
+        <v>131</v>
+      </c>
+      <c r="I888" t="s">
+        <v>132</v>
+      </c>
+      <c r="J888">
+        <v>1</v>
+      </c>
+      <c r="K888" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A889" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C889" s="4">
+        <v>2</v>
+      </c>
+      <c r="D889">
+        <v>15</v>
+      </c>
+      <c r="E889" t="s">
+        <v>588</v>
+      </c>
+      <c r="F889" t="s">
+        <v>87</v>
+      </c>
+      <c r="G889" t="s">
+        <v>88</v>
+      </c>
+      <c r="H889" t="s">
+        <v>89</v>
+      </c>
+      <c r="I889" t="s">
+        <v>90</v>
+      </c>
+      <c r="J889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A890" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C890" s="4">
+        <v>2</v>
+      </c>
+      <c r="D890">
+        <v>16</v>
+      </c>
+      <c r="E890" t="s">
+        <v>589</v>
+      </c>
+      <c r="F890" t="s">
+        <v>54</v>
+      </c>
+      <c r="G890" t="s">
+        <v>55</v>
+      </c>
+      <c r="H890" t="s">
+        <v>56</v>
+      </c>
+      <c r="I890" t="s">
+        <v>57</v>
+      </c>
+      <c r="J890">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A891" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B891" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C891" s="4">
+        <v>2</v>
+      </c>
+      <c r="D891">
+        <v>16</v>
+      </c>
+      <c r="E891" t="s">
+        <v>589</v>
+      </c>
+      <c r="F891" t="s">
+        <v>174</v>
+      </c>
+      <c r="G891" t="s">
+        <v>175</v>
+      </c>
+      <c r="H891" t="s">
+        <v>176</v>
+      </c>
+      <c r="I891" t="s">
+        <v>177</v>
+      </c>
+      <c r="J891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A892" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C892" s="4">
+        <v>2</v>
+      </c>
+      <c r="D892">
+        <v>17</v>
+      </c>
+      <c r="E892" t="s">
+        <v>590</v>
+      </c>
+      <c r="F892" t="s">
+        <v>54</v>
+      </c>
+      <c r="G892" t="s">
+        <v>55</v>
+      </c>
+      <c r="H892" t="s">
+        <v>56</v>
+      </c>
+      <c r="I892" t="s">
+        <v>57</v>
+      </c>
+      <c r="J892">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A893" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B893" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C893" s="4">
+        <v>2</v>
+      </c>
+      <c r="D893">
+        <v>17</v>
+      </c>
+      <c r="E893" t="s">
+        <v>590</v>
+      </c>
+      <c r="F893" t="s">
+        <v>174</v>
+      </c>
+      <c r="G893" t="s">
+        <v>175</v>
+      </c>
+      <c r="H893" t="s">
+        <v>176</v>
+      </c>
+      <c r="I893" t="s">
+        <v>177</v>
+      </c>
+      <c r="J893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A894" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C894" s="4">
+        <v>2</v>
+      </c>
+      <c r="D894">
+        <v>18</v>
+      </c>
+      <c r="E894" t="s">
+        <v>591</v>
+      </c>
+      <c r="F894" t="s">
+        <v>174</v>
+      </c>
+      <c r="G894" t="s">
+        <v>175</v>
+      </c>
+      <c r="H894" t="s">
+        <v>176</v>
+      </c>
+      <c r="I894" t="s">
+        <v>177</v>
+      </c>
+      <c r="J894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A895" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B895" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C895" s="4">
+        <v>2</v>
+      </c>
+      <c r="D895">
+        <v>18</v>
+      </c>
+      <c r="E895" t="s">
+        <v>591</v>
+      </c>
+      <c r="F895" t="s">
+        <v>54</v>
+      </c>
+      <c r="G895" t="s">
+        <v>55</v>
+      </c>
+      <c r="H895" t="s">
+        <v>56</v>
+      </c>
+      <c r="I895" t="s">
+        <v>57</v>
+      </c>
+      <c r="J895">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A896" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B896" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C896" s="4">
+        <v>2</v>
+      </c>
+      <c r="D896">
+        <v>19</v>
+      </c>
+      <c r="E896" t="s">
+        <v>592</v>
+      </c>
+      <c r="F896" t="s">
+        <v>54</v>
+      </c>
+      <c r="G896" t="s">
+        <v>55</v>
+      </c>
+      <c r="H896" t="s">
+        <v>56</v>
+      </c>
+      <c r="I896" t="s">
+        <v>57</v>
+      </c>
+      <c r="J896">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A897" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B897" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C897" s="4">
+        <v>3</v>
+      </c>
+      <c r="D897">
+        <v>1</v>
+      </c>
+      <c r="E897" t="s">
+        <v>593</v>
+      </c>
+      <c r="F897" t="s">
+        <v>314</v>
+      </c>
+      <c r="G897" t="s">
+        <v>314</v>
+      </c>
+      <c r="H897" t="s">
+        <v>314</v>
+      </c>
+      <c r="I897" t="s">
+        <v>314</v>
+      </c>
+      <c r="J897" t="s">
+        <v>314</v>
+      </c>
+      <c r="K897" t="s">
+        <v>314</v>
+      </c>
+      <c r="L897" t="s">
+        <v>314</v>
+      </c>
+      <c r="M897" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A898" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C898" s="4">
+        <v>3</v>
+      </c>
+      <c r="D898">
+        <v>2</v>
+      </c>
+      <c r="E898" t="s">
+        <v>594</v>
+      </c>
+      <c r="F898" t="s">
+        <v>25</v>
+      </c>
+      <c r="G898" t="s">
+        <v>21</v>
+      </c>
+      <c r="H898" t="s">
+        <v>26</v>
+      </c>
+      <c r="I898" t="s">
+        <v>27</v>
+      </c>
+      <c r="J898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A899" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B899" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C899" s="4">
+        <v>3</v>
+      </c>
+      <c r="D899">
+        <v>2</v>
+      </c>
+      <c r="E899" t="s">
+        <v>594</v>
+      </c>
+      <c r="F899" t="s">
+        <v>206</v>
+      </c>
+      <c r="G899" t="s">
+        <v>88</v>
+      </c>
+      <c r="H899" t="s">
+        <v>208</v>
+      </c>
+      <c r="I899" t="s">
+        <v>216</v>
+      </c>
+      <c r="J899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A900" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C900" s="4">
+        <v>3</v>
+      </c>
+      <c r="D900">
+        <v>2</v>
+      </c>
+      <c r="E900" t="s">
+        <v>594</v>
+      </c>
+      <c r="F900" t="s">
+        <v>29</v>
+      </c>
+      <c r="G900" t="s">
+        <v>31</v>
+      </c>
+      <c r="H900" t="s">
+        <v>28</v>
+      </c>
+      <c r="I900" t="s">
+        <v>30</v>
+      </c>
+      <c r="J900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A901" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B901" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C901" s="4">
+        <v>3</v>
+      </c>
+      <c r="D901">
+        <v>3</v>
+      </c>
+      <c r="E901" t="s">
+        <v>595</v>
+      </c>
+      <c r="F901" t="s">
+        <v>25</v>
+      </c>
+      <c r="G901" t="s">
+        <v>21</v>
+      </c>
+      <c r="H901" t="s">
+        <v>26</v>
+      </c>
+      <c r="I901" t="s">
+        <v>27</v>
+      </c>
+      <c r="J901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A902" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C902" s="4">
+        <v>3</v>
+      </c>
+      <c r="D902">
+        <v>3</v>
+      </c>
+      <c r="E902" t="s">
+        <v>595</v>
+      </c>
+      <c r="F902" t="s">
+        <v>29</v>
+      </c>
+      <c r="G902" t="s">
+        <v>60</v>
+      </c>
+      <c r="H902" t="s">
+        <v>28</v>
+      </c>
+      <c r="I902" t="s">
+        <v>30</v>
+      </c>
+      <c r="J902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A903" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C903" s="4">
+        <v>3</v>
+      </c>
+      <c r="D903">
+        <v>3</v>
+      </c>
+      <c r="E903" t="s">
+        <v>595</v>
+      </c>
+      <c r="F903" t="s">
+        <v>206</v>
+      </c>
+      <c r="G903" t="s">
+        <v>108</v>
+      </c>
+      <c r="H903" t="s">
+        <v>210</v>
+      </c>
+      <c r="I903" t="s">
+        <v>216</v>
+      </c>
+      <c r="J903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A904" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C904" s="4">
+        <v>3</v>
+      </c>
+      <c r="D904">
+        <v>4</v>
+      </c>
+      <c r="E904" t="s">
+        <v>596</v>
+      </c>
+      <c r="F904" t="s">
+        <v>25</v>
+      </c>
+      <c r="G904" t="s">
+        <v>21</v>
+      </c>
+      <c r="H904" t="s">
+        <v>26</v>
+      </c>
+      <c r="I904" t="s">
+        <v>27</v>
+      </c>
+      <c r="J904">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A905" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C905" s="4">
+        <v>3</v>
+      </c>
+      <c r="D905">
+        <v>4</v>
+      </c>
+      <c r="E905" t="s">
+        <v>596</v>
+      </c>
+      <c r="F905" t="s">
+        <v>190</v>
+      </c>
+      <c r="G905" t="s">
+        <v>150</v>
+      </c>
+      <c r="H905" t="s">
+        <v>192</v>
+      </c>
+      <c r="I905" t="s">
+        <v>191</v>
+      </c>
+      <c r="J905">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A906" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C906" s="4">
+        <v>3</v>
+      </c>
+      <c r="D906">
+        <v>4</v>
+      </c>
+      <c r="E906" t="s">
+        <v>596</v>
+      </c>
+      <c r="F906" t="s">
+        <v>29</v>
+      </c>
+      <c r="G906" t="s">
+        <v>60</v>
+      </c>
+      <c r="H906" t="s">
+        <v>28</v>
+      </c>
+      <c r="I906" t="s">
+        <v>30</v>
+      </c>
+      <c r="J906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A907" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C907" s="4">
+        <v>3</v>
+      </c>
+      <c r="D907">
+        <v>4</v>
+      </c>
+      <c r="E907" t="s">
+        <v>596</v>
+      </c>
+      <c r="F907" t="s">
+        <v>51</v>
+      </c>
+      <c r="G907" t="s">
+        <v>21</v>
+      </c>
+      <c r="H907" t="s">
+        <v>52</v>
+      </c>
+      <c r="I907" t="s">
+        <v>53</v>
+      </c>
+      <c r="J907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A908" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C908" s="4">
+        <v>3</v>
+      </c>
+      <c r="D908">
+        <v>4</v>
+      </c>
+      <c r="E908" t="s">
+        <v>596</v>
+      </c>
+      <c r="F908" t="s">
+        <v>344</v>
+      </c>
+      <c r="G908" t="s">
+        <v>175</v>
+      </c>
+      <c r="H908" t="s">
+        <v>345</v>
+      </c>
+      <c r="I908" t="s">
+        <v>346</v>
+      </c>
+      <c r="J908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A909" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C909" s="4">
+        <v>3</v>
+      </c>
+      <c r="D909">
+        <v>5</v>
+      </c>
+      <c r="E909" t="s">
+        <v>597</v>
+      </c>
+      <c r="F909" t="s">
+        <v>190</v>
+      </c>
+      <c r="G909" t="s">
+        <v>150</v>
+      </c>
+      <c r="H909" t="s">
+        <v>192</v>
+      </c>
+      <c r="I909" t="s">
+        <v>191</v>
+      </c>
+      <c r="J909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A910" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C910" s="4">
+        <v>3</v>
+      </c>
+      <c r="D910">
+        <v>5</v>
+      </c>
+      <c r="E910" t="s">
+        <v>597</v>
+      </c>
+      <c r="F910" t="s">
+        <v>344</v>
+      </c>
+      <c r="G910" t="s">
+        <v>175</v>
+      </c>
+      <c r="H910" t="s">
+        <v>345</v>
+      </c>
+      <c r="I910" t="s">
+        <v>346</v>
+      </c>
+      <c r="J910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A911" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C911" s="4">
+        <v>3</v>
+      </c>
+      <c r="D911">
+        <v>5</v>
+      </c>
+      <c r="E911" t="s">
+        <v>597</v>
+      </c>
+      <c r="F911" t="s">
+        <v>25</v>
+      </c>
+      <c r="G911" t="s">
+        <v>21</v>
+      </c>
+      <c r="H911" t="s">
+        <v>26</v>
+      </c>
+      <c r="I911" t="s">
+        <v>27</v>
+      </c>
+      <c r="J911">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A912" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C912" s="4">
+        <v>3</v>
+      </c>
+      <c r="D912">
+        <v>5</v>
+      </c>
+      <c r="E912" t="s">
+        <v>597</v>
+      </c>
+      <c r="F912" t="s">
+        <v>51</v>
+      </c>
+      <c r="G912" t="s">
+        <v>21</v>
+      </c>
+      <c r="H912" t="s">
+        <v>52</v>
+      </c>
+      <c r="I912" t="s">
+        <v>53</v>
+      </c>
+      <c r="J912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A913" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C913" s="4">
+        <v>3</v>
+      </c>
+      <c r="D913">
+        <v>6</v>
+      </c>
+      <c r="E913" t="s">
+        <v>598</v>
+      </c>
+      <c r="F913" t="s">
+        <v>25</v>
+      </c>
+      <c r="G913" t="s">
+        <v>21</v>
+      </c>
+      <c r="H913" t="s">
+        <v>26</v>
+      </c>
+      <c r="I913" t="s">
+        <v>27</v>
+      </c>
+      <c r="J913">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A914" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C914" s="4">
+        <v>3</v>
+      </c>
+      <c r="D914">
+        <v>6</v>
+      </c>
+      <c r="E914" t="s">
+        <v>598</v>
+      </c>
+      <c r="F914" t="s">
+        <v>146</v>
+      </c>
+      <c r="G914" t="s">
+        <v>47</v>
+      </c>
+      <c r="H914" t="s">
+        <v>147</v>
+      </c>
+      <c r="I914" t="s">
+        <v>148</v>
+      </c>
+      <c r="J914">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A915" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C915" s="4">
+        <v>3</v>
+      </c>
+      <c r="D915">
+        <v>6</v>
+      </c>
+      <c r="E915" t="s">
+        <v>598</v>
+      </c>
+      <c r="F915" t="s">
+        <v>54</v>
+      </c>
+      <c r="G915" t="s">
+        <v>55</v>
+      </c>
+      <c r="H915" t="s">
+        <v>56</v>
+      </c>
+      <c r="I915" t="s">
+        <v>57</v>
+      </c>
+      <c r="J915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A916" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C916" s="4">
+        <v>3</v>
+      </c>
+      <c r="D916">
+        <v>6</v>
+      </c>
+      <c r="E916" t="s">
+        <v>598</v>
+      </c>
+      <c r="F916" t="s">
+        <v>190</v>
+      </c>
+      <c r="G916" t="s">
+        <v>150</v>
+      </c>
+      <c r="H916" t="s">
+        <v>192</v>
+      </c>
+      <c r="I916" t="s">
+        <v>191</v>
+      </c>
+      <c r="J916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A917" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B917" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C917" s="4">
+        <v>3</v>
+      </c>
+      <c r="D917">
+        <v>7</v>
+      </c>
+      <c r="E917" t="s">
+        <v>599</v>
+      </c>
+      <c r="F917" t="s">
+        <v>167</v>
+      </c>
+      <c r="G917" t="s">
+        <v>168</v>
+      </c>
+      <c r="H917" t="s">
+        <v>169</v>
+      </c>
+      <c r="I917" t="s">
+        <v>170</v>
+      </c>
+      <c r="J917">
+        <v>1</v>
+      </c>
+      <c r="K917" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A918" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C918" s="4">
+        <v>3</v>
+      </c>
+      <c r="D918">
+        <v>7</v>
+      </c>
+      <c r="E918" t="s">
+        <v>599</v>
+      </c>
+      <c r="F918" t="s">
+        <v>54</v>
+      </c>
+      <c r="G918" t="s">
+        <v>55</v>
+      </c>
+      <c r="H918" t="s">
+        <v>56</v>
+      </c>
+      <c r="I918" t="s">
+        <v>57</v>
+      </c>
+      <c r="J918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A919" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C919" s="4">
+        <v>3</v>
+      </c>
+      <c r="D919">
+        <v>7</v>
+      </c>
+      <c r="E919" t="s">
+        <v>599</v>
+      </c>
+      <c r="F919" t="s">
+        <v>25</v>
+      </c>
+      <c r="G919" t="s">
+        <v>21</v>
+      </c>
+      <c r="H919" t="s">
+        <v>26</v>
+      </c>
+      <c r="I919" t="s">
+        <v>27</v>
+      </c>
+      <c r="J919">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A920" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B920" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C920" s="4">
+        <v>3</v>
+      </c>
+      <c r="D920">
+        <v>7</v>
+      </c>
+      <c r="E920" t="s">
+        <v>599</v>
+      </c>
+      <c r="F920" t="s">
+        <v>193</v>
+      </c>
+      <c r="G920" t="s">
+        <v>194</v>
+      </c>
+      <c r="H920" t="s">
+        <v>195</v>
+      </c>
+      <c r="I920" t="s">
+        <v>196</v>
+      </c>
+      <c r="J920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A921" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B921" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C921" s="4">
+        <v>3</v>
+      </c>
+      <c r="D921">
+        <v>7</v>
+      </c>
+      <c r="E921" t="s">
+        <v>599</v>
+      </c>
+      <c r="F921" t="s">
+        <v>146</v>
+      </c>
+      <c r="G921" t="s">
+        <v>21</v>
+      </c>
+      <c r="H921" t="s">
+        <v>147</v>
+      </c>
+      <c r="I921" t="s">
+        <v>148</v>
+      </c>
+      <c r="J921">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A922" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C922" s="4">
+        <v>3</v>
+      </c>
+      <c r="D922">
+        <v>7</v>
+      </c>
+      <c r="E922" t="s">
+        <v>599</v>
+      </c>
+      <c r="F922" t="s">
+        <v>251</v>
+      </c>
+      <c r="G922" t="s">
+        <v>175</v>
+      </c>
+      <c r="H922" t="s">
+        <v>252</v>
+      </c>
+      <c r="I922" t="s">
+        <v>253</v>
+      </c>
+      <c r="J922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A923" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C923" s="4">
+        <v>3</v>
+      </c>
+      <c r="D923">
+        <v>7</v>
+      </c>
+      <c r="E923" t="s">
+        <v>599</v>
+      </c>
+      <c r="F923" t="s">
+        <v>600</v>
+      </c>
+      <c r="G923" t="s">
+        <v>21</v>
+      </c>
+      <c r="H923" t="s">
+        <v>52</v>
+      </c>
+      <c r="I923" t="s">
+        <v>53</v>
+      </c>
+      <c r="J923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A924" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C924" s="4">
+        <v>3</v>
+      </c>
+      <c r="D924">
+        <v>8</v>
+      </c>
+      <c r="E924" t="s">
+        <v>601</v>
+      </c>
+      <c r="F924" t="s">
+        <v>604</v>
+      </c>
+      <c r="G924" t="s">
+        <v>21</v>
+      </c>
+      <c r="H924" t="s">
+        <v>602</v>
+      </c>
+      <c r="I924" t="s">
+        <v>603</v>
+      </c>
+      <c r="J924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A925" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B925" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C925" s="4">
+        <v>3</v>
+      </c>
+      <c r="D925">
+        <v>8</v>
+      </c>
+      <c r="E925" t="s">
+        <v>601</v>
+      </c>
+      <c r="F925" t="s">
+        <v>25</v>
+      </c>
+      <c r="G925" t="s">
+        <v>21</v>
+      </c>
+      <c r="H925" t="s">
+        <v>26</v>
+      </c>
+      <c r="I925" t="s">
+        <v>27</v>
+      </c>
+      <c r="J925">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A926" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C926" s="4">
+        <v>3</v>
+      </c>
+      <c r="D926">
+        <v>8</v>
+      </c>
+      <c r="E926" t="s">
+        <v>601</v>
+      </c>
+      <c r="F926" t="s">
+        <v>146</v>
+      </c>
+      <c r="G926" t="s">
+        <v>21</v>
+      </c>
+      <c r="H926" t="s">
+        <v>147</v>
+      </c>
+      <c r="I926" t="s">
+        <v>148</v>
+      </c>
+      <c r="J926">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A927" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B927" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C927" s="4">
+        <v>3</v>
+      </c>
+      <c r="D927">
+        <v>8</v>
+      </c>
+      <c r="E927" t="s">
+        <v>601</v>
+      </c>
+      <c r="F927" t="s">
+        <v>193</v>
+      </c>
+      <c r="G927" t="s">
+        <v>194</v>
+      </c>
+      <c r="H927" t="s">
+        <v>195</v>
+      </c>
+      <c r="I927" t="s">
+        <v>196</v>
+      </c>
+      <c r="J927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A928" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B928" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C928" s="4">
+        <v>3</v>
+      </c>
+      <c r="D928">
+        <v>8</v>
+      </c>
+      <c r="E928" t="s">
+        <v>601</v>
+      </c>
+      <c r="F928" t="s">
+        <v>251</v>
+      </c>
+      <c r="G928" t="s">
+        <v>175</v>
+      </c>
+      <c r="H928" t="s">
+        <v>252</v>
+      </c>
+      <c r="I928" t="s">
+        <v>253</v>
+      </c>
+      <c r="J928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A929" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B929" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C929" s="4">
+        <v>3</v>
+      </c>
+      <c r="D929">
+        <v>9</v>
+      </c>
+      <c r="E929" t="s">
+        <v>605</v>
+      </c>
+      <c r="F929" t="s">
+        <v>25</v>
+      </c>
+      <c r="G929" t="s">
+        <v>21</v>
+      </c>
+      <c r="H929" t="s">
+        <v>26</v>
+      </c>
+      <c r="I929" t="s">
+        <v>27</v>
+      </c>
+      <c r="J929">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A930" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B930" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C930" s="4">
+        <v>3</v>
+      </c>
+      <c r="D930">
+        <v>9</v>
+      </c>
+      <c r="E930" t="s">
+        <v>605</v>
+      </c>
+      <c r="F930" t="s">
+        <v>604</v>
+      </c>
+      <c r="G930" t="s">
+        <v>21</v>
+      </c>
+      <c r="H930" t="s">
+        <v>602</v>
+      </c>
+      <c r="I930" t="s">
+        <v>603</v>
+      </c>
+      <c r="J930">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A931" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B931" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C931" s="4">
+        <v>3</v>
+      </c>
+      <c r="D931">
+        <v>9</v>
+      </c>
+      <c r="E931" t="s">
+        <v>605</v>
+      </c>
+      <c r="F931" t="s">
+        <v>146</v>
+      </c>
+      <c r="G931" t="s">
+        <v>21</v>
+      </c>
+      <c r="H931" t="s">
+        <v>147</v>
+      </c>
+      <c r="I931" t="s">
+        <v>148</v>
+      </c>
+      <c r="J931">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A932" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B932" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C932" s="4">
+        <v>3</v>
+      </c>
+      <c r="D932">
+        <v>10</v>
+      </c>
+      <c r="E932" t="s">
+        <v>606</v>
+      </c>
+      <c r="F932" t="s">
+        <v>25</v>
+      </c>
+      <c r="G932" t="s">
+        <v>21</v>
+      </c>
+      <c r="H932" t="s">
+        <v>26</v>
+      </c>
+      <c r="I932" t="s">
+        <v>154</v>
+      </c>
+      <c r="J932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A933" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B933" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C933" s="4">
+        <v>3</v>
+      </c>
+      <c r="D933">
+        <v>10</v>
+      </c>
+      <c r="E933" t="s">
+        <v>606</v>
+      </c>
+      <c r="F933" t="s">
+        <v>113</v>
+      </c>
+      <c r="G933" t="s">
+        <v>33</v>
+      </c>
+      <c r="H933" t="s">
+        <v>114</v>
+      </c>
+      <c r="I933" t="s">
+        <v>115</v>
+      </c>
+      <c r="J933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A934" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B934" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C934" s="4">
+        <v>3</v>
+      </c>
+      <c r="D934">
+        <v>11</v>
+      </c>
+      <c r="E934" t="s">
+        <v>607</v>
+      </c>
+      <c r="F934" t="s">
+        <v>25</v>
+      </c>
+      <c r="G934" t="s">
+        <v>21</v>
+      </c>
+      <c r="H934" t="s">
+        <v>26</v>
+      </c>
+      <c r="I934" t="s">
+        <v>27</v>
+      </c>
+      <c r="J934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A935" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B935" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C935" s="4">
+        <v>3</v>
+      </c>
+      <c r="D935">
+        <v>11</v>
+      </c>
+      <c r="E935" t="s">
+        <v>607</v>
+      </c>
+      <c r="F935" t="s">
+        <v>113</v>
+      </c>
+      <c r="G935" t="s">
+        <v>33</v>
+      </c>
+      <c r="H935" t="s">
+        <v>114</v>
+      </c>
+      <c r="I935" t="s">
+        <v>115</v>
+      </c>
+      <c r="J935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A936" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B936" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C936" s="4">
+        <v>3</v>
+      </c>
+      <c r="D936">
+        <v>12</v>
+      </c>
+      <c r="E936" t="s">
+        <v>608</v>
+      </c>
+      <c r="F936" t="s">
+        <v>87</v>
+      </c>
+      <c r="G936" t="s">
+        <v>88</v>
+      </c>
+      <c r="H936" t="s">
+        <v>89</v>
+      </c>
+      <c r="I936" t="s">
+        <v>90</v>
+      </c>
+      <c r="J936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A937" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B937" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C937" s="4">
+        <v>3</v>
+      </c>
+      <c r="D937">
+        <v>13</v>
+      </c>
+      <c r="E937" t="s">
+        <v>609</v>
+      </c>
+      <c r="F937" t="s">
+        <v>113</v>
+      </c>
+      <c r="G937" t="s">
+        <v>33</v>
+      </c>
+      <c r="H937" t="s">
+        <v>114</v>
+      </c>
+      <c r="I937" t="s">
+        <v>115</v>
+      </c>
+      <c r="J937">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A938" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B938" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C938" s="4">
+        <v>3</v>
+      </c>
+      <c r="D938">
+        <v>13</v>
+      </c>
+      <c r="E938" t="s">
+        <v>609</v>
+      </c>
+      <c r="F938" t="s">
+        <v>87</v>
+      </c>
+      <c r="G938" t="s">
+        <v>88</v>
+      </c>
+      <c r="H938" t="s">
+        <v>89</v>
+      </c>
+      <c r="I938" t="s">
+        <v>90</v>
+      </c>
+      <c r="J938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A939" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B939" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C939" s="4">
+        <v>3</v>
+      </c>
+      <c r="D939">
+        <v>14</v>
+      </c>
+      <c r="E939" t="s">
+        <v>610</v>
+      </c>
+      <c r="F939" t="s">
+        <v>87</v>
+      </c>
+      <c r="G939" t="s">
+        <v>88</v>
+      </c>
+      <c r="H939" t="s">
+        <v>89</v>
+      </c>
+      <c r="I939" t="s">
+        <v>90</v>
+      </c>
+      <c r="J939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A940" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C940" s="4">
+        <v>3</v>
+      </c>
+      <c r="D940">
+        <v>14</v>
+      </c>
+      <c r="E940" t="s">
+        <v>610</v>
+      </c>
+      <c r="F940" t="s">
+        <v>113</v>
+      </c>
+      <c r="G940" t="s">
+        <v>33</v>
+      </c>
+      <c r="H940" t="s">
+        <v>114</v>
+      </c>
+      <c r="I940" t="s">
+        <v>115</v>
+      </c>
+      <c r="J940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A941" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C941" s="4">
+        <v>3</v>
+      </c>
+      <c r="D941">
+        <v>15</v>
+      </c>
+      <c r="E941" t="s">
+        <v>611</v>
+      </c>
+      <c r="F941" t="s">
+        <v>113</v>
+      </c>
+      <c r="G941" t="s">
+        <v>33</v>
+      </c>
+      <c r="H941" t="s">
+        <v>114</v>
+      </c>
+      <c r="I941" t="s">
+        <v>115</v>
+      </c>
+      <c r="J941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A942" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B942" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C942" s="4">
+        <v>3</v>
+      </c>
+      <c r="D942">
+        <v>15</v>
+      </c>
+      <c r="E942" t="s">
+        <v>611</v>
+      </c>
+      <c r="F942" t="s">
+        <v>87</v>
+      </c>
+      <c r="G942" t="s">
+        <v>88</v>
+      </c>
+      <c r="H942" t="s">
+        <v>89</v>
+      </c>
+      <c r="I942" t="s">
+        <v>90</v>
+      </c>
+      <c r="J942">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A943" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B943" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C943" s="4">
+        <v>3</v>
+      </c>
+      <c r="D943">
+        <v>16</v>
+      </c>
+      <c r="E943" t="s">
+        <v>612</v>
+      </c>
+      <c r="F943" t="s">
+        <v>87</v>
+      </c>
+      <c r="G943" t="s">
+        <v>88</v>
+      </c>
+      <c r="H943" t="s">
+        <v>89</v>
+      </c>
+      <c r="I943" t="s">
+        <v>90</v>
+      </c>
+      <c r="J943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A944" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B944" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C944" s="4">
+        <v>3</v>
+      </c>
+      <c r="D944">
+        <v>17</v>
+      </c>
+      <c r="E944" t="s">
+        <v>613</v>
+      </c>
+      <c r="F944" t="s">
+        <v>113</v>
+      </c>
+      <c r="G944" t="s">
+        <v>33</v>
+      </c>
+      <c r="H944" t="s">
+        <v>114</v>
+      </c>
+      <c r="I944" t="s">
+        <v>115</v>
+      </c>
+      <c r="J944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" s="3"/>
+      <c r="B945" s="4"/>
+      <c r="C945" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7377" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8510" uniqueCount="802">
   <si>
     <t>date</t>
   </si>
@@ -2152,9 +2151,6 @@
     <t>GOPR9936.MP4_012.png</t>
   </si>
   <si>
-    <t>Heamulon flavolineatum</t>
-  </si>
-  <si>
     <t>GOPR9936.MP4_013.png</t>
   </si>
   <si>
@@ -2183,6 +2179,249 @@
   </si>
   <si>
     <t>Ocyurus  chrysurus</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_026.png</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_027.png</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_028.png</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_029.png</t>
+  </si>
+  <si>
+    <t>GOPR9936.MP4_030.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_019.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NA</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_026.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_027.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_028.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_029.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_030.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_031.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_032.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_033.png</t>
+  </si>
+  <si>
+    <t>GOPR9937.MP4_034.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_026.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_027.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_028.png</t>
+  </si>
+  <si>
+    <t>GOPR9938.MP4_029.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_010.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_011.png</t>
+  </si>
+  <si>
+    <t>Haemulon flavollineatum</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_015.png</t>
+  </si>
+  <si>
+    <t>Bluestirped Grunt</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR9939.MP4_026.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_016.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_017.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_019.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_020.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_022.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_023.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_024.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_025.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_026.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_027.png</t>
+  </si>
+  <si>
+    <t>GOPR9940.MP4_028.png</t>
+  </si>
+  <si>
+    <t>Yellowtail Parrotfish</t>
+  </si>
+  <si>
+    <t>rubripinne</t>
+  </si>
+  <si>
+    <t>Sparisoma rubripinne</t>
   </si>
 </sst>
 </file>
@@ -2533,11 +2772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1164"/>
+  <dimension ref="A1:W1340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H404" sqref="H404"/>
+      <pane ySplit="1" topLeftCell="A1332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1341" sqref="B1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15372,7 +15611,7 @@
         <v>194</v>
       </c>
       <c r="I384" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J384">
         <v>3</v>
@@ -15436,7 +15675,7 @@
         <v>194</v>
       </c>
       <c r="I386" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J386">
         <v>3</v>
@@ -39604,7 +39843,7 @@
         <v>26</v>
       </c>
       <c r="I1124" t="s">
-        <v>711</v>
+        <v>27</v>
       </c>
       <c r="J1124">
         <v>1</v>
@@ -39752,7 +39991,7 @@
         <v>13</v>
       </c>
       <c r="E1129" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F1129" t="s">
         <v>46</v>
@@ -39784,7 +40023,7 @@
         <v>13</v>
       </c>
       <c r="E1130" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F1130" t="s">
         <v>54</v>
@@ -39816,7 +40055,7 @@
         <v>13</v>
       </c>
       <c r="E1131" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F1131" t="s">
         <v>20</v>
@@ -39848,7 +40087,7 @@
         <v>13</v>
       </c>
       <c r="E1132" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F1132" t="s">
         <v>87</v>
@@ -39880,7 +40119,7 @@
         <v>14</v>
       </c>
       <c r="E1133" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F1133" t="s">
         <v>54</v>
@@ -39912,7 +40151,7 @@
         <v>14</v>
       </c>
       <c r="E1134" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F1134" t="s">
         <v>205</v>
@@ -39944,7 +40183,7 @@
         <v>14</v>
       </c>
       <c r="E1135" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F1135" t="s">
         <v>20</v>
@@ -39976,7 +40215,7 @@
         <v>15</v>
       </c>
       <c r="E1136" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F1136" t="s">
         <v>113</v>
@@ -40008,7 +40247,7 @@
         <v>15</v>
       </c>
       <c r="E1137" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F1137" t="s">
         <v>54</v>
@@ -40040,7 +40279,7 @@
         <v>16</v>
       </c>
       <c r="E1138" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F1138" t="s">
         <v>113</v>
@@ -40072,7 +40311,7 @@
         <v>16</v>
       </c>
       <c r="E1139" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F1139" t="s">
         <v>338</v>
@@ -40104,7 +40343,7 @@
         <v>16</v>
       </c>
       <c r="E1140" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F1140" t="s">
         <v>201</v>
@@ -40136,7 +40375,7 @@
         <v>16</v>
       </c>
       <c r="E1141" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F1141" t="s">
         <v>39</v>
@@ -40168,7 +40407,7 @@
         <v>17</v>
       </c>
       <c r="E1142" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F1142" t="s">
         <v>29</v>
@@ -40200,7 +40439,7 @@
         <v>17</v>
       </c>
       <c r="E1143" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F1143" t="s">
         <v>113</v>
@@ -40232,7 +40471,7 @@
         <v>17</v>
       </c>
       <c r="E1144" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F1144" t="s">
         <v>201</v>
@@ -40264,7 +40503,7 @@
         <v>17</v>
       </c>
       <c r="E1145" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F1145" t="s">
         <v>338</v>
@@ -40296,7 +40535,7 @@
         <v>17</v>
       </c>
       <c r="E1146" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F1146" t="s">
         <v>39</v>
@@ -40328,7 +40567,7 @@
         <v>18</v>
       </c>
       <c r="E1147" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F1147" t="s">
         <v>338</v>
@@ -40360,7 +40599,7 @@
         <v>18</v>
       </c>
       <c r="E1148" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F1148" t="s">
         <v>358</v>
@@ -40392,7 +40631,7 @@
         <v>18</v>
       </c>
       <c r="E1149" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F1149" t="s">
         <v>447</v>
@@ -40427,7 +40666,7 @@
         <v>18</v>
       </c>
       <c r="E1150" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F1150" t="s">
         <v>39</v>
@@ -40459,7 +40698,7 @@
         <v>18</v>
       </c>
       <c r="E1151" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F1151" t="s">
         <v>279</v>
@@ -40494,7 +40733,7 @@
         <v>18</v>
       </c>
       <c r="E1152" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F1152" t="s">
         <v>201</v>
@@ -40512,7 +40751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1153" s="3">
         <v>44186</v>
       </c>
@@ -40526,7 +40765,7 @@
         <v>19</v>
       </c>
       <c r="E1153" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F1153" t="s">
         <v>54</v>
@@ -40544,7 +40783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1154" s="3">
         <v>44186</v>
       </c>
@@ -40558,7 +40797,7 @@
         <v>19</v>
       </c>
       <c r="E1154" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F1154" t="s">
         <v>447</v>
@@ -40579,7 +40818,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1155" s="3">
         <v>44186</v>
       </c>
@@ -40593,7 +40832,7 @@
         <v>19</v>
       </c>
       <c r="E1155" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F1155" t="s">
         <v>201</v>
@@ -40611,7 +40850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1156" s="3">
         <v>44186</v>
       </c>
@@ -40625,7 +40864,7 @@
         <v>19</v>
       </c>
       <c r="E1156" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F1156" t="s">
         <v>29</v>
@@ -40643,7 +40882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1157" s="3">
         <v>44186</v>
       </c>
@@ -40657,7 +40896,7 @@
         <v>19</v>
       </c>
       <c r="E1157" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F1157" t="s">
         <v>338</v>
@@ -40675,7 +40914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1158" s="3">
         <v>44186</v>
       </c>
@@ -40689,7 +40928,7 @@
         <v>19</v>
       </c>
       <c r="E1158" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F1158" t="s">
         <v>29</v>
@@ -40707,7 +40946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1159" s="3">
         <v>44186</v>
       </c>
@@ -40721,7 +40960,7 @@
         <v>19</v>
       </c>
       <c r="E1159" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F1159" t="s">
         <v>358</v>
@@ -40739,7 +40978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1160" s="3">
         <v>44186</v>
       </c>
@@ -40753,7 +40992,7 @@
         <v>19</v>
       </c>
       <c r="E1160" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F1160" t="s">
         <v>39</v>
@@ -40774,7 +41013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1161" s="3">
         <v>44186</v>
       </c>
@@ -40788,7 +41027,7 @@
         <v>20</v>
       </c>
       <c r="E1161" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1161" t="s">
         <v>358</v>
@@ -40806,7 +41045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1162" s="3">
         <v>44186</v>
       </c>
@@ -40820,7 +41059,7 @@
         <v>21</v>
       </c>
       <c r="E1162" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1162" t="s">
         <v>373</v>
@@ -40838,7 +41077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1163" s="3">
         <v>44186</v>
       </c>
@@ -40852,7 +41091,7 @@
         <v>21</v>
       </c>
       <c r="E1163" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1163" t="s">
         <v>39</v>
@@ -40873,7 +41112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1164" s="3">
         <v>44186</v>
       </c>
@@ -40887,7 +41126,7 @@
         <v>21</v>
       </c>
       <c r="E1164" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1164" t="s">
         <v>358</v>
@@ -40903,6 +41142,5854 @@
       </c>
       <c r="J1164">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1165" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1165" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1165" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1165">
+        <v>22</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>721</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1165" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1165">
+        <v>3</v>
+      </c>
+      <c r="K1165" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1166" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1166" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1166" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1166">
+        <v>23</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>722</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1166" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1166" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1166" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1166" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1166" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1167" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1167" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1167" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1167">
+        <v>24</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1167" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1167">
+        <v>1</v>
+      </c>
+      <c r="K1167" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1168" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1168" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1168" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1168">
+        <v>25</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>724</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1168" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1168">
+        <v>1</v>
+      </c>
+      <c r="K1168" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1169" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1169" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1169" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1169">
+        <v>26</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1169" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1169">
+        <v>1</v>
+      </c>
+      <c r="K1169" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1170" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1170" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1170" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1170">
+        <v>27</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>726</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1170" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1170">
+        <v>1</v>
+      </c>
+      <c r="K1170" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1171" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1171" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1171" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1171">
+        <v>28</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>727</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1171" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1171">
+        <v>1</v>
+      </c>
+      <c r="K1171" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1172" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1172" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1172" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1172">
+        <v>29</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>728</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1172" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1172">
+        <v>3</v>
+      </c>
+      <c r="K1172" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1173" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1173" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1173" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1173">
+        <v>30</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1173" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1173">
+        <v>1</v>
+      </c>
+      <c r="K1173" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1174" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1174" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1174" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1174">
+        <v>1</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1174" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1175" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1175" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1175" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1175">
+        <v>1</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1175" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1176" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1176" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1176" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1176">
+        <v>1</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1176" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1177" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1177" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1177" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1177">
+        <v>2</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>731</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>732</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1177" t="s">
+        <v>732</v>
+      </c>
+      <c r="J1177" t="s">
+        <v>732</v>
+      </c>
+      <c r="K1177" t="s">
+        <v>732</v>
+      </c>
+      <c r="L1177" t="s">
+        <v>732</v>
+      </c>
+      <c r="M1177" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1178" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1178" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1178" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1178">
+        <v>3</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>733</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1178" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1179" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1179" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1179" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1179">
+        <v>3</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>733</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1179" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1180" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1180" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1180" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1180">
+        <v>4</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>734</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1180" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1181" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1181" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1181" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1181">
+        <v>4</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>734</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1181" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1182" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1182" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1182" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1182">
+        <v>4</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>734</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1182" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1183" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1183" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1183" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1183">
+        <v>5</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>735</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1183" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1184" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1184" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1184" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1184">
+        <v>5</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>735</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1184" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1185" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1185" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1185" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1185">
+        <v>6</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>736</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1185" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1186" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1186" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1186" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1186">
+        <v>6</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>736</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1186" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1187" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1187" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1187" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1187">
+        <v>6</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>736</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1187" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1188" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1188" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1188" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1188">
+        <v>7</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>737</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1188" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1189" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1189" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1189" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1189">
+        <v>7</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>737</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1189" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1189">
+        <v>1</v>
+      </c>
+      <c r="K1189" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1190" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1190" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1190" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1190">
+        <v>7</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>737</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1190" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1191" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1191" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1191" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1191">
+        <v>7</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>737</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1191" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1191">
+        <v>1</v>
+      </c>
+      <c r="K1191" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1192" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1192" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1192" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1192">
+        <v>8</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>738</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1192" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1193" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1193" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1193" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1193">
+        <v>8</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>738</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1193" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1193">
+        <v>1</v>
+      </c>
+      <c r="K1193" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1194" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1194" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1194" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1194">
+        <v>8</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>738</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1194" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1195" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1195" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1195" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1195">
+        <v>9</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>739</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1195" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1196" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1196" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1196" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1196">
+        <v>9</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>739</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1196" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1196">
+        <v>3</v>
+      </c>
+      <c r="K1196" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1197" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1197" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1197" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1197">
+        <v>9</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>739</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1197" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1198" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1198" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1198" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1198">
+        <v>10</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1198" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1199" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1199" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1199" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1199">
+        <v>10</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1199" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1199">
+        <v>2</v>
+      </c>
+      <c r="K1199" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1200" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1200" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1200">
+        <v>10</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1200" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1201" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1201" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1201" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1201">
+        <v>10</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1201" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1201" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1202" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1202" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1202">
+        <v>11</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1202" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1203" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1203" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1203">
+        <v>11</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1203" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1203">
+        <v>2</v>
+      </c>
+      <c r="K1203" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1204" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1204" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1204">
+        <v>12</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>742</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1204" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1204">
+        <v>5</v>
+      </c>
+      <c r="K1204" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1205" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1205" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1205">
+        <v>12</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>742</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1205" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1205">
+        <v>1</v>
+      </c>
+      <c r="K1205" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1206" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1206" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1206">
+        <v>12</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>742</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1206" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1207" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1207" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1207" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1207">
+        <v>13</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>743</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1207" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1208" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1208" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1208" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1208">
+        <v>13</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>743</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1208" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1208">
+        <v>1</v>
+      </c>
+      <c r="K1208" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1209" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1209" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1209" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1209">
+        <v>14</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1209" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1210" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1210" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1210" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1210">
+        <v>14</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1210" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1210">
+        <v>1</v>
+      </c>
+      <c r="K1210" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1211" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1211" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1211" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1211">
+        <v>15</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1211" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1211">
+        <v>3</v>
+      </c>
+      <c r="K1211" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1212" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1212" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1212" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1212">
+        <v>15</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1212" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1213" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1213" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1213" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1213">
+        <v>16</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1213" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1213">
+        <v>5</v>
+      </c>
+      <c r="K1213" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1214" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1214" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1214" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1214">
+        <v>16</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1214" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1215" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1215" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1215" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1215">
+        <v>16</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1215" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1216" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1216" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1216" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1216">
+        <v>17</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>747</v>
+      </c>
+      <c r="F1216" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1216" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1216" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1216" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1216" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1217" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1217" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1217" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1217">
+        <v>17</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>747</v>
+      </c>
+      <c r="F1217" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1217" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1217" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1217" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1217" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1217" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1218" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1218" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1218" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1218">
+        <v>1</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>748</v>
+      </c>
+      <c r="F1218" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1218" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1218" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1218" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1218" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1219" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1219" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1219" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1219">
+        <v>1</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>748</v>
+      </c>
+      <c r="F1219" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1219" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1219" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1219" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1219" s="4">
+        <v>4</v>
+      </c>
+      <c r="K1219" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1220" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1220" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1220" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1220">
+        <v>1</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>748</v>
+      </c>
+      <c r="F1220" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1220" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1220" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1220" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1220" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1220" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1221" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1221" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1221" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1221">
+        <v>2</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1221" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1221" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1221" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1221" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1221" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1222" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1222" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1222" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1222">
+        <v>2</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1222" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1222" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1222" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1222" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1222" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1222" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1223" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1223" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1223" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1223">
+        <v>3</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1223" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1223" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1223" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1223" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1223" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1224" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1224" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1224" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1224">
+        <v>3</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1224" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1224" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1224" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1224" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1224" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1224" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1225" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1225" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1225" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1225">
+        <v>4</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>751</v>
+      </c>
+      <c r="F1225" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1225" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1225" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1225" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1225" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1226" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1226" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1226" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1226">
+        <v>4</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>751</v>
+      </c>
+      <c r="F1226" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1226" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1226" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1226" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1226" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1227" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1227" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1227" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1227">
+        <v>4</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>751</v>
+      </c>
+      <c r="F1227" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1227" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1227" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1227" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1227" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1228" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1228" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1228" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1228">
+        <v>5</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>752</v>
+      </c>
+      <c r="F1228" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1228" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1228" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1228" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1228" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1229" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1229" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1229" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1229">
+        <v>5</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>752</v>
+      </c>
+      <c r="F1229" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1229" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1229" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1229" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1229" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1230" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1230" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1230" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1230">
+        <v>6</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>753</v>
+      </c>
+      <c r="F1230" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1230" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1230" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1230" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1230" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1231" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1231" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1231" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1231">
+        <v>6</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>753</v>
+      </c>
+      <c r="F1231" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1231" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1231" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1231" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1231" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1232" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1232" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1232" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1232">
+        <v>7</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1232" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1232" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1232" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1232" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1232" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1233" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1233" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1233" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1233">
+        <v>7</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1233" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1233" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1233" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1233" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1233" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1234" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1234" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1234" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1234">
+        <v>7</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1234" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1234" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1234" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1234" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1234" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1234" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1235" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1235" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1235" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1235">
+        <v>7</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1235" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1235" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1235" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1235" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1235" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1235" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1236" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1236" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1236" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1236">
+        <v>8</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>755</v>
+      </c>
+      <c r="F1236" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1236" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1236" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1236" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1236" s="4">
+        <v>5</v>
+      </c>
+      <c r="K1236" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1237" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1237" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1237" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1237">
+        <v>8</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>755</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1237" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1237" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1237" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1237" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1238" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1238" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1238" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1238">
+        <v>9</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>756</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1238" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1238" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1238" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1238" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1239" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1239" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1239" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1239">
+        <v>9</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>756</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1239" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1239" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1239" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1239" s="4">
+        <v>5</v>
+      </c>
+      <c r="K1239" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1240" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1240" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1240" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1240">
+        <v>10</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>757</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1240" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1240" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1240" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1240" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1240" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1241" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1241" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1241" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1241">
+        <v>11</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>758</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1241" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1241" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1241" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1241" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1241" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1242" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1242" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1242" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1242">
+        <v>12</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1242" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1242" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1242" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1242" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1243" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1243" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1243" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1243">
+        <v>13</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>760</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1243" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1243" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1243" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1243" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1244" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1244" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1244" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1244">
+        <v>14</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>761</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1244" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1244" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1244" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1244" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1245" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1245" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1245" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1245">
+        <v>15</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1245" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1245" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1245" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1246" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1246" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1246" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1246">
+        <v>16</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1246" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1246" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1246" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1246" s="4">
+        <v>8</v>
+      </c>
+      <c r="K1246" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1247" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1247" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1247" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1247">
+        <v>1</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1247" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1247" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1247" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1247" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1248" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1248" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1248" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1248">
+        <v>1</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1248" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1248" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1248" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1248" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1249" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1249" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1249" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1249">
+        <v>1</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1249" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1249" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1249" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1249" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1250" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1250" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1250" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1250">
+        <v>1</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1250" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1250" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1250" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1250" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1250" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1251" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1251" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1251" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1251">
+        <v>2</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>765</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1251" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1251" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1251" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="J1251" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1252" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1252" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1252" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1252">
+        <v>2</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>765</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1252" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1252" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1252" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1252" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1253" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1253" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1253" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1253">
+        <v>2</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>765</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1253" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1253" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1253" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1253" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1254" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1254" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1254" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1254">
+        <v>3</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1254" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1254" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1254" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1254" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1255" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1255" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1255" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1255">
+        <v>3</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1255" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1255" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1255" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1255" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1256" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1256" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1256" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1256">
+        <v>3</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1256" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1256" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1256" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1256" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1257" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1257" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1257" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1257">
+        <v>3</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1257" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1257" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1257" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1257" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1257" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1258" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1258" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1258" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1258">
+        <v>4</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1258" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1258" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1258" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1258" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1259" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1259" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1259" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1259">
+        <v>4</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1259" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1259" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1259" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1259" s="4">
+        <v>4</v>
+      </c>
+      <c r="K1259" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1260" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1260" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1260" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1260">
+        <v>4</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1260" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1260" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1260" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1260" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1261" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1261" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1261" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1261">
+        <v>4</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1261" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1261" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1261" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1261" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1262" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1262" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1262" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1262">
+        <v>5</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>769</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1262" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1262" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1262" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1262" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1263" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1263" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1263" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1263">
+        <v>5</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>769</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1263" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1263" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1263" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1263" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1264" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1264" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1264" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1264">
+        <v>5</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>769</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1264" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1264" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1264" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1264" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1264" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1265" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1265" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1265" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1265">
+        <v>6</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>770</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>771</v>
+      </c>
+      <c r="G1265" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1265" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1265" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1265" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1266" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1266" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1266" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1266">
+        <v>6</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>770</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1266" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1266" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1266" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1266" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1267" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1267" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1267" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1267">
+        <v>7</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1267" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1267" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1267" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1267" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1268" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1268" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1268" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1268">
+        <v>7</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1268" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1268" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1268" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1268" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1269" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1269" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1269" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1269">
+        <v>7</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1269" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1269" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1269" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1269" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1270" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1270" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1270" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1270">
+        <v>7</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1270" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1270" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1270" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1270" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1271" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1271" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1271" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1271">
+        <v>7</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1271" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1271" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1271" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1271" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1272" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1272" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1272" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1272">
+        <v>8</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1272" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1272" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1272" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1272" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1273" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1273" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1273" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1273">
+        <v>8</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1273" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1273" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1273" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1273" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1274" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1274" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1274" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1274">
+        <v>8</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1274" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1274" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1274" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1274" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1275" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1275" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1275" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1275">
+        <v>8</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1275" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1275" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1275" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1275" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1276" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1276" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1276" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1276">
+        <v>8</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1276" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1276" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1276" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1276" s="4">
+        <v>4</v>
+      </c>
+      <c r="K1276" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1277" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1277" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1277" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1277">
+        <v>9</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1277" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1277" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1277" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1277" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1278" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1278" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1278" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1278">
+        <v>9</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1278" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1278" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1278" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1278" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1279" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1279" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1279" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1279">
+        <v>9</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1279" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1279" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1279" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1279" s="4">
+        <v>7</v>
+      </c>
+      <c r="K1279" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1280" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1280" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1280" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1280">
+        <v>9</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1280" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1280" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1280" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1280" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1281" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1281" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1281" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1281">
+        <v>10</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1281" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1281" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1281" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1281" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1281" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1282" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1282" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1282" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1282">
+        <v>10</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1282" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1282" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1282" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1282" s="4">
+        <v>6</v>
+      </c>
+      <c r="K1282" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1283" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1283" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1283" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1283">
+        <v>10</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1283" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1283" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1283" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1283" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1284" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1284" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1284" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1284">
+        <v>11</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1284" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1284" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1284" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1284" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1284" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1285" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1285" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1285" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1285">
+        <v>11</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1285" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1285" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1285" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1285" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1285" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1286" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1286" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1286" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1286">
+        <v>12</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>777</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1286" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1286" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1286" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1286" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1286" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1287" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1287" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1287" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1287">
+        <v>12</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>777</v>
+      </c>
+      <c r="F1287" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1287" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1287" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1287" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1287" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1288" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1288" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1288" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1288">
+        <v>13</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1288" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1288" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1288" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1288" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1288" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1289" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1289" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1289" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1289">
+        <v>13</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1289" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1289" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1289" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1289" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1290" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1290" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1290" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1290">
+        <v>13</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1290" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1290" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1290" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1290" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1291" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1291" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1291" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1291">
+        <v>14</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>779</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1291" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1291" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1291" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1291" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1291" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1292" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1292" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1292" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1292">
+        <v>15</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>780</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1292" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1292" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1292" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1293" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1293" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1293" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1293">
+        <v>16</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>781</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1293" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1293" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1293" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1293" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1293" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1294" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1294" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1294" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1294">
+        <v>16</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>781</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1294" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1294" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1294" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1294" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1295" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1295" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1295" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1295">
+        <v>17</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>782</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1295" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1295" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1295" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1295" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1296" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1296" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1296" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1296">
+        <v>17</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>782</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1296" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1296" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1296" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1296" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1297" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1297" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1297" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1297">
+        <v>1</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>783</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1297" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1297" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1297" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1297" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1298" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1298" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1298" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1298">
+        <v>1</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>783</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1298" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1298" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1298" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1298" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1299" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1299" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1299" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1299">
+        <v>1</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>783</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1299" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1299" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1299" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1299" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1300" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1300" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1300" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1300">
+        <v>1</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>783</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1300" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1300" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1300" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1300" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1300" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1301" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1301" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1301" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1301">
+        <v>1</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>783</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1301" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1301" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1301" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1301" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1302" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1302" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1302" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1302">
+        <v>1</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>783</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1302" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1302" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1302" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1303" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1303" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1303" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1303">
+        <v>2</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1303" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1303" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1303" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1304" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1304" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1304" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1304">
+        <v>2</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1304" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1304" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1304" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1305" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1305" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1305" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1305">
+        <v>2</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1305" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1305" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1305" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1306" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1306" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1306" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1306">
+        <v>2</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1306" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1306" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1306" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1306" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1306" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1307" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1307" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1307" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1307">
+        <v>2</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1307" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1307" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1307" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1307" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1308" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1308" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1308" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1308">
+        <v>3</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>785</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1308" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1308" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1308" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1308" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1309" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1309" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1309" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1309">
+        <v>3</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>785</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1309" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1309" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1309" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1309" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1310" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1310" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1310" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1310">
+        <v>3</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>785</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1310" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1310" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1310" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1310" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1311" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1311" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1311" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1311">
+        <v>3</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>785</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1311" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1311" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1311" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1311" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1311" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1312" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1312" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1312" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1312">
+        <v>4</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>786</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1312" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1312" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1312" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1312" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1313" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1313" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1313" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1313">
+        <v>4</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>786</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1313" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1313" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1313" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1313" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1314" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1314" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1314" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1314">
+        <v>4</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>786</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1314" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1314" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1314" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1314" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1315" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B1315" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1315" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1315">
+        <v>5</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1315" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1315" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1315" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1315" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1316" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1316" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1316" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1316" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1316" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1316" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1316" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1316" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1316" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1317" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1317" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1317" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1317" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1317" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1317" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1317" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1317" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1317" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1318" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1318" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1318" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1318" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1318" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1318" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1318" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1318" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1318" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1318" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1319" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1319" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1319" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1319" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1319" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1319" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1319" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1319" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1319" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1320" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1320" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1320" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1320" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1320" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1320" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1320" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1320" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1320" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1321" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1321" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1321" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1321" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1321" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1321" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1321" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1321" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1321" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1322" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1322" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1322" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1322" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1322" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1322" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1322" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1322" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1322" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1323" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1323" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1323" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1323" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1323" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1323" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1323" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1323" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1323" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1323" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1324" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1324" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1324" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1324" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1324" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1324" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1324" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1324" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1324" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1325" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1325" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1325" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1325" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1325" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1325" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1325" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1325" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1325" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1326" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1326" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1326" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1326" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1326" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1326" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1326" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1326" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1326" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1327" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1327" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1327" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1327" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1327" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1327" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1327" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1327" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1327" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1327" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1328" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1328" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1328" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1328" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1328" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1328" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1328" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1328" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1328" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1329" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1329" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1329" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1329" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1329" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1329" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1329" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1329" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1329" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1330" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1330" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1330" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1330" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1330" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1330" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1330" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1330" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1330" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1330" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1331" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1331" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1331" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1331" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1331" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1331" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1331" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1331" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1331" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1332" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1332" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1332" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1332" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1332" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1332" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1332" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1332" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1332" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1333" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1333" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1333" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1333" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1333" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1333" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1333" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1333" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1333" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1334" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1334" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1334" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1334" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1334" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1334" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1334" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1334" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1334" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1334" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1335" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1335" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1335" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1335" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1335" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1335" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1335" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1335" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1335" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1335" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1336" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1336" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1336" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1336" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1336" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1336" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1336" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1336" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1336" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1336" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1337" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1337" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1337" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1337" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1337" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1337" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1337" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1337" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1337" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1338" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1338" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1338" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1338" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1338" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1338" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1338" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1338" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1338" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1338" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1339" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1339" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1339" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1339" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1339" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1339" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1339" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1339" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1339" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1340" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B1340" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1340" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1340" s="4">
+        <v>16</v>
+      </c>
+      <c r="E1340" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>799</v>
+      </c>
+      <c r="G1340" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1340" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="I1340" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="J1340" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1340" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="9465" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9465" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8510" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8512" uniqueCount="803">
   <si>
     <t>date</t>
   </si>
@@ -2422,6 +2422,9 @@
   </si>
   <si>
     <t>Sparisoma rubripinne</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -2772,11 +2775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1340"/>
+  <dimension ref="A1:W1341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1341" sqref="B1341"/>
+      <pane ySplit="1" topLeftCell="A1335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1341" sqref="E1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46990,6 +46993,20 @@
       </c>
       <c r="K1340" s="4" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1341" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1341" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1341" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1341" s="4" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="9468" windowHeight="4920"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="9465" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7587" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8207" uniqueCount="786">
   <si>
     <t>date</t>
   </si>
@@ -2239,6 +2239,141 @@
   </si>
   <si>
     <t>GOPR9961_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_004.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocyurus </t>
+  </si>
+  <si>
+    <t>GOPR9962_005.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_006.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_007.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_008.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_009.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_010.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_011.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_012.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_014.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_015.png</t>
+  </si>
+  <si>
+    <t>GOPR9962_016.png</t>
+  </si>
+  <si>
+    <t>Lionfish</t>
+  </si>
+  <si>
+    <t>Pterois</t>
+  </si>
+  <si>
+    <t>volitans</t>
+  </si>
+  <si>
+    <t>GOPR9954_006.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_007.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_008.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromis </t>
+  </si>
+  <si>
+    <t>GOPR9954_009.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_010.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_011.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_012.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_014.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_015.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_016.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_017.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_019.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_020.png</t>
+  </si>
+  <si>
+    <t>GOPR9954_021.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_004.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_005.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_006.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_007.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_008.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_009.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_010.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_011.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_012.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9955_014.png</t>
   </si>
 </sst>
 </file>
@@ -2589,33 +2724,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1420"/>
+  <dimension ref="A1:W1537"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1410" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1418" sqref="D1418"/>
+      <pane ySplit="1" topLeftCell="A1528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1537" sqref="A1537:E1537"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="9" width="26.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="26.88671875" customWidth="1"/>
+    <col min="8" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -50829,6 +50964,3951 @@
       <c r="J1420">
         <v>5</v>
       </c>
+    </row>
+    <row r="1421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1421" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1421" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1421" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1421" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1421" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1421" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1421" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Anisotremus virginicus</v>
+      </c>
+      <c r="J1421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1422" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1422" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1422" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1422" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1422" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1422" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1422" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Abudefduf saxatilis</v>
+      </c>
+      <c r="J1422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1423" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1423" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1423" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1423" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1423" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="H1423" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1423" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Holocentrus adscensionis</v>
+      </c>
+      <c r="J1423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1424" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1424" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1424" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1424" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1424" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1424" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1424" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1424">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1425" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1425" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1425" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1425" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1425" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="H1425" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1425" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Ocyurus  chrysurus</v>
+      </c>
+      <c r="J1425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1426" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1426" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1426" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1426" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>743</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1426" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1426" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1426" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Abudefduf saxatilis</v>
+      </c>
+      <c r="J1426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1427" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1427" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1427" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1427" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>743</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1427" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1427" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1427" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1427">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1428" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1428" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1428" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1428" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>743</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1428" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1428" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1428" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J1428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1429" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1429" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1429" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1429" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1429" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1429" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1429" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1430" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1430" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1430" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1430" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1430" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1430" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1430" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon steindachneri</v>
+      </c>
+      <c r="J1430">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1431" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1431" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1431" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1431" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1431" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1431" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1431" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1431">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1432" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1432" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1432" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1432" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1432" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1432" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1432" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J1432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1433" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1433" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1433" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1433" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1433" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1433" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1433" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Abudefduf saxatilis</v>
+      </c>
+      <c r="J1433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1434" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1434" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1434" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1434" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1434" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1434" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1434" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J1434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1435" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1435" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1435" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1435" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1435" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1435" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1435" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon steindachneri</v>
+      </c>
+      <c r="J1435">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1436" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1436" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1436" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1436" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1436" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1436" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1436" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1436">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1437" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1437" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1437" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1437" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1437" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1437" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1437" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J1437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1438" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1438" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1438" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1438" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1438" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1438" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1438" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1438">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1439" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1439" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1439" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1439" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1439" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1439" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1439" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon steindachneri</v>
+      </c>
+      <c r="J1439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1440" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1440" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1440" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1440" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1440" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1440" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1440" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J1440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1441" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1441" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1441" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1441" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1441" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1441" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1441" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chaetodon capistratus</v>
+      </c>
+      <c r="J1441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1442" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1442" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1442" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1442" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>747</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1442" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1442" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1442" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>NA NA</v>
+      </c>
+      <c r="J1442" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1443" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1443" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1443" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1443" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>748</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1443" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1443" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1443" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J1443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1444" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1444" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1444" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1444" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>748</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1444" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1444" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1444" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1445" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1445" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1445" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1445" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1445" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1445" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1445" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J1445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1446" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1446" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1446" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1446" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1446" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1446" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1446" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1447" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1447" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1447" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1447" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1447" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1447" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1447" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1448" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1448" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1448" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1448" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1448" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1448" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1448" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J1448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1449" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1449" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1449" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1449" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1449" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1449" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1449" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1450" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1450" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1450" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1450" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1450" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1450" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1450" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J1450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1451" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1451" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1451" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1451" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>751</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1451" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1451" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1451" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1452" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1452" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1452" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1452" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>751</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1452" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1452" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1452" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J1452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1453" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1453" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1453" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1453" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>752</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1453" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1453" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1453" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1453">
+        <v>1</v>
+      </c>
+      <c r="K1453" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1454" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1454" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1454" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1454" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>753</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1454" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1454" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1454" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1454">
+        <v>9</v>
+      </c>
+      <c r="K1454" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1455" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1455" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1455" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1455" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>753</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1455" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="H1455" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1455" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Cephalopholis cruentatus</v>
+      </c>
+      <c r="J1455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1456" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1456" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1456" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1456" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>753</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1456" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1456" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1456" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1457" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1457" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1457" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1457" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1457" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1457" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1457" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1457">
+        <v>1</v>
+      </c>
+      <c r="K1457" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1458" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1458" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1458" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1458" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1458" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1458" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1458" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1458">
+        <v>26</v>
+      </c>
+      <c r="K1458" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1459" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1459" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1459" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1459" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>758</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1459" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H1459" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="I1459" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Pterois volitans</v>
+      </c>
+      <c r="J1459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1460" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1460" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1460" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1460" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>758</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1460" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1460" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1460" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1460">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1461" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1461" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1461" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1461" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1461" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1461" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1461" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1462" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1462" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1462" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1462" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1462" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1462" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1462" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J1462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1463" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1463" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1463" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1463" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1463" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1463" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1463" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1463">
+        <v>1</v>
+      </c>
+      <c r="K1463" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1464" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1464" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1464" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1464" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1464" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1464" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1464" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes sp.</v>
+      </c>
+      <c r="J1464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1465" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1465" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1465" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1465" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1465" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1465" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1465" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Bodianus rufus</v>
+      </c>
+      <c r="J1465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1466" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1466" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1466" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1466" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1466" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1466" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1466" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1466">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1467" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1467" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1467" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1467" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>760</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1467" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="H1467" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1467" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chromis  cyanea</v>
+      </c>
+      <c r="J1467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1468" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1468" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1468" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1468" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>760</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1468" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1468" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1468" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1468">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1469" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1469" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1469" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1469" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>760</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1469" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1469" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1469" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1469">
+        <v>1</v>
+      </c>
+      <c r="K1469" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1470" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1470" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1470" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1470" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1470" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1470" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1470" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Bodianus rufus</v>
+      </c>
+      <c r="J1470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1471" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1471" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1471" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1471" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1471" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1471" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1471" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J1471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1472" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1472" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1472" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1472" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1472" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1472" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1472" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1472">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1473" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1473" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1473" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1473" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1473" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1473" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1473" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1473">
+        <v>1</v>
+      </c>
+      <c r="K1473" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1474" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1474" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1474" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1474" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1474" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1474" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1474" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1475" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1475" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1475" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1475" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1475" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1475" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1475" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Halichoeres bivittatus</v>
+      </c>
+      <c r="J1475">
+        <v>1</v>
+      </c>
+      <c r="K1475" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1476" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1476" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1476" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1476" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1476" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1476" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1476" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J1476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1477" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1477" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1477" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1477" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1477" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1477" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1477" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1477">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1478" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1478" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1478" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1478" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1478" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1478" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1478" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1478">
+        <v>1</v>
+      </c>
+      <c r="K1478" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1479" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1479" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1479" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1479" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1479" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1479" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1479" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus bahianus</v>
+      </c>
+      <c r="J1479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1480" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1480" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1480" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1480" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1480" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1480" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1480" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J1480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1481" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1481" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1481" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1481" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1481" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1481" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1481" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus bahianus</v>
+      </c>
+      <c r="J1481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1482" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1482" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1482" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1482" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1482" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1482" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1482" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1482">
+        <v>3</v>
+      </c>
+      <c r="K1482" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1483" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1483" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1483" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1483" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1483" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1483" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1483" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1484" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1484" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1484" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1484" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>765</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1484" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1484" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1484" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1485" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1485" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1485" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1485" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>765</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1485" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1485" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1485" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1485">
+        <v>1</v>
+      </c>
+      <c r="K1485" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1486" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1486" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1486" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1486" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1486" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1486" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1486" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1486">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1487" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1487" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1487" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1487" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1487" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1487" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1487" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1487">
+        <v>1</v>
+      </c>
+      <c r="K1487" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1488" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1488" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1488" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1488" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1488" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1488" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1488" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1488">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1489" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1489" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1489" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1489" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1489" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1489" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1489" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1489">
+        <v>4</v>
+      </c>
+      <c r="K1489" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1490" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1490" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1490" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1490" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1490" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1490" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1490" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1490">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1491" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1491" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1491" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1491" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1491" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1491" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1491" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1491">
+        <v>17</v>
+      </c>
+      <c r="K1491" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1492" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1492" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1492" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1492" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>769</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1492" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1492" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1492" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1492">
+        <v>5</v>
+      </c>
+      <c r="K1492" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1493" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1493" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1493" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1493" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>769</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1493" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1493" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1493" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1493">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1494" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1494" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1494" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1494" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>770</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1494" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1494" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1494" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1494">
+        <v>11</v>
+      </c>
+      <c r="K1494" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1495" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1495" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1495" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1495" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>770</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1495" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1495" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1495" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1495">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1496" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1496" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1496" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1496" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>771</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1496" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1496" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1496" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1496">
+        <v>11</v>
+      </c>
+      <c r="K1496" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1497" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1497" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1497" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1497" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1497" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1497" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1497" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1497">
+        <v>1</v>
+      </c>
+      <c r="K1497" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1498" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1498" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1498" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1498" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1498" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1498" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1498" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1498" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1499" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1499" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1499" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1499" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1499" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1499" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1499" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1499">
+        <v>7</v>
+      </c>
+      <c r="K1499" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1500" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1500" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1500" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1500" s="4">
+        <v>16</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1500" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1500" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1500" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1500">
+        <v>5</v>
+      </c>
+      <c r="K1500" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1501" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1501" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1501" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1501" s="4">
+        <v>16</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1501" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1501" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1501" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1501" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1502" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1502" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1502" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1502" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1502" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1502" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1502" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1502" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Bodianus rufus</v>
+      </c>
+      <c r="J1502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1503" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1503" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1503" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1503" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1503" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1503" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1503" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1503" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1504" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1504" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1504" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1504" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1504" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1504" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1504" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1504" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J1504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1505" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1505" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1505" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1505" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1505" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1505" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1505" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1505" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J1505">
+        <v>1</v>
+      </c>
+      <c r="K1505" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1506" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1506" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1506" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1506" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1506" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1506" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1506" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1506">
+        <v>10</v>
+      </c>
+      <c r="K1506" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1507" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1507" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1507" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1507" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>775</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1507" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1507" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1507" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1508" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1508" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1508" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1508" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1508" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1508" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1508" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J1508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1509" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1509" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1509" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1509" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1509" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1509" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1509" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J1509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1510" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1510" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1510" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1510" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1510" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1510" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1510" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J1510">
+        <v>1</v>
+      </c>
+      <c r="K1510" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1511" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1511" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1511" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1511" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1511" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1511" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1511" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1512" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1512" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1512" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1512" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1512" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1512" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1512" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1512">
+        <v>17</v>
+      </c>
+      <c r="K1512" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1513" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1513" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1513" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1513" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>700</v>
+      </c>
+      <c r="G1513" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1513" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="I1513" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J1513">
+        <v>1</v>
+      </c>
+      <c r="K1513" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1514" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1514" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1514" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1514" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>777</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1514" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1514" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1514" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1515" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1515" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1515" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1515" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>777</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>700</v>
+      </c>
+      <c r="G1515" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1515" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="I1515" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J1515">
+        <v>1</v>
+      </c>
+      <c r="K1515" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1516" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1516" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1516" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1516" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>777</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1516" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1516" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1516" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J1516">
+        <v>1</v>
+      </c>
+      <c r="K1516" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1517" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1517" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1517" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1517" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>777</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1517" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1517" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1517" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J1517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1518" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1518" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1518" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1518" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>777</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1518" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1518" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1518" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1518">
+        <v>10</v>
+      </c>
+      <c r="K1518" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1519" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1519" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1519" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1519" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1519" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1519" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1519" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J1519">
+        <v>2</v>
+      </c>
+      <c r="K1519" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1520" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1520" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1520" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1520" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1520" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1520" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1520" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J1520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1521" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1521" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1521" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1521" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1521" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1521" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1521" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1521">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1522" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1522" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1522" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1522" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1522" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1522" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1522" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1522">
+        <v>4</v>
+      </c>
+      <c r="K1522" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1523" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1523" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1523" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1523" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>779</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1523" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1523" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1523" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J1523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1524" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1524" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1524" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1524" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>779</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1524" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1524" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1524" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1524">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1525" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1525" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1525" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1525" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>779</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1525" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1525" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1525" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J1525">
+        <v>1</v>
+      </c>
+      <c r="K1525" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1526" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1526" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1526" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1526" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>779</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1526" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1526" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1526" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1526">
+        <v>4</v>
+      </c>
+      <c r="K1526" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1527" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1527" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1527" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1527" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>780</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1527" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1527" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1527" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J1527">
+        <v>2</v>
+      </c>
+      <c r="K1527" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1528" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1528" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1528" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1528" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>780</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1528" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1528" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1528" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1528">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1529" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1529" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1529" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1529" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>780</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1529" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1529" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1529" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1529">
+        <v>9</v>
+      </c>
+      <c r="K1529" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1530" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1530" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1530" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1530" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>781</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1530" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1530" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1530" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1530">
+        <v>18</v>
+      </c>
+      <c r="K1530" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1531" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1531" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1531" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1531" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>781</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1531" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1531" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1531" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1532" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1532" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1532" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1532" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>782</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1532" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1532" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1532" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1533" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1533" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1533" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1533" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>782</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1533" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1533" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1533" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1533">
+        <v>4</v>
+      </c>
+      <c r="K1533" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1534" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1534" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1534" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1534" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>783</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1534" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1534" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1534" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1534">
+        <v>3</v>
+      </c>
+      <c r="K1534" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1535" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1535" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1535" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1535" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1535" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1535" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1535" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>NA NA</v>
+      </c>
+      <c r="J1535" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1536" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B1536" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1536" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1536" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>785</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1536" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1536" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1536" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>NA NA</v>
+      </c>
+      <c r="J1536" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537" s="3"/>
+      <c r="B1537" s="4"/>
+      <c r="C1537" s="4"/>
+      <c r="D1537" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50842,7 +54922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50854,7 +54934,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10415" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10592" uniqueCount="950">
   <si>
     <t>date</t>
   </si>
@@ -2827,6 +2827,45 @@
   </si>
   <si>
     <t>GOPR9977_006.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_007.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_008.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_009.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_010.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_011.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_012.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_013.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_014.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_015.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_016.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_017.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_018.png</t>
+  </si>
+  <si>
+    <t>GOPR9977_019.png</t>
   </si>
 </sst>
 </file>
@@ -3186,11 +3225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1956"/>
+  <dimension ref="A1:W1988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1946" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1956" sqref="E1956"/>
+      <pane ySplit="1" topLeftCell="A1977" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1990" sqref="D1990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69403,7 +69442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1953" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1953" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1953" s="3">
         <v>44207</v>
       </c>
@@ -69436,7 +69475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1954" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1954" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1954" s="3">
         <v>44207</v>
       </c>
@@ -69469,7 +69508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1955" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1955" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1955" s="3">
         <v>44207</v>
       </c>
@@ -69502,7 +69541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1956" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1956" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1956" s="3">
         <v>44207</v>
       </c>
@@ -69517,6 +69556,1117 @@
       </c>
       <c r="E1956" t="s">
         <v>936</v>
+      </c>
+      <c r="F1956" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1956" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1956" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1956" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>NA NA</v>
+      </c>
+      <c r="J1956" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1957" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1957" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1957" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1957" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1957" t="s">
+        <v>937</v>
+      </c>
+      <c r="F1957" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1957" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1957" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1957" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1958" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1958" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1958" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1958" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1958" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1958" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1958" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1958" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1958" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1958">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1959" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1959" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1959" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1959" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1959" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1959" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1959" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1959" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1960" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1960" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1960" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1960" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1960" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1960" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1960" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1960" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J1960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1961" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1961" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1961" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1961" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1961" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1961" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1961" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1961" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1961">
+        <v>1</v>
+      </c>
+      <c r="K1961" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1962" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1962" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1962" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1962" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>939</v>
+      </c>
+      <c r="F1962" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1962" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1962" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1962" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J1962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1963" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1963" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1963" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1963" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>939</v>
+      </c>
+      <c r="F1963" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1963" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1963" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1963" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J1963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1964" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1964" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1964" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1964" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>939</v>
+      </c>
+      <c r="F1964" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1964" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1964" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1964" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1965" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1965" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1965" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1965" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>940</v>
+      </c>
+      <c r="F1965" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1965" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1965" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1965" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J1965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1966" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1966" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1966" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1966" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>940</v>
+      </c>
+      <c r="F1966" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1966" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1966" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1966" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1966">
+        <v>1</v>
+      </c>
+      <c r="K1966" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1967" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1967" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1967" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1967" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>940</v>
+      </c>
+      <c r="F1967" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1967" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1967" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1967" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1968" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1968" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1968" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1968" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1968" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1968" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1968" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1968">
+        <v>1</v>
+      </c>
+      <c r="K1968" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1969" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1969" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1969" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1969" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1969" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1969" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1969" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1969" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1969">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1970" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1970" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1970" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1970" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1970" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1970" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1970" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1970" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1970">
+        <v>1</v>
+      </c>
+      <c r="K1970" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1971" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1971" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1971" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1971" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>942</v>
+      </c>
+      <c r="F1971" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1971" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1971" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1971" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1971">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1972" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1972" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1972" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1972" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>942</v>
+      </c>
+      <c r="F1972" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1972" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1972" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Halichoeres maculipinna</v>
+      </c>
+      <c r="J1972">
+        <v>1</v>
+      </c>
+      <c r="K1972" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1973" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1973" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1973" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1973" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>942</v>
+      </c>
+      <c r="F1973" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1973" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1973" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1973" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1973">
+        <v>1</v>
+      </c>
+      <c r="K1973" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1974" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1974" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1974" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1974" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>942</v>
+      </c>
+      <c r="F1974" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1974" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1974" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1974" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1974">
+        <v>2</v>
+      </c>
+      <c r="K1974" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1975" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1975" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1975" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1975" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>943</v>
+      </c>
+      <c r="F1975" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1975" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1975" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1975" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1976" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1976" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1976" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1976" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>944</v>
+      </c>
+      <c r="F1976" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1976" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1976" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1976" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1977" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1977" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1977" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1977" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>945</v>
+      </c>
+      <c r="F1977" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1977" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1977" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1977" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1978" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1978" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1978" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1978" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>946</v>
+      </c>
+      <c r="F1978" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1978" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1978" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1978" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1978">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1979" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1979" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1979" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1979" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>946</v>
+      </c>
+      <c r="F1979" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1979" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1979" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1979" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1979">
+        <v>3</v>
+      </c>
+      <c r="K1979" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1980" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1980" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1980" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1980" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>947</v>
+      </c>
+      <c r="F1980" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1980" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1980" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1980" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1980">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1981" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1981" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1981" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1981" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>947</v>
+      </c>
+      <c r="F1981" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1981" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1981" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1981" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Halichoeres garnoti</v>
+      </c>
+      <c r="J1981">
+        <v>1</v>
+      </c>
+      <c r="K1981" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1982" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1982" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1982" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1982" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>948</v>
+      </c>
+      <c r="F1982" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1982" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1982" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1982" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J1982">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1983" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1983" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1983" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1983" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>948</v>
+      </c>
+      <c r="F1983" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1983" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1983" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1983" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Halichoeres garnoti</v>
+      </c>
+      <c r="J1983">
+        <v>1</v>
+      </c>
+      <c r="K1983" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1984" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1984" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1984" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1984" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>948</v>
+      </c>
+      <c r="F1984" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1984" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1984" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1984" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J1984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1985" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1985" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1985" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1985" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>948</v>
+      </c>
+      <c r="F1985" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1985" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1985" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1985" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1985">
+        <v>2</v>
+      </c>
+      <c r="K1985" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1986" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1986" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1986" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1986" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>949</v>
+      </c>
+      <c r="F1986" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1986" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1986" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1986" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J1986">
+        <v>4</v>
+      </c>
+      <c r="K1986" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1987" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1987" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1987" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1987" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>949</v>
+      </c>
+      <c r="F1987" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1987" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1987" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1987" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v>Halichoeres garnoti</v>
+      </c>
+      <c r="J1987">
+        <v>1</v>
+      </c>
+      <c r="K1987" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1988" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B1988" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1988" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1988" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>949</v>
+      </c>
+      <c r="F1988" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1988" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1988" t="s">
+        <v>530</v>
+      </c>
+      <c r="I1988" t="str">
+        <f>G:G&amp;" "&amp;H:H</f>
+        <v xml:space="preserve">Kyphosus  sp. </v>
+      </c>
+      <c r="J1988">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13719" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14523" uniqueCount="1212">
   <si>
     <t>date</t>
   </si>
@@ -3502,6 +3502,156 @@
   </si>
   <si>
     <t>GOPR0234_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_004.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spotfin Hogfish</t>
+  </si>
+  <si>
+    <t>pulchellus</t>
+  </si>
+  <si>
+    <t>GOPR0235_005.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0235_014.png</t>
+  </si>
+  <si>
+    <t>IC-U3</t>
+  </si>
+  <si>
+    <t>GOPR0237_004.png</t>
+  </si>
+  <si>
+    <t>Great Barracuda</t>
+  </si>
+  <si>
+    <t>Sphyraena</t>
+  </si>
+  <si>
+    <t>barracuda</t>
+  </si>
+  <si>
+    <t>Spotfin Hogfish</t>
+  </si>
+  <si>
+    <t>GOPR0237_005.png</t>
+  </si>
+  <si>
+    <t>GOPR0237_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0237_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0237_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0237_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0237_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0237_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0237_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0237_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_004.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_005.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0241_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_003.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_004.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_005.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0242_014.png</t>
   </si>
 </sst>
 </file>
@@ -3861,11 +4011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2579"/>
+  <dimension ref="A1:W2722"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2570" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2579" sqref="E2579"/>
+      <pane ySplit="1" topLeftCell="A2717" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2722" sqref="A2722:E2722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88504,7 +88654,7 @@
         <v>271</v>
       </c>
       <c r="I2498" t="str">
-        <f t="shared" ref="I2498:I2561" si="39">G:G&amp;" "&amp;H:H</f>
+        <f t="shared" ref="I2498:I2546" si="39">G:G&amp;" "&amp;H:H</f>
         <v>Acanthurus coeruleus</v>
       </c>
       <c r="J2498">
@@ -91228,7 +91378,7 @@
         <v>245</v>
       </c>
       <c r="I2577" t="str">
-        <f t="shared" ref="I2577:I2578" si="43">G:G&amp;" "&amp;H:H</f>
+        <f t="shared" ref="I2577:I2587" si="43">G:G&amp;" "&amp;H:H</f>
         <v>NA NA</v>
       </c>
       <c r="J2577" t="s">
@@ -91283,6 +91433,4999 @@
       </c>
       <c r="D2579" s="4">
         <v>1</v>
+      </c>
+      <c r="E2579" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F2579" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2579" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2579" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2579" t="str">
+        <f t="shared" si="43"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2579">
+        <v>14</v>
+      </c>
+      <c r="K2579" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2580" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2580" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2580" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2580" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2580" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F2580" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G2580" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2580" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I2580" t="str">
+        <f t="shared" si="43"/>
+        <v>Bodianus pulchellus</v>
+      </c>
+      <c r="J2580">
+        <v>1</v>
+      </c>
+      <c r="K2580" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2581" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2581" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2581" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2581" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2581" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F2581" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2581" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2581" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2581" t="str">
+        <f t="shared" si="43"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2582" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2582" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2582" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2582" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2582" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F2582" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2582" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2582" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2582" t="str">
+        <f t="shared" si="43"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2582">
+        <v>16</v>
+      </c>
+      <c r="K2582" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2583" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2583" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2583" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2583" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2583" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F2583" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2583" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2583" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2583" t="str">
+        <f t="shared" si="43"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2583">
+        <v>1</v>
+      </c>
+      <c r="K2583" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2584" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2584" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2584" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2584" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2584" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F2584" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2584" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2584" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2584" t="str">
+        <f t="shared" si="43"/>
+        <v>Scarus iserti</v>
+      </c>
+      <c r="J2584">
+        <v>2</v>
+      </c>
+      <c r="K2584" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2585" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2585" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2585" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2585" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2585" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F2585" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2585" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2585" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2585" t="str">
+        <f t="shared" si="43"/>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J2585">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2586" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2586" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2586" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2586" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2586" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F2586" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2586" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2586" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2586" t="str">
+        <f t="shared" si="43"/>
+        <v>Scarus iserti</v>
+      </c>
+      <c r="J2586">
+        <v>1</v>
+      </c>
+      <c r="K2586" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2587" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2587" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2587" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2587" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2587" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F2587" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2587" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2587" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2587" t="str">
+        <f t="shared" si="43"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2587">
+        <v>32</v>
+      </c>
+      <c r="K2587" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2588" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2588" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2588" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2588" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2588" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F2588" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2588" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2588" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2588" t="str">
+        <f t="shared" ref="I2588:I2598" si="44">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2588">
+        <v>2</v>
+      </c>
+      <c r="K2588" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2589" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2589" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2589" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2589" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2589" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F2589" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2589" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2589" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2589" t="str">
+        <f t="shared" si="44"/>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2589">
+        <v>1</v>
+      </c>
+      <c r="K2589" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2590" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2590" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2590" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2590" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2590" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2590" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2590" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2590" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2590" t="str">
+        <f t="shared" si="44"/>
+        <v>Scarus coeruleus</v>
+      </c>
+      <c r="J2590">
+        <v>1</v>
+      </c>
+      <c r="K2590" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2591" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2591" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2591" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2591" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2591" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2591" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2591" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2591" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2591" t="str">
+        <f t="shared" si="44"/>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2591">
+        <v>1</v>
+      </c>
+      <c r="K2591" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2592" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2592" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2592" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2592" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2592" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2592" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2592" t="s">
+        <v>758</v>
+      </c>
+      <c r="H2592" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2592" t="str">
+        <f t="shared" si="44"/>
+        <v>Chromis  cyanea</v>
+      </c>
+      <c r="J2592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2593" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2593" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2593" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2593" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2593" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2593" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2593" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2593" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2593" t="str">
+        <f t="shared" si="44"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2594" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2594" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2594" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2594" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2594" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2594" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2594" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2594" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2594" t="str">
+        <f t="shared" si="44"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2594">
+        <v>21</v>
+      </c>
+      <c r="K2594" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2595" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2595" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2595" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2595" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2595" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2595" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2595" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2595" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2595" t="str">
+        <f t="shared" si="44"/>
+        <v>Halichoeres garnoti</v>
+      </c>
+      <c r="J2595">
+        <v>3</v>
+      </c>
+      <c r="K2595" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2596" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2596" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2596" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2596" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2596" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2596" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2596" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2596" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2596" t="str">
+        <f t="shared" si="44"/>
+        <v>Stegastes sp.</v>
+      </c>
+      <c r="J2596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2597" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2597" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2597" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2597" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2597" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2597" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2597" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2597" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2597" t="str">
+        <f t="shared" si="44"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2598" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2598" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2598" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2598" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2598" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2598" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2598" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2598" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2598" t="str">
+        <f t="shared" si="44"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2599" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2599" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2599" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2599" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2599" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F2599" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2599" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2599" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2599" t="str">
+        <f t="shared" ref="I2599:I2602" si="45">G:G&amp;" "&amp;H:H</f>
+        <v>Scarus coeruleus</v>
+      </c>
+      <c r="J2599">
+        <v>4</v>
+      </c>
+      <c r="K2599" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2600" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2600" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2600" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2600" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2600" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F2600" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2600" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2600" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2600" t="str">
+        <f t="shared" si="45"/>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2600">
+        <v>1</v>
+      </c>
+      <c r="K2600" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2601" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2601" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2601" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2601" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2601" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F2601" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2601" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2601" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2601" t="str">
+        <f t="shared" si="45"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2601">
+        <v>5</v>
+      </c>
+      <c r="K2601" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2602" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2602" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2602" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2602" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2602" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F2602" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2602" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2602" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2602" t="str">
+        <f t="shared" si="45"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2603" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2603" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2603" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2603" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2603" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F2603" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2603" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2603" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2603" t="str">
+        <f t="shared" ref="I2603:I2604" si="46">G:G&amp;" "&amp;H:H</f>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2603">
+        <v>1</v>
+      </c>
+      <c r="K2603" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2604" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2604" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2604" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2604" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2604" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F2604" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2604" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2604" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2604" t="str">
+        <f t="shared" si="46"/>
+        <v>Scarus coeruleus</v>
+      </c>
+      <c r="J2604">
+        <v>5</v>
+      </c>
+      <c r="K2604" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2605" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2605" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2605" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2605" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2605" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F2605" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2605" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2605" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2605" t="str">
+        <f t="shared" ref="I2605:I2623" si="47">G:G&amp;" "&amp;H:H</f>
+        <v>Scarus coeruleus</v>
+      </c>
+      <c r="J2605">
+        <v>4</v>
+      </c>
+      <c r="K2605" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2606" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2606" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2606" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2606" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2606" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F2606" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2606" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2606" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2606" t="str">
+        <f t="shared" si="47"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2607" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2607" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2607" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2607" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2607" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F2607" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2607" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2607" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2607" t="str">
+        <f t="shared" si="47"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2608" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2608" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2608" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2608" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2608" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F2608" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2608" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2608" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2608" t="str">
+        <f t="shared" si="47"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2609" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2609" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2609" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2609" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2609" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F2609" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2609" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2609" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2609" t="str">
+        <f t="shared" si="47"/>
+        <v>Scarus coeruleus</v>
+      </c>
+      <c r="J2609">
+        <v>1</v>
+      </c>
+      <c r="K2609" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2610" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2610" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2610" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2610" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2610" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F2610" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2610" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2610" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2610" t="str">
+        <f t="shared" si="47"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2610">
+        <v>1</v>
+      </c>
+      <c r="K2610" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2611" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2611" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2611" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2611" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2611" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F2611" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2611" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2611" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2611" t="str">
+        <f t="shared" si="47"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2612" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2612" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2612" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2612" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2612" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F2612" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2612" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2612" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2612" t="str">
+        <f t="shared" si="47"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2612">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2613" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2613" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2613" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2613" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2613" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F2613" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2613" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2613" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2613" t="str">
+        <f t="shared" si="47"/>
+        <v>Scarus coeruleus</v>
+      </c>
+      <c r="J2613">
+        <v>1</v>
+      </c>
+      <c r="K2613" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2614" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2614" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2614" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2614" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2614" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F2614" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2614" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2614" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2614" t="str">
+        <f t="shared" si="47"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2614">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2615" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2615" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2615" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2615" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2615" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F2615" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2615" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2615" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2615" t="str">
+        <f t="shared" si="47"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2616" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2616" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2616" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2616" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2616" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F2616" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2616" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2616" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2616" t="str">
+        <f t="shared" si="47"/>
+        <v>Scarus coeruleus</v>
+      </c>
+      <c r="J2616">
+        <v>1</v>
+      </c>
+      <c r="K2616" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2617" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2617" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2617" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2617" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2617" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F2617" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2617" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2617" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2617" t="str">
+        <f t="shared" si="47"/>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J2617">
+        <v>2</v>
+      </c>
+      <c r="K2617" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2618" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2618" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2618" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2618" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2618" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F2618" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2618" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2618" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2618" t="str">
+        <f t="shared" si="47"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2619" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2619" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2619" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2619" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2619" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F2619" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2619" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2619" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2619" t="str">
+        <f t="shared" si="47"/>
+        <v>Scarus coeruleus</v>
+      </c>
+      <c r="J2619">
+        <v>1</v>
+      </c>
+      <c r="K2619" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2620" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2620" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2620" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2620" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2620" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F2620" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2620" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2620" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2620" t="str">
+        <f t="shared" si="47"/>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J2620">
+        <v>1</v>
+      </c>
+      <c r="K2620" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2621" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2621" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2621" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2621" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2621" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F2621" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G2621" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H2621" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I2621" t="str">
+        <f t="shared" si="47"/>
+        <v>Sphyraena barracuda</v>
+      </c>
+      <c r="J2621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2622" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2622" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2622" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2622" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2622" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F2622" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2622" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2622" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2622" t="str">
+        <f t="shared" si="47"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2622">
+        <v>22</v>
+      </c>
+      <c r="K2622" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2623" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2623" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2623" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2623" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2623" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F2623" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G2623" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2623" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I2623" t="str">
+        <f t="shared" si="47"/>
+        <v>Bodianus pulchellus</v>
+      </c>
+      <c r="J2623">
+        <v>1</v>
+      </c>
+      <c r="K2623" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2624" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2624" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2624" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2624" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2624" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F2624" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G2624" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H2624" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I2624" t="str">
+        <f t="shared" ref="I2624:I2628" si="48">G:G&amp;" "&amp;H:H</f>
+        <v>Sphyraena barracuda</v>
+      </c>
+      <c r="J2624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2625" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2625" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2625" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2625" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2625" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F2625" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2625" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2625" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2625" t="str">
+        <f t="shared" si="48"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2625">
+        <v>25</v>
+      </c>
+      <c r="K2625" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2626" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2626" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2626" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2626" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2626" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F2626" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2626" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2626" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2626" t="str">
+        <f t="shared" si="48"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2626">
+        <v>1</v>
+      </c>
+      <c r="K2626" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2627" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2627" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2627" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2627" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2627" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F2627" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2627" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2627" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2627" t="str">
+        <f t="shared" si="48"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2628" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2628" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2628" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2628" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2628" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F2628" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2628" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2628" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2628" t="str">
+        <f t="shared" si="48"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2628">
+        <v>25</v>
+      </c>
+      <c r="K2628" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2629" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2629" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2629" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2629" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2629" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F2629" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2629" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2629" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2629" t="str">
+        <f t="shared" ref="I2629:I2635" si="49">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2629">
+        <v>2</v>
+      </c>
+      <c r="K2629" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2630" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2630" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2630" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2630" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2630" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F2630" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2630" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2630" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2630" t="str">
+        <f t="shared" si="49"/>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J2630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2631" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2631" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2631" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2631" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2631" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F2631" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2631" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2631" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2631" t="str">
+        <f t="shared" si="49"/>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J2631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2632" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2632" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2632" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2632" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2632" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F2632" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2632" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2632" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2632" t="str">
+        <f t="shared" si="49"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2632">
+        <v>15</v>
+      </c>
+      <c r="K2632" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2633" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2633" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2633" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2633" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2633" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F2633" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2633" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2633" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2633" t="str">
+        <f t="shared" si="49"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2633">
+        <v>2</v>
+      </c>
+      <c r="K2633" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2634" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2634" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2634" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2634" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2634" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F2634" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2634" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2634" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2634" t="str">
+        <f t="shared" si="49"/>
+        <v>Halichoeres garnoti</v>
+      </c>
+      <c r="J2634">
+        <v>1</v>
+      </c>
+      <c r="K2634" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2635" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2635" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2635" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2635" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2635" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F2635" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2635" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2635" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2635" t="str">
+        <f t="shared" si="49"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2635">
+        <v>2</v>
+      </c>
+      <c r="K2635" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2636" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2636" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2636" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2636" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2636" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F2636" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2636" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2636" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2636" t="str">
+        <f t="shared" ref="I2636:I2640" si="50">G:G&amp;" "&amp;H:H</f>
+        <v>Halichoeres garnoti</v>
+      </c>
+      <c r="J2636">
+        <v>1</v>
+      </c>
+      <c r="K2636" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2637" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2637" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2637" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2637" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2637" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F2637" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2637" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2637" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2637" t="str">
+        <f t="shared" si="50"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2638" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2638" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2638" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2638" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2638" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F2638" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2638" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2638" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2638" t="str">
+        <f t="shared" si="50"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2638">
+        <v>1</v>
+      </c>
+      <c r="K2638" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2639" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2639" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2639" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2639" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2639" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F2639" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2639" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2639" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2639" t="str">
+        <f t="shared" si="50"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2640" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2640" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2640" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2640" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2640" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F2640" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2640" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2640" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2640" t="str">
+        <f t="shared" si="50"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2640">
+        <v>5</v>
+      </c>
+      <c r="K2640" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2641" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2641" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2641" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2641" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2641" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F2641" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2641" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2641" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2641" t="str">
+        <f t="shared" ref="I2641:I2644" si="51">G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2641">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2642" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2642" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2642" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2642" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2642" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F2642" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2642" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2642" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2642" t="str">
+        <f t="shared" si="51"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2642">
+        <v>8</v>
+      </c>
+      <c r="K2642" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2643" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2643" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2643" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2643" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2643" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F2643" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2643" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2643" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2643" t="str">
+        <f t="shared" si="51"/>
+        <v>Scarus iserti</v>
+      </c>
+      <c r="J2643">
+        <v>1</v>
+      </c>
+      <c r="K2643" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2644" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2644" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2644" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2644" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2644" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F2644" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2644" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2644" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2644" t="str">
+        <f t="shared" si="51"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2644">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2645" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2645" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2645" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2645" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2645" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F2645" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2645" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2645" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2645" t="str">
+        <f t="shared" ref="I2645:I2681" si="52">G:G&amp;" "&amp;H:H</f>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2645">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2646" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2646" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2646" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2646" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2646" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F2646" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2646" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2646" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2646" t="str">
+        <f t="shared" si="52"/>
+        <v>Scarus iserti</v>
+      </c>
+      <c r="J2646">
+        <v>1</v>
+      </c>
+      <c r="K2646" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2647" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2647" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2647" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2647" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2647" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F2647" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2647" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2647" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2647" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2647">
+        <v>4</v>
+      </c>
+      <c r="K2647" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2648" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2648" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2648" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2648" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2648" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2648" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2648" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2648" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2648" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2648">
+        <v>17</v>
+      </c>
+      <c r="K2648" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2649" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2649" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2649" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2649" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2649" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2649" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2649" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2649" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2649" t="str">
+        <f t="shared" si="52"/>
+        <v>Halichoeres garnoti</v>
+      </c>
+      <c r="J2649">
+        <v>1</v>
+      </c>
+      <c r="K2649" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2650" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2650" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2650" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2650" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2650" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2650" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2650" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2650" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2650" t="str">
+        <f t="shared" si="52"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2650">
+        <v>1</v>
+      </c>
+      <c r="K2650" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2651" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2651" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2651" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2651" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2651" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2651" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2651" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2651" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2651" t="str">
+        <f t="shared" si="52"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2652" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2652" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2652" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2652" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2652" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2652" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2652" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2652" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2652" t="str">
+        <f t="shared" si="52"/>
+        <v>Chromis multilineata</v>
+      </c>
+      <c r="J2652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2653" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2653" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2653" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2653" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2653" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2653" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2653" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2653" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2653" t="str">
+        <f t="shared" si="52"/>
+        <v>Scarus iserti</v>
+      </c>
+      <c r="J2653">
+        <v>1</v>
+      </c>
+      <c r="K2653" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2654" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2654" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2654" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2654" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2654" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2654" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2654" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2654" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2654" t="str">
+        <f t="shared" si="52"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2654">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2655" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2655" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2655" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2655" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2655" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F2655" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2655" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2655" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2655" t="str">
+        <f t="shared" si="52"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2656" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2656" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2656" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2656" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2656" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F2656" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2656" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2656" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2656" t="str">
+        <f t="shared" si="52"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2656">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2657" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2657" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2657" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2657" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2657" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F2657" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2657" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2657" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2657" t="str">
+        <f t="shared" si="52"/>
+        <v>Scarus iserti</v>
+      </c>
+      <c r="J2657">
+        <v>2</v>
+      </c>
+      <c r="K2657" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2658" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2658" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2658" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2658" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2658" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F2658" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2658" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2658" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2658" t="str">
+        <f t="shared" si="52"/>
+        <v>Stegastes sp.</v>
+      </c>
+      <c r="J2658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2659" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2659" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2659" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2659" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2659" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F2659" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2659" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2659" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2659" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2659">
+        <v>14</v>
+      </c>
+      <c r="K2659" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2660" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2660" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2660" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2660" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2660" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F2660" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2660" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2660" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2660" t="str">
+        <f t="shared" si="52"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2660">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2661" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2661" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2661" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2661" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2661" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F2661" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2661" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2661" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2661" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2661">
+        <v>6</v>
+      </c>
+      <c r="K2661" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2662" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2662" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2662" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2662" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2662" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F2662" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2662" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2662" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2662" t="str">
+        <f t="shared" si="52"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2662">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2663" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2663" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2663" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2663" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2663" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F2663" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2663" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2663" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2663" t="str">
+        <f t="shared" si="52"/>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J2663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2664" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2664" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2664" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2664" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2664" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F2664" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2664" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2664" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2664" t="str">
+        <f t="shared" si="52"/>
+        <v>Chromis multilineata</v>
+      </c>
+      <c r="J2664">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2665" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2665" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2665" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2665" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2665" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F2665" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2665" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2665" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2665" t="str">
+        <f t="shared" si="52"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2665">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2666" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2666" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2666" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2666" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2666" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F2666" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2666" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2666" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2666" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2666">
+        <v>42</v>
+      </c>
+      <c r="K2666" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2667" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2667" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2667" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2667" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2667" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F2667" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2667" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2667" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2667" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2667">
+        <v>1</v>
+      </c>
+      <c r="K2667" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2668" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2668" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2668" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2668" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2668" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F2668" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2668" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2668" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2668" t="str">
+        <f t="shared" si="52"/>
+        <v>Chromis multilineata</v>
+      </c>
+      <c r="J2668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2669" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2669" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2669" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2669" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2669" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F2669" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2669" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2669" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2669" t="str">
+        <f t="shared" si="52"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2669">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2670" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2670" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2670" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2670" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2670" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F2670" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2670" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2670" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2670" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2670">
+        <v>1</v>
+      </c>
+      <c r="K2670" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2671" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2671" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2671" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2671" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2671" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F2671" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2671" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2671" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2671" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2671">
+        <v>28</v>
+      </c>
+      <c r="K2671" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2672" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2672" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2672" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2672" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2672" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F2672" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2672" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2672" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2672" t="str">
+        <f t="shared" si="52"/>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J2672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2673" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2673" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2673" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2673" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2673" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F2673" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2673" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2673" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2673" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2673">
+        <v>25</v>
+      </c>
+      <c r="K2673" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2674" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2674" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2674" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2674" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2674" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F2674" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2674" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2674" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2674" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2674">
+        <v>2</v>
+      </c>
+      <c r="K2674" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2675" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2675" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2675" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2675" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2675" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F2675" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2675" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2675" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2675" t="str">
+        <f t="shared" si="52"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2676" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2676" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2676" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2676" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2676" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F2676" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2676" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2676" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2676" t="str">
+        <f t="shared" si="52"/>
+        <v>Scarus iserti</v>
+      </c>
+      <c r="J2676">
+        <v>1</v>
+      </c>
+      <c r="K2676" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2677" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2677" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2677" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2677" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2677" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F2677" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2677" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2677" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2677" t="str">
+        <f t="shared" si="52"/>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2677">
+        <v>1</v>
+      </c>
+      <c r="K2677" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2678" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2678" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2678" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2678" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2678" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F2678" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2678" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2678" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2678" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2678">
+        <v>37</v>
+      </c>
+      <c r="K2678" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2679" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2679" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2679" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2679" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2679" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F2679" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2679" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2679" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2679" t="str">
+        <f t="shared" si="52"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2679">
+        <v>1</v>
+      </c>
+      <c r="K2679" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2680" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2680" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2680" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2680" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2680" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F2680" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2680" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2680" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2680" t="str">
+        <f t="shared" si="52"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2681" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2681" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2681" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2681" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2681" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F2681" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2681" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2681" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2681" t="str">
+        <f t="shared" si="52"/>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J2681">
+        <v>2</v>
+      </c>
+      <c r="K2681" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2682" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2682" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2682" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2682" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2682" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F2682" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2682" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2682" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2682" t="str">
+        <f t="shared" ref="I2682:I2684" si="53">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2682">
+        <v>2</v>
+      </c>
+      <c r="K2682" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2683" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2683" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2683" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2683" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2683" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F2683" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2683" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2683" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2683" t="str">
+        <f t="shared" si="53"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2684" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2684" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2684" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2684" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2684" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F2684" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2684" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2684" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2684" t="str">
+        <f t="shared" si="53"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2684">
+        <v>13</v>
+      </c>
+      <c r="K2684" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2685" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2685" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2685" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2685" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2685" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F2685" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2685" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2685" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2685" t="str">
+        <f t="shared" ref="I2685:I2716" si="54">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2685">
+        <v>3</v>
+      </c>
+      <c r="K2685" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2686" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2686" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2686" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2686" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2686" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F2686" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2686" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2686" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2686" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2686">
+        <v>9</v>
+      </c>
+      <c r="K2686" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2687" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2687" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2687" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2687" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2687" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F2687" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2687" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2687" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2687" t="str">
+        <f t="shared" si="54"/>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2687">
+        <v>1</v>
+      </c>
+      <c r="K2687" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2688" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2688" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2688" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2688" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2688" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F2688" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2688" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2688" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2688" t="str">
+        <f t="shared" si="54"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2688">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2689" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2689" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2689" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2689" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2689" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F2689" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2689" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2689" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2689" t="str">
+        <f t="shared" si="54"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2690" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2690" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2690" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2690" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2690" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F2690" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2690" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2690" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2690" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2690">
+        <v>3</v>
+      </c>
+      <c r="K2690" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2691" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2691" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2691" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2691" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2691" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F2691" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2691" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2691" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2691" t="str">
+        <f t="shared" si="54"/>
+        <v>Halichoeres bivittatus</v>
+      </c>
+      <c r="J2691">
+        <v>1</v>
+      </c>
+      <c r="K2691" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2692" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2692" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2692" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2692" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2692" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F2692" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2692" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2692" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2692" t="str">
+        <f t="shared" si="54"/>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2692">
+        <v>1</v>
+      </c>
+      <c r="K2692" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2693" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2693" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2693" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2693" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2693" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F2693" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2693" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2693" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2693" t="str">
+        <f t="shared" si="54"/>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J2693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2694" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2694" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2694" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2694" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2694" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F2694" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2694" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2694" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2694" t="str">
+        <f t="shared" si="54"/>
+        <v>Chaetodon capistratus</v>
+      </c>
+      <c r="J2694">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2695" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2695" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2695" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2695" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2695" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F2695" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2695" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2695" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2695" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2695">
+        <v>5</v>
+      </c>
+      <c r="K2695" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2696" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2696" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2696" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2696" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2696" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F2696" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2696" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2696" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2696" t="str">
+        <f t="shared" si="54"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2697" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2697" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2697" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2697" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2697" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F2697" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2697" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2697" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2697" t="str">
+        <f t="shared" si="54"/>
+        <v>Chaetodon capistratus</v>
+      </c>
+      <c r="J2697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2698" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2698" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2698" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2698" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2698" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F2698" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2698" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2698" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2698" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2698">
+        <v>5</v>
+      </c>
+      <c r="K2698" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2699" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2699" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2699" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2699" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2699" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F2699" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2699" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2699" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2699" t="str">
+        <f t="shared" si="54"/>
+        <v>Halichoeres bivittatus</v>
+      </c>
+      <c r="J2699">
+        <v>1</v>
+      </c>
+      <c r="K2699" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2700" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2700" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2700" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2700" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2700" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F2700" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2700" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2700" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2700" t="str">
+        <f t="shared" si="54"/>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J2700">
+        <v>2</v>
+      </c>
+      <c r="K2700" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2701" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2701" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2701" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2701" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2701" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F2701" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2701" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2701" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2701" t="str">
+        <f t="shared" si="54"/>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J2701">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2702" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2702" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2702" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2702" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2702" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F2702" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2702" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2702" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2702" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2702">
+        <v>19</v>
+      </c>
+      <c r="K2702" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2703" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2703" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2703" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2703" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2703" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F2703" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2703" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2703" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2703" t="str">
+        <f t="shared" si="54"/>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J2703">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2704" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2704" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2704" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2704" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2704" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F2704" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2704" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2704" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2704" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2704">
+        <v>14</v>
+      </c>
+      <c r="K2704" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2705" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2705" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2705" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2705" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2705" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F2705" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2705" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2705" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2705" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2705">
+        <v>1</v>
+      </c>
+      <c r="K2705" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2706" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2706" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2706" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2706" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2706" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F2706" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2706" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2706" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2706" t="str">
+        <f t="shared" si="54"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2707" s="3">
+        <v>44397</v>
+      </c>
+      <c r="B2707" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2707" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2707" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2707" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F2707" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2707" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2707" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2707" t="str">
+        <f t="shared" si="54"/>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J2707">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2708" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2708" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2708" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2708" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2708" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F2708" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2708" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2708" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2708" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2708">
+        <v>44</v>
+      </c>
+      <c r="K2708" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2709" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2709" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2709" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2709" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2709" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F2709" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2709" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2709" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2709" t="str">
+        <f t="shared" si="54"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2709">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2710" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2710" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2710" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2710" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2710" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F2710" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2710" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2710" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2710" t="str">
+        <f t="shared" si="54"/>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J2710">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2711" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2711" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2711" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2711" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2711" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F2711" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2711" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2711" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2711" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2711">
+        <v>24</v>
+      </c>
+      <c r="K2711" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2712" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2712" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2712" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2712" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2712" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F2712" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2712" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2712" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2712" t="str">
+        <f t="shared" si="54"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2713" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2713" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2713" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2713" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2713" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F2713" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2713" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2713" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2713" t="str">
+        <f t="shared" si="54"/>
+        <v>Ocyurus chrysurus</v>
+      </c>
+      <c r="J2713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2714" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2714" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2714" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2714" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2714" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F2714" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2714" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2714" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2714" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2714">
+        <v>22</v>
+      </c>
+      <c r="K2714" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2715" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2715" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2715" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2715" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2715" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F2715" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2715" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2715" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2715" t="str">
+        <f t="shared" si="54"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2715">
+        <v>1</v>
+      </c>
+      <c r="K2715" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2716" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2716" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2716" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2716" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2716" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F2716" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2716" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2716" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2716" t="str">
+        <f t="shared" si="54"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2717" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2717" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2717" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2717" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2717" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F2717" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2717" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2717" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2717" t="str">
+        <f t="shared" ref="I2717" si="55">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2717">
+        <v>28</v>
+      </c>
+      <c r="K2717" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2718" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2718" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2718" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2718" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2718" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2718" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2718" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2718" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2718" t="str">
+        <f t="shared" ref="I2718:I2719" si="56">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2718">
+        <v>8</v>
+      </c>
+      <c r="K2718" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2719" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2719" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2719" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2719" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2719" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2719" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2719" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2719" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2719" t="str">
+        <f t="shared" si="56"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2719">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2720" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2720" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2720" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2720" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2720" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F2720" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2720" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2720" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2720" t="str">
+        <f t="shared" ref="I2720" si="57">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2720">
+        <v>4</v>
+      </c>
+      <c r="K2720" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2721" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2721" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2721" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2721" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2721" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F2721" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2721" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2721" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2721" t="str">
+        <f t="shared" ref="I2721" si="58">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2721">
+        <v>5</v>
+      </c>
+      <c r="K2721" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2722" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2722" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2722" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2722" s="4">
+        <v>12</v>
+      </c>
+      <c r="E2722" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F2722" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2722" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2722" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2722" t="str">
+        <f t="shared" ref="I2722" si="59">G:G&amp;" "&amp;H:H</f>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2722">
+        <v>1</v>
+      </c>
+      <c r="K2722" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/fishSurveys/data/fishSurveyData.xlsx
+++ b/fishSurveys/data/fishSurveyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14523" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14948" uniqueCount="1232">
   <si>
     <t>date</t>
   </si>
@@ -3652,6 +3652,66 @@
   </si>
   <si>
     <t>GOPR0242_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_003.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_004.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_005.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_007.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_008.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_009.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_010.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_011.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_012.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_013.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_014.png</t>
+  </si>
+  <si>
+    <t>GOPR0281.MP4_015.png</t>
+  </si>
+  <si>
+    <t>GOPR0282.MP4_001.png</t>
+  </si>
+  <si>
+    <t>GOPR0282.MP4_002.png</t>
+  </si>
+  <si>
+    <t>GOPR0282.MP4_003.png</t>
+  </si>
+  <si>
+    <t>GOPR0282.MP4_004.png</t>
+  </si>
+  <si>
+    <t>GOPR0282.MP4_005.png</t>
+  </si>
+  <si>
+    <t>GOPR0282.MP4_006.png</t>
+  </si>
+  <si>
+    <t>GOPR0282.MP4_007.png</t>
   </si>
 </sst>
 </file>
@@ -4011,11 +4071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2722"/>
+  <dimension ref="A1:W2805"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2717" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2722" sqref="A2722:E2722"/>
+      <pane ySplit="1" topLeftCell="A2793" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2805" sqref="J2805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -96418,7 +96478,7 @@
         <v>35</v>
       </c>
       <c r="I2722" t="str">
-        <f t="shared" ref="I2722" si="59">G:G&amp;" "&amp;H:H</f>
+        <f t="shared" ref="I2722:I2758" si="59">G:G&amp;" "&amp;H:H</f>
         <v>Thalassoma bifasciatum</v>
       </c>
       <c r="J2722">
@@ -96426,6 +96486,2775 @@
       </c>
       <c r="K2722" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2723" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2723" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2723" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2723" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2723" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F2723" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2723" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2723" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2723" t="str">
+        <f t="shared" si="59"/>
+        <v>Kyphosus sp.</v>
+      </c>
+      <c r="J2723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2724" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2724" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2724" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2724" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2724" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F2724" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2724" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2724" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2724" t="str">
+        <f t="shared" si="59"/>
+        <v>Bodianus rufus</v>
+      </c>
+      <c r="J2724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2725" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2725" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2725" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2725" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2725" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F2725" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2725" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2725" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2725" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2725">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2726" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2726" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2726" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2726" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2726" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F2726" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2726" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2726" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2726" t="str">
+        <f t="shared" si="59"/>
+        <v>Abudefduf saxatilis</v>
+      </c>
+      <c r="J2726">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2727" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2727" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2727" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2727" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2727" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F2727" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2727" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2727" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2727" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2728" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2728" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2728" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2728" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2728" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F2728" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2728" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H2728" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2728" t="str">
+        <f t="shared" si="59"/>
+        <v>Stegastes  partitus</v>
+      </c>
+      <c r="J2728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2729" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2729" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2729" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2729" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2729" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F2729" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2729" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2729" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2729" t="str">
+        <f t="shared" si="59"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2730" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2730" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2730" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2730" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2730" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F2730" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2730" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2730" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2730" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2730">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2731" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2731" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2731" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2731" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2731" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F2731" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2731" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2731" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2731" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2731">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2732" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2732" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2732" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2732" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2732" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F2732" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2732" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2732" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2732" t="str">
+        <f t="shared" si="59"/>
+        <v>Chromis cyanea</v>
+      </c>
+      <c r="J2732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2733" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2733" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2733" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2733" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2733" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F2733" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2733" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2733" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2733" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2733">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2734" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2734" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2734" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2734" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2734" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F2734" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2734" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2734" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2734" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2735" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2735" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2735" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2735" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2735" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F2735" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2735" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2735" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2735" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J2735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2736" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2736" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2736" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2736" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2736" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F2736" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2736" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2736" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2736" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2737" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2737" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2737" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2737" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2737" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F2737" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2737" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2737" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2737" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2738" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2738" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2738" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2738" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2738" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F2738" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2738" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2738" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2738" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J2738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2739" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2739" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2739" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2739" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2739" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F2739" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2739" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2739" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2739" t="str">
+        <f t="shared" si="59"/>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J2739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2740" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2740" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2740" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2740" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2740" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F2740" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2740" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2740" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2740" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2740">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2741" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2741" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2741" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2741" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2741" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F2741" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2741" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2741" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2741" t="str">
+        <f t="shared" si="59"/>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J2741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2742" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2742" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2742" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2742" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2742" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F2742" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2742" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2742" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2742" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2742">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2743" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2743" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2743" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2743" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2743" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F2743" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2743" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2743" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2743" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J2743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2744" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2744" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2744" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2744" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2744" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F2744" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2744" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2744" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2744" t="str">
+        <f t="shared" si="59"/>
+        <v>Abudefduf saxatilis</v>
+      </c>
+      <c r="J2744">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2745" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2745" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2745" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2745" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2745" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F2745" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2745" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2745" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2745" t="str">
+        <f t="shared" si="59"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2746" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2746" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2746" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2746" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2746" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F2746" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2746" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2746" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2746" t="str">
+        <f t="shared" si="59"/>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J2746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2747" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2747" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2747" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2747" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2747" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F2747" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2747" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2747" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2747" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2747">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2748" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2748" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2748" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2748" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2748" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F2748" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2748" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2748" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2748" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2748">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2749" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2749" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2749" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2749" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2749" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F2749" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2749" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2749" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2749" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J2749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2750" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2750" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2750" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2750" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2750" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F2750" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2750" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2750" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2750" t="str">
+        <f t="shared" si="59"/>
+        <v>Acanthurus chirurgus</v>
+      </c>
+      <c r="J2750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2751" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2751" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2751" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2751" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2751" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F2751" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2751" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2751" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2751" t="str">
+        <f t="shared" si="59"/>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J2751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2752" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2752" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2752" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2752" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2752" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F2752" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2752" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2752" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2752" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2753" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2753" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2753" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2753" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2753" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F2753" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2753" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2753" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2753" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J2753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2754" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2754" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2754" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2754" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2754" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F2754" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2754" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2754" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2754" t="str">
+        <f t="shared" si="59"/>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2754">
+        <v>1</v>
+      </c>
+      <c r="K2754" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2755" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2755" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2755" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2755" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2755" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F2755" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2755" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2755" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2755" t="str">
+        <f t="shared" si="59"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2755">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2756" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2756" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2756" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2756" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2756" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F2756" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2756" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2756" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2756" t="str">
+        <f t="shared" si="59"/>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2756">
+        <v>1</v>
+      </c>
+      <c r="K2756" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2757" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2757" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2757" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2757" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2757" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F2757" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2757" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2757" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2757" t="str">
+        <f t="shared" si="59"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2758" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2758" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2758" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2758" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2758" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F2758" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2758" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2758" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2758" t="str">
+        <f t="shared" si="59"/>
+        <v>Chaetodon capistratus</v>
+      </c>
+      <c r="J2758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2759" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2759" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2759" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2759" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2759" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F2759" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2759" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2759" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2759" t="str">
+        <f t="shared" ref="I2759:I2762" si="60">G:G&amp;" "&amp;H:H</f>
+        <v>Scarus guacamaia</v>
+      </c>
+      <c r="J2759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2760" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2760" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2760" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2760" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2760" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F2760" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2760" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2760" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2760" t="str">
+        <f t="shared" si="60"/>
+        <v>Chaetodon capistratus</v>
+      </c>
+      <c r="J2760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2761" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2761" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2761" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2761" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2761" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F2761" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2761" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2761" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2761" t="str">
+        <f t="shared" si="60"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2761">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2762" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2762" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2762" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2762" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2762" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F2762" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2762" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2762" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2762" t="str">
+        <f t="shared" si="60"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2763" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2763" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2763" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2763" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2763" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F2763" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2763" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2763" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2763" t="str">
+        <f t="shared" ref="I2763:I2764" si="61">G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2763">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2764" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2764" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2764" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2764" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2764" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F2764" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2764" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2764" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2764" t="str">
+        <f t="shared" si="61"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2764">
+        <v>1</v>
+      </c>
+      <c r="K2764" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2765" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2765" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2765" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2765" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2765" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F2765" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2765" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2765" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2765" t="str">
+        <f t="shared" ref="I2765:I2766" si="62">G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2766" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2766" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2766" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2766" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2766" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F2766" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2766" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2766" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2766" t="str">
+        <f t="shared" si="62"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2766">
+        <v>2</v>
+      </c>
+      <c r="K2766" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2767" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2767" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2767" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2767" s="4">
+        <v>12</v>
+      </c>
+      <c r="E2767" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F2767" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2767" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2767" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2767" t="str">
+        <f t="shared" ref="I2767:I2769" si="63">G:G&amp;" "&amp;H:H</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2767">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2768" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2768" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2768" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2768" s="4">
+        <v>12</v>
+      </c>
+      <c r="E2768" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F2768" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2768" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2768" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2768" t="str">
+        <f t="shared" si="63"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2768">
+        <v>3</v>
+      </c>
+      <c r="K2768" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2769" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2769" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2769" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2769" s="4">
+        <v>12</v>
+      </c>
+      <c r="E2769" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F2769" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2769" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2769" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2769" t="str">
+        <f t="shared" si="63"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2770" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2770" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2770" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2770" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2770" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F2770" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2770" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2770" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2770" t="str">
+        <f t="shared" ref="I2770:I2805" si="64">G:G&amp;" "&amp;H:H</f>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2771" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2771" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2771" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2771" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2771" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F2771" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2771" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2771" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2771" t="str">
+        <f t="shared" si="64"/>
+        <v>Ocyurus chrysurus</v>
+      </c>
+      <c r="J2771">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2772" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2772" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2772" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2772" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2772" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F2772" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2772" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2772" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2772" t="str">
+        <f t="shared" si="64"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2773" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2773" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2773" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2773" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2773" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F2773" t="s">
+        <v>725</v>
+      </c>
+      <c r="G2773" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2773" t="s">
+        <v>726</v>
+      </c>
+      <c r="I2773" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon macrostomum</v>
+      </c>
+      <c r="J2773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2774" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2774" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2774" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2774" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2774" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F2774" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2774" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2774" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2774" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2774">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2775" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2775" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2775" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2775" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2775" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F2775" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2775" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2775" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2775" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2775">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2776" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2776" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2776" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2776" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2776" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F2776" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2776" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2776" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2776" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon plumierii</v>
+      </c>
+      <c r="J2776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2777" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2777" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2777" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2777" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2777" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F2777" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2777" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2777" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2777" t="str">
+        <f t="shared" si="64"/>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J2777">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2778" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2778" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2778" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2778" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2778" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F2778" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2778" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2778" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2778" t="str">
+        <f t="shared" si="64"/>
+        <v>Abudefduf saxatilis</v>
+      </c>
+      <c r="J2778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2779" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2779" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2779" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2779" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2779" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F2779" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2779" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2779" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2779" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2779">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2780" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2780" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2780" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2780" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2780" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F2780" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2780" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2780" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2780" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2780">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2781" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2781" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2781" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2781" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2781" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F2781" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2781" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2781" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2781" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J2781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2782" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2782" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2782" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2782" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2782" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F2782" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2782" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2782" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2782" t="str">
+        <f t="shared" si="64"/>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J2782">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2783" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2783" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2783" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2783" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2783" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F2783" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2783" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2783" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2783" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon plumierii</v>
+      </c>
+      <c r="J2783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2784" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2784" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2784" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2784" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2784" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F2784" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2784" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2784" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2784" t="str">
+        <f t="shared" si="64"/>
+        <v>Abudefduf saxatilis</v>
+      </c>
+      <c r="J2784">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2785" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2785" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2785" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2785" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2785" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F2785" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2785" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2785" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2785" t="str">
+        <f t="shared" si="64"/>
+        <v>Thalassoma bifasciatum</v>
+      </c>
+      <c r="J2785">
+        <v>3</v>
+      </c>
+      <c r="K2785" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2786" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2786" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2786" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2786" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2786" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F2786" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2786" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2786" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2786" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon plumierii</v>
+      </c>
+      <c r="J2786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2787" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2787" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2787" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2787" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2787" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F2787" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2787" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2787" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2787" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2787">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2788" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2788" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2788" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2788" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2788" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F2788" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2788" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2788" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2788" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon carbonarium</v>
+      </c>
+      <c r="J2788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2789" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2789" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2789" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2789" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2789" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F2789" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2789" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2789" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2789" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2789">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2790" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2790" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2790" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2790" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2790" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F2790" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2790" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2790" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2790" t="str">
+        <f t="shared" si="64"/>
+        <v>Lutjanus apodus</v>
+      </c>
+      <c r="J2790">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2791" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2791" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2791" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2791" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2791" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F2791" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2791" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2791" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2791" t="str">
+        <f t="shared" si="64"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2792" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2792" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2792" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2792" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2792" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F2792" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2792" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2792" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2792" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2792">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2793" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2793" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2793" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2793" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2793" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F2793" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2793" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2793" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2793" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2794" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2794" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2794" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2794" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2794" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F2794" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2794" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2794" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2794" t="str">
+        <f t="shared" si="64"/>
+        <v>Halichoeres bivittatus</v>
+      </c>
+      <c r="J2794">
+        <v>1</v>
+      </c>
+      <c r="K2794" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2795" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2795" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2795" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2795" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2795" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F2795" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2795" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2795" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2795" t="str">
+        <f t="shared" si="64"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2796" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2796" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2796" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2796" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2796" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2796" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2796" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2796" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2796" t="str">
+        <f t="shared" si="64"/>
+        <v>Acanthurus coeruleus</v>
+      </c>
+      <c r="J2796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2797" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2797" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2797" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2797" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2797" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2797" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2797" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2797" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2797" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon sciurus</v>
+      </c>
+      <c r="J2797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2798" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2798" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2798" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2798" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2798" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2798" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2798" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2798" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2798" t="str">
+        <f t="shared" si="64"/>
+        <v>Anisotremus virginicus</v>
+      </c>
+      <c r="J2798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2799" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2799" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2799" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2799" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2799" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2799" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2799" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2799" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2799" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2799">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2800" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2800" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2800" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2800" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2800" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2800" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2800" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2800" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2800" t="str">
+        <f t="shared" si="64"/>
+        <v>Ocyurus chrysurus</v>
+      </c>
+      <c r="J2800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2801" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2801" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2801" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2801" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2801" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2801" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2801" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2801" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2801" t="str">
+        <f t="shared" si="64"/>
+        <v>Halichoeres bivittatus</v>
+      </c>
+      <c r="J2801">
+        <v>1</v>
+      </c>
+      <c r="K2801" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2802" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2802" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2802" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2802" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2802" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2802" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2802" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2802" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2802" t="str">
+        <f t="shared" si="64"/>
+        <v>Scarus taeniopterus</v>
+      </c>
+      <c r="J2802">
+        <v>1</v>
+      </c>
+      <c r="K2802" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2803" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2803" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2803" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2803" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2803" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2803" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2803" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2803" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2803" t="str">
+        <f t="shared" si="64"/>
+        <v>Halichoeres maculipinna</v>
+      </c>
+      <c r="J2803">
+        <v>1</v>
+      </c>
+      <c r="K2803" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2804" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2804" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2804" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2804" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2804" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F2804" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2804" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2804" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2804" t="str">
+        <f t="shared" si="64"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J2804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2805" s="5">
+        <v>44397</v>
+      </c>
+      <c r="B2805" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2805" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2805" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2805" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F2805" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2805" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2805" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2805" t="str">
+        <f t="shared" si="64"/>
+        <v>Haemulon flavolineatum</v>
+      </c>
+      <c r="J2805">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
